--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>BBVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,87 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>32752200</v>
+        <v>34402100</v>
       </c>
       <c r="E8" s="3">
-        <v>32167000</v>
+        <v>33038600</v>
       </c>
       <c r="F8" s="3">
-        <v>30423400</v>
+        <v>32448200</v>
       </c>
       <c r="G8" s="3">
-        <v>27211700</v>
+        <v>30689400</v>
       </c>
       <c r="H8" s="3">
-        <v>25076100</v>
+        <v>27449700</v>
       </c>
       <c r="I8" s="3">
-        <v>25816200</v>
+        <v>25295400</v>
       </c>
       <c r="J8" s="3">
+        <v>26041900</v>
+      </c>
+      <c r="K8" s="3">
         <v>27675100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27926100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,39 +920,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1325300</v>
+        <v>-1771100</v>
       </c>
       <c r="E15" s="3">
-        <v>-1524000</v>
+        <v>-1336900</v>
       </c>
       <c r="F15" s="3">
-        <v>-1564700</v>
+        <v>-1537300</v>
       </c>
       <c r="G15" s="3">
-        <v>-1396700</v>
+        <v>-1578300</v>
       </c>
       <c r="H15" s="3">
-        <v>-1258300</v>
+        <v>-1408900</v>
       </c>
       <c r="I15" s="3">
-        <v>-1202300</v>
+        <v>-1269300</v>
       </c>
       <c r="J15" s="3">
+        <v>-1212800</v>
+      </c>
+      <c r="K15" s="3">
         <v>-1073800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-950800</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17808500</v>
+        <v>18749500</v>
       </c>
       <c r="E17" s="3">
-        <v>16705000</v>
+        <v>17964200</v>
       </c>
       <c r="F17" s="3">
-        <v>15642100</v>
+        <v>16851000</v>
       </c>
       <c r="G17" s="3">
-        <v>14285000</v>
+        <v>15778900</v>
       </c>
       <c r="H17" s="3">
-        <v>14050000</v>
+        <v>14409900</v>
       </c>
       <c r="I17" s="3">
-        <v>16716000</v>
+        <v>14172800</v>
       </c>
       <c r="J17" s="3">
+        <v>16862100</v>
+      </c>
+      <c r="K17" s="3">
         <v>19983600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17243300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14943800</v>
+        <v>15652600</v>
       </c>
       <c r="E18" s="3">
-        <v>15462000</v>
+        <v>15074400</v>
       </c>
       <c r="F18" s="3">
-        <v>14781300</v>
+        <v>15597200</v>
       </c>
       <c r="G18" s="3">
-        <v>12926800</v>
+        <v>14910500</v>
       </c>
       <c r="H18" s="3">
-        <v>11026100</v>
+        <v>13039800</v>
       </c>
       <c r="I18" s="3">
-        <v>9100200</v>
+        <v>11122500</v>
       </c>
       <c r="J18" s="3">
+        <v>9179800</v>
+      </c>
+      <c r="K18" s="3">
         <v>7691500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10682800</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5672300</v>
+        <v>-8567300</v>
       </c>
       <c r="E20" s="3">
-        <v>-7851800</v>
+        <v>-5721900</v>
       </c>
       <c r="F20" s="3">
-        <v>-7762900</v>
+        <v>-7920400</v>
       </c>
       <c r="G20" s="3">
-        <v>-7872700</v>
+        <v>-7830700</v>
       </c>
       <c r="H20" s="3">
-        <v>-6656100</v>
+        <v>-7941500</v>
       </c>
       <c r="I20" s="3">
-        <v>-8052700</v>
+        <v>-6714300</v>
       </c>
       <c r="J20" s="3">
+        <v>-8123100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5954500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6694200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10599900</v>
+        <v>8844700</v>
       </c>
       <c r="E21" s="3">
-        <v>9135500</v>
+        <v>10681700</v>
       </c>
       <c r="F21" s="3">
-        <v>8586600</v>
+        <v>9202900</v>
       </c>
       <c r="G21" s="3">
-        <v>6452900</v>
+        <v>8648800</v>
       </c>
       <c r="H21" s="3">
-        <v>5629200</v>
+        <v>6497900</v>
       </c>
       <c r="I21" s="3">
-        <v>2256100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+        <v>5668100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2265900</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>12367100</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9271500</v>
+        <v>7085300</v>
       </c>
       <c r="E23" s="3">
-        <v>7610200</v>
+        <v>9352600</v>
       </c>
       <c r="F23" s="3">
-        <v>7018400</v>
+        <v>7676800</v>
       </c>
       <c r="G23" s="3">
-        <v>5054100</v>
+        <v>7079800</v>
       </c>
       <c r="H23" s="3">
-        <v>4370000</v>
+        <v>5098300</v>
       </c>
       <c r="I23" s="3">
-        <v>1047500</v>
+        <v>4408200</v>
       </c>
       <c r="J23" s="3">
+        <v>1056700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1737000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3988600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2519900</v>
+        <v>2273900</v>
       </c>
       <c r="E24" s="3">
-        <v>2381600</v>
+        <v>2457800</v>
       </c>
       <c r="F24" s="3">
-        <v>1865500</v>
+        <v>2402400</v>
       </c>
       <c r="G24" s="3">
-        <v>1398900</v>
+        <v>1881800</v>
       </c>
       <c r="H24" s="3">
-        <v>986000</v>
+        <v>1411100</v>
       </c>
       <c r="I24" s="3">
-        <v>-17600</v>
+        <v>994600</v>
       </c>
       <c r="J24" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-386500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>185500</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6751600</v>
+        <v>4811400</v>
       </c>
       <c r="E26" s="3">
-        <v>5228700</v>
+        <v>6894800</v>
       </c>
       <c r="F26" s="3">
-        <v>5152900</v>
+        <v>5274400</v>
       </c>
       <c r="G26" s="3">
-        <v>3655200</v>
+        <v>5198000</v>
       </c>
       <c r="H26" s="3">
-        <v>3384000</v>
+        <v>3687200</v>
       </c>
       <c r="I26" s="3">
-        <v>1065100</v>
+        <v>3413600</v>
       </c>
       <c r="J26" s="3">
+        <v>1074400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2123500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3803100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5499900</v>
+        <v>3888800</v>
       </c>
       <c r="E27" s="3">
-        <v>3533400</v>
+        <v>5632100</v>
       </c>
       <c r="F27" s="3">
-        <v>3530100</v>
+        <v>3564300</v>
       </c>
       <c r="G27" s="3">
-        <v>2668100</v>
+        <v>3560900</v>
       </c>
       <c r="H27" s="3">
-        <v>2874600</v>
+        <v>2691500</v>
       </c>
       <c r="I27" s="3">
-        <v>239400</v>
+        <v>2899700</v>
       </c>
       <c r="J27" s="3">
+        <v>241500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1513000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3283100</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>2048900</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>2066800</v>
+      </c>
+      <c r="K29" s="3">
         <v>512800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>343900</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5672300</v>
+        <v>8567300</v>
       </c>
       <c r="E32" s="3">
-        <v>7851800</v>
+        <v>5721900</v>
       </c>
       <c r="F32" s="3">
-        <v>7762900</v>
+        <v>7920400</v>
       </c>
       <c r="G32" s="3">
-        <v>7872700</v>
+        <v>7830700</v>
       </c>
       <c r="H32" s="3">
-        <v>6656100</v>
+        <v>7941500</v>
       </c>
       <c r="I32" s="3">
-        <v>8052700</v>
+        <v>6714300</v>
       </c>
       <c r="J32" s="3">
+        <v>8123100</v>
+      </c>
+      <c r="K32" s="3">
         <v>5954500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6694200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5499900</v>
+        <v>3888800</v>
       </c>
       <c r="E33" s="3">
-        <v>3533400</v>
+        <v>5632100</v>
       </c>
       <c r="F33" s="3">
-        <v>3530100</v>
+        <v>3564300</v>
       </c>
       <c r="G33" s="3">
-        <v>2668100</v>
+        <v>3560900</v>
       </c>
       <c r="H33" s="3">
-        <v>2874600</v>
+        <v>2691500</v>
       </c>
       <c r="I33" s="3">
-        <v>2288200</v>
+        <v>2899700</v>
       </c>
       <c r="J33" s="3">
+        <v>2308200</v>
+      </c>
+      <c r="K33" s="3">
         <v>2025800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3627100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5499900</v>
+        <v>3888800</v>
       </c>
       <c r="E35" s="3">
-        <v>3533400</v>
+        <v>5632100</v>
       </c>
       <c r="F35" s="3">
-        <v>3530100</v>
+        <v>3564300</v>
       </c>
       <c r="G35" s="3">
-        <v>2668100</v>
+        <v>3560900</v>
       </c>
       <c r="H35" s="3">
-        <v>2874600</v>
+        <v>2691500</v>
       </c>
       <c r="I35" s="3">
-        <v>2288200</v>
+        <v>2899700</v>
       </c>
       <c r="J35" s="3">
+        <v>2308200</v>
+      </c>
+      <c r="K35" s="3">
         <v>2025800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3627100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78288500</v>
+        <v>69058400</v>
       </c>
       <c r="E41" s="3">
-        <v>83712600</v>
+        <v>79129800</v>
       </c>
       <c r="F41" s="3">
-        <v>88176000</v>
+        <v>84612300</v>
       </c>
       <c r="G41" s="3">
-        <v>99744500</v>
+        <v>89123600</v>
       </c>
       <c r="H41" s="3">
-        <v>48364700</v>
+        <v>100817000</v>
       </c>
       <c r="I41" s="3">
-        <v>49178300</v>
+        <v>48884500</v>
       </c>
       <c r="J41" s="3">
+        <v>49706800</v>
+      </c>
+      <c r="K41" s="3">
         <v>9040900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10566600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>171062000</v>
+        <v>191298000</v>
       </c>
       <c r="E42" s="3">
-        <v>153022000</v>
+        <v>172900000</v>
       </c>
       <c r="F42" s="3">
-        <v>183989000</v>
+        <v>154666000</v>
       </c>
       <c r="G42" s="3">
-        <v>244268000</v>
+        <v>185966000</v>
       </c>
       <c r="H42" s="3">
-        <v>226164000</v>
+        <v>246893000</v>
       </c>
       <c r="I42" s="3">
-        <v>189924000</v>
+        <v>228594000</v>
       </c>
       <c r="J42" s="3">
+        <v>191965000</v>
+      </c>
+      <c r="K42" s="3">
         <v>49903000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>45849000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,99 +1840,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1732600</v>
+        <v>1651400</v>
       </c>
       <c r="E47" s="3">
-        <v>1743600</v>
+        <v>1751300</v>
       </c>
       <c r="F47" s="3">
-        <v>840000</v>
+        <v>1762400</v>
       </c>
       <c r="G47" s="3">
-        <v>965100</v>
+        <v>849000</v>
       </c>
       <c r="H47" s="3">
-        <v>4950900</v>
+        <v>975500</v>
       </c>
       <c r="I47" s="3">
-        <v>5206700</v>
+        <v>5004100</v>
       </c>
       <c r="J47" s="3">
+        <v>5262700</v>
+      </c>
+      <c r="K47" s="3">
         <v>11838600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10915300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7937400</v>
+        <v>11174600</v>
       </c>
       <c r="E48" s="3">
-        <v>7895700</v>
+        <v>8022700</v>
       </c>
       <c r="F48" s="3">
-        <v>9818300</v>
+        <v>7980600</v>
       </c>
       <c r="G48" s="3">
-        <v>10918500</v>
+        <v>9923800</v>
       </c>
       <c r="H48" s="3">
-        <v>8586400</v>
+        <v>11035900</v>
       </c>
       <c r="I48" s="3">
-        <v>8272300</v>
+        <v>8678600</v>
       </c>
       <c r="J48" s="3">
+        <v>8361200</v>
+      </c>
+      <c r="K48" s="3">
         <v>8314100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8365700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9128800</v>
+        <v>7730900</v>
       </c>
       <c r="E49" s="3">
-        <v>9293500</v>
+        <v>9226900</v>
       </c>
       <c r="F49" s="3">
-        <v>10745000</v>
+        <v>9393300</v>
       </c>
       <c r="G49" s="3">
-        <v>11037100</v>
+        <v>10860500</v>
       </c>
       <c r="H49" s="3">
-        <v>8093400</v>
+        <v>11155700</v>
       </c>
       <c r="I49" s="3">
-        <v>7421400</v>
+        <v>8180300</v>
       </c>
       <c r="J49" s="3">
+        <v>7501100</v>
+      </c>
+      <c r="K49" s="3">
         <v>7830900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8075800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19014100</v>
+        <v>20417000</v>
       </c>
       <c r="E52" s="3">
-        <v>42358600</v>
+        <v>19218400</v>
       </c>
       <c r="F52" s="3">
-        <v>21953400</v>
+        <v>42813900</v>
       </c>
       <c r="G52" s="3">
-        <v>21133200</v>
+        <v>22189300</v>
       </c>
       <c r="H52" s="3">
-        <v>11409300</v>
+        <v>21360300</v>
       </c>
       <c r="I52" s="3">
-        <v>10103800</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
+        <v>11531900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>10212400</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>743005000</v>
+        <v>775406000</v>
       </c>
       <c r="E54" s="3">
-        <v>757685000</v>
+        <v>750990000</v>
       </c>
       <c r="F54" s="3">
-        <v>803578000</v>
+        <v>765828000</v>
       </c>
       <c r="G54" s="3">
-        <v>823341000</v>
+        <v>812214000</v>
       </c>
       <c r="H54" s="3">
-        <v>693872000</v>
+        <v>832189000</v>
       </c>
       <c r="I54" s="3">
-        <v>639801000</v>
+        <v>701329000</v>
       </c>
       <c r="J54" s="3">
+        <v>646677000</v>
+      </c>
+      <c r="K54" s="3">
         <v>681937000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>684141000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,98 +2137,108 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6201500</v>
+        <v>4987400</v>
       </c>
       <c r="E57" s="3">
-        <v>6108200</v>
+        <v>6268200</v>
       </c>
       <c r="F57" s="3">
-        <v>7169900</v>
+        <v>6173800</v>
       </c>
       <c r="G57" s="3">
-        <v>7659600</v>
+        <v>7247000</v>
       </c>
       <c r="H57" s="3">
-        <v>3672800</v>
+        <v>7742000</v>
       </c>
       <c r="I57" s="3">
-        <v>2345300</v>
+        <v>3712300</v>
       </c>
       <c r="J57" s="3">
+        <v>2370500</v>
+      </c>
+      <c r="K57" s="3">
         <v>8333800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8697900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>7283600</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1350500</v>
+        <v>976600</v>
       </c>
       <c r="E59" s="3">
-        <v>1223200</v>
+        <v>1365100</v>
       </c>
       <c r="F59" s="3">
-        <v>1977500</v>
+        <v>1236300</v>
       </c>
       <c r="G59" s="3">
-        <v>1918200</v>
+        <v>1998700</v>
       </c>
       <c r="H59" s="3">
-        <v>1076000</v>
+        <v>1938800</v>
       </c>
       <c r="I59" s="3">
-        <v>1307700</v>
+        <v>1087600</v>
       </c>
       <c r="J59" s="3">
+        <v>1321800</v>
+      </c>
+      <c r="K59" s="3">
         <v>6722000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5113100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>70239100</v>
+        <v>76153400</v>
       </c>
       <c r="E61" s="3">
-        <v>70178700</v>
+        <v>70993900</v>
       </c>
       <c r="F61" s="3">
-        <v>83859800</v>
+        <v>70932900</v>
       </c>
       <c r="G61" s="3">
-        <v>90014000</v>
+        <v>84761000</v>
       </c>
       <c r="H61" s="3">
-        <v>79265700</v>
+        <v>90981400</v>
       </c>
       <c r="I61" s="3">
-        <v>81994200</v>
+        <v>80117600</v>
       </c>
       <c r="J61" s="3">
+        <v>82875400</v>
+      </c>
+      <c r="K61" s="3">
         <v>98141400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>126617000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9682200</v>
+        <v>9395600</v>
       </c>
       <c r="E62" s="3">
-        <v>10607800</v>
+        <v>9786200</v>
       </c>
       <c r="F62" s="3">
-        <v>13684400</v>
+        <v>10721800</v>
       </c>
       <c r="G62" s="3">
-        <v>13472500</v>
+        <v>13831400</v>
       </c>
       <c r="H62" s="3">
-        <v>11661900</v>
+        <v>13617200</v>
       </c>
       <c r="I62" s="3">
-        <v>9212200</v>
+        <v>11787200</v>
       </c>
       <c r="J62" s="3">
+        <v>9311200</v>
+      </c>
+      <c r="K62" s="3">
         <v>6343100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6546300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>691278000</v>
+        <v>721332000</v>
       </c>
       <c r="E66" s="3">
-        <v>706799000</v>
+        <v>698707000</v>
       </c>
       <c r="F66" s="3">
-        <v>751572000</v>
+        <v>714395000</v>
       </c>
       <c r="G66" s="3">
-        <v>771416000</v>
+        <v>759649000</v>
       </c>
       <c r="H66" s="3">
-        <v>639962000</v>
+        <v>779707000</v>
       </c>
       <c r="I66" s="3">
-        <v>593472000</v>
+        <v>646839000</v>
       </c>
       <c r="J66" s="3">
+        <v>599850000</v>
+      </c>
+      <c r="K66" s="3">
         <v>636447000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>639341000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31055800</v>
+        <v>33059800</v>
       </c>
       <c r="E72" s="3">
-        <v>29751400</v>
+        <v>31389600</v>
       </c>
       <c r="F72" s="3">
-        <v>29751400</v>
+        <v>30071100</v>
       </c>
       <c r="G72" s="3">
-        <v>27594900</v>
+        <v>30071100</v>
       </c>
       <c r="H72" s="3">
-        <v>25863400</v>
+        <v>27891500</v>
       </c>
       <c r="I72" s="3">
-        <v>23992400</v>
+        <v>26141300</v>
       </c>
       <c r="J72" s="3">
+        <v>24250200</v>
+      </c>
+      <c r="K72" s="3">
         <v>21110100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21373900</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51726800</v>
+        <v>54073900</v>
       </c>
       <c r="E76" s="3">
-        <v>50885700</v>
+        <v>52282700</v>
       </c>
       <c r="F76" s="3">
-        <v>52005700</v>
+        <v>51432600</v>
       </c>
       <c r="G76" s="3">
-        <v>51924400</v>
+        <v>52564600</v>
       </c>
       <c r="H76" s="3">
-        <v>53910700</v>
+        <v>52482400</v>
       </c>
       <c r="I76" s="3">
-        <v>46329000</v>
+        <v>54490100</v>
       </c>
       <c r="J76" s="3">
+        <v>46826900</v>
+      </c>
+      <c r="K76" s="3">
         <v>45490100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>44799600</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5499900</v>
+        <v>3888800</v>
       </c>
       <c r="E81" s="3">
-        <v>3533400</v>
+        <v>5632100</v>
       </c>
       <c r="F81" s="3">
-        <v>3530100</v>
+        <v>3564300</v>
       </c>
       <c r="G81" s="3">
-        <v>2668100</v>
+        <v>3560900</v>
       </c>
       <c r="H81" s="3">
-        <v>2874600</v>
+        <v>2691500</v>
       </c>
       <c r="I81" s="3">
-        <v>2288200</v>
+        <v>2899700</v>
       </c>
       <c r="J81" s="3">
+        <v>2308200</v>
+      </c>
+      <c r="K81" s="3">
         <v>2025800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3627100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1326400</v>
+        <v>1771100</v>
       </c>
       <c r="E83" s="3">
-        <v>1522900</v>
+        <v>1338000</v>
       </c>
       <c r="F83" s="3">
-        <v>1565700</v>
+        <v>1536200</v>
       </c>
       <c r="G83" s="3">
-        <v>1396700</v>
+        <v>1579400</v>
       </c>
       <c r="H83" s="3">
-        <v>1257200</v>
+        <v>1408900</v>
       </c>
       <c r="I83" s="3">
-        <v>1206700</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+        <v>1268200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1217300</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>8372800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9513100</v>
+        <v>-9098900</v>
       </c>
       <c r="E89" s="3">
-        <v>2257500</v>
+        <v>10244200</v>
       </c>
       <c r="F89" s="3">
-        <v>7274300</v>
+        <v>2277200</v>
       </c>
       <c r="G89" s="3">
-        <v>25364900</v>
+        <v>7337900</v>
       </c>
       <c r="H89" s="3">
-        <v>-6794400</v>
+        <v>25586700</v>
       </c>
       <c r="I89" s="3">
-        <v>-549000</v>
+        <v>-6853800</v>
       </c>
       <c r="J89" s="3">
+        <v>-553800</v>
+      </c>
+      <c r="K89" s="3">
         <v>10681300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20168400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1035400</v>
+        <v>-943700</v>
       </c>
       <c r="E91" s="3">
-        <v>-853100</v>
+        <v>-1044500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1440600</v>
+        <v>-860600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2383800</v>
+        <v>-1453200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1558100</v>
+        <v>-2404600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1374700</v>
+        <v>-1571700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1386700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1850100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2244300</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>8252600</v>
+        <v>108500</v>
       </c>
       <c r="E94" s="3">
-        <v>3186400</v>
+        <v>8324700</v>
       </c>
       <c r="F94" s="3">
-        <v>-614900</v>
+        <v>3214300</v>
       </c>
       <c r="G94" s="3">
-        <v>-4843300</v>
+        <v>-620300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1263800</v>
+        <v>-4885600</v>
       </c>
       <c r="I94" s="3">
-        <v>3317100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+        <v>-1274800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>3346100</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-5977000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2313500</v>
+        <v>-2378000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1864400</v>
+        <v>-2333700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1755700</v>
+        <v>-1880700</v>
       </c>
       <c r="G96" s="3">
-        <v>-965100</v>
+        <v>-1771100</v>
       </c>
       <c r="H96" s="3">
-        <v>-906900</v>
+        <v>-973600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1400000</v>
+        <v>-914900</v>
       </c>
       <c r="J96" s="3">
+        <v>-1412200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1393400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1210200</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5591000</v>
+        <v>-2992700</v>
       </c>
       <c r="E100" s="3">
-        <v>-107600</v>
+        <v>-5639900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1222100</v>
+        <v>-108500</v>
       </c>
       <c r="G100" s="3">
-        <v>139400</v>
+        <v>-1232800</v>
       </c>
       <c r="H100" s="3">
-        <v>3466400</v>
+        <v>140700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1455900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+        <v>3496700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1468700</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1489600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2742800</v>
+        <v>-285800</v>
       </c>
       <c r="E101" s="3">
-        <v>-4684100</v>
+        <v>-2766800</v>
       </c>
       <c r="F101" s="3">
-        <v>-3802400</v>
+        <v>-4725000</v>
       </c>
       <c r="G101" s="3">
-        <v>-7445500</v>
+        <v>-3835600</v>
       </c>
       <c r="H101" s="3">
-        <v>796100</v>
+        <v>-7510600</v>
       </c>
       <c r="I101" s="3">
-        <v>-1958800</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+        <v>803000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1976000</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1125700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9431800</v>
+        <v>-12268900</v>
       </c>
       <c r="E102" s="3">
-        <v>652200</v>
+        <v>10162200</v>
       </c>
       <c r="F102" s="3">
-        <v>1634900</v>
+        <v>657900</v>
       </c>
       <c r="G102" s="3">
-        <v>13215500</v>
+        <v>1649200</v>
       </c>
       <c r="H102" s="3">
-        <v>-3795800</v>
+        <v>13331100</v>
       </c>
       <c r="I102" s="3">
-        <v>-646700</v>
+        <v>-3829000</v>
       </c>
       <c r="J102" s="3">
+        <v>-652400</v>
+      </c>
+      <c r="K102" s="3">
         <v>6200400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11576100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34402100</v>
+        <v>36740900</v>
       </c>
       <c r="E8" s="3">
-        <v>33038600</v>
+        <v>35284700</v>
       </c>
       <c r="F8" s="3">
-        <v>32448200</v>
+        <v>34654200</v>
       </c>
       <c r="G8" s="3">
-        <v>30689400</v>
+        <v>32775800</v>
       </c>
       <c r="H8" s="3">
-        <v>27449700</v>
+        <v>29315800</v>
       </c>
       <c r="I8" s="3">
-        <v>25295400</v>
+        <v>27015100</v>
       </c>
       <c r="J8" s="3">
-        <v>26041900</v>
+        <v>27812300</v>
       </c>
       <c r="K8" s="3">
         <v>27675100</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1771100</v>
+        <v>-1891500</v>
       </c>
       <c r="E15" s="3">
-        <v>-1336900</v>
+        <v>-1427800</v>
       </c>
       <c r="F15" s="3">
-        <v>-1537300</v>
+        <v>-1641900</v>
       </c>
       <c r="G15" s="3">
-        <v>-1578300</v>
+        <v>-1685600</v>
       </c>
       <c r="H15" s="3">
-        <v>-1408900</v>
+        <v>-1504600</v>
       </c>
       <c r="I15" s="3">
-        <v>-1269300</v>
+        <v>-1355600</v>
       </c>
       <c r="J15" s="3">
-        <v>-1212800</v>
+        <v>-1295300</v>
       </c>
       <c r="K15" s="3">
         <v>-1073800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18749500</v>
+        <v>20024100</v>
       </c>
       <c r="E17" s="3">
-        <v>17964200</v>
+        <v>19185500</v>
       </c>
       <c r="F17" s="3">
-        <v>16851000</v>
+        <v>17996600</v>
       </c>
       <c r="G17" s="3">
-        <v>15778900</v>
+        <v>16851600</v>
       </c>
       <c r="H17" s="3">
-        <v>14409900</v>
+        <v>15389500</v>
       </c>
       <c r="I17" s="3">
-        <v>14172800</v>
+        <v>15136400</v>
       </c>
       <c r="J17" s="3">
-        <v>16862100</v>
+        <v>18008500</v>
       </c>
       <c r="K17" s="3">
         <v>19983600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15652600</v>
+        <v>16716700</v>
       </c>
       <c r="E18" s="3">
-        <v>15074400</v>
+        <v>16099300</v>
       </c>
       <c r="F18" s="3">
-        <v>15597200</v>
+        <v>16657600</v>
       </c>
       <c r="G18" s="3">
-        <v>14910500</v>
+        <v>15924200</v>
       </c>
       <c r="H18" s="3">
-        <v>13039800</v>
+        <v>13926300</v>
       </c>
       <c r="I18" s="3">
-        <v>11122500</v>
+        <v>11878700</v>
       </c>
       <c r="J18" s="3">
-        <v>9179800</v>
+        <v>9803900</v>
       </c>
       <c r="K18" s="3">
         <v>7691500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8567300</v>
+        <v>-9149700</v>
       </c>
       <c r="E20" s="3">
-        <v>-5721900</v>
+        <v>-6110900</v>
       </c>
       <c r="F20" s="3">
-        <v>-7920400</v>
+        <v>-8458900</v>
       </c>
       <c r="G20" s="3">
-        <v>-7830700</v>
+        <v>-8363100</v>
       </c>
       <c r="H20" s="3">
-        <v>-7941500</v>
+        <v>-8481400</v>
       </c>
       <c r="I20" s="3">
-        <v>-6714300</v>
+        <v>-7170700</v>
       </c>
       <c r="J20" s="3">
-        <v>-8123100</v>
+        <v>-8675400</v>
       </c>
       <c r="K20" s="3">
         <v>-5954500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8844700</v>
+        <v>9459100</v>
       </c>
       <c r="E21" s="3">
-        <v>10681700</v>
+        <v>11417800</v>
       </c>
       <c r="F21" s="3">
-        <v>9202900</v>
+        <v>9839900</v>
       </c>
       <c r="G21" s="3">
-        <v>8648800</v>
+        <v>9248500</v>
       </c>
       <c r="H21" s="3">
-        <v>6497900</v>
+        <v>6950100</v>
       </c>
       <c r="I21" s="3">
-        <v>5668100</v>
+        <v>6062800</v>
       </c>
       <c r="J21" s="3">
-        <v>2265900</v>
+        <v>2428900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7085300</v>
+        <v>7567000</v>
       </c>
       <c r="E23" s="3">
-        <v>9352600</v>
+        <v>9988400</v>
       </c>
       <c r="F23" s="3">
-        <v>7676800</v>
+        <v>8198700</v>
       </c>
       <c r="G23" s="3">
-        <v>7079800</v>
+        <v>7561100</v>
       </c>
       <c r="H23" s="3">
-        <v>5098300</v>
+        <v>5444900</v>
       </c>
       <c r="I23" s="3">
-        <v>4408200</v>
+        <v>4707900</v>
       </c>
       <c r="J23" s="3">
-        <v>1056700</v>
+        <v>1128500</v>
       </c>
       <c r="K23" s="3">
         <v>1737000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2273900</v>
+        <v>2428500</v>
       </c>
       <c r="E24" s="3">
-        <v>2457800</v>
+        <v>2624900</v>
       </c>
       <c r="F24" s="3">
-        <v>2402400</v>
+        <v>2565700</v>
       </c>
       <c r="G24" s="3">
-        <v>1881800</v>
+        <v>2009700</v>
       </c>
       <c r="H24" s="3">
-        <v>1411100</v>
+        <v>1507000</v>
       </c>
       <c r="I24" s="3">
-        <v>994600</v>
+        <v>1062200</v>
       </c>
       <c r="J24" s="3">
-        <v>-17700</v>
+        <v>-18900</v>
       </c>
       <c r="K24" s="3">
         <v>-386500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4811400</v>
+        <v>5138500</v>
       </c>
       <c r="E26" s="3">
-        <v>6894800</v>
+        <v>7363600</v>
       </c>
       <c r="F26" s="3">
-        <v>5274400</v>
+        <v>5633000</v>
       </c>
       <c r="G26" s="3">
-        <v>5198000</v>
+        <v>5551300</v>
       </c>
       <c r="H26" s="3">
-        <v>3687200</v>
+        <v>3937900</v>
       </c>
       <c r="I26" s="3">
-        <v>3413600</v>
+        <v>3645700</v>
       </c>
       <c r="J26" s="3">
-        <v>1074400</v>
+        <v>1147400</v>
       </c>
       <c r="K26" s="3">
         <v>2123500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3888800</v>
+        <v>4153200</v>
       </c>
       <c r="E27" s="3">
-        <v>5632100</v>
+        <v>6015000</v>
       </c>
       <c r="F27" s="3">
-        <v>3564300</v>
+        <v>3806600</v>
       </c>
       <c r="G27" s="3">
-        <v>3560900</v>
+        <v>3803000</v>
       </c>
       <c r="H27" s="3">
-        <v>2691500</v>
+        <v>2874400</v>
       </c>
       <c r="I27" s="3">
-        <v>2899700</v>
+        <v>3096800</v>
       </c>
       <c r="J27" s="3">
-        <v>241500</v>
+        <v>257900</v>
       </c>
       <c r="K27" s="3">
         <v>1513000</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>2066800</v>
+        <v>2207300</v>
       </c>
       <c r="K29" s="3">
         <v>512800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8567300</v>
+        <v>9149700</v>
       </c>
       <c r="E32" s="3">
-        <v>5721900</v>
+        <v>6110900</v>
       </c>
       <c r="F32" s="3">
-        <v>7920400</v>
+        <v>8458900</v>
       </c>
       <c r="G32" s="3">
-        <v>7830700</v>
+        <v>8363100</v>
       </c>
       <c r="H32" s="3">
-        <v>7941500</v>
+        <v>8481400</v>
       </c>
       <c r="I32" s="3">
-        <v>6714300</v>
+        <v>7170700</v>
       </c>
       <c r="J32" s="3">
-        <v>8123100</v>
+        <v>8675400</v>
       </c>
       <c r="K32" s="3">
         <v>5954500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3888800</v>
+        <v>4153200</v>
       </c>
       <c r="E33" s="3">
-        <v>5632100</v>
+        <v>6015000</v>
       </c>
       <c r="F33" s="3">
-        <v>3564300</v>
+        <v>3806600</v>
       </c>
       <c r="G33" s="3">
-        <v>3560900</v>
+        <v>3803000</v>
       </c>
       <c r="H33" s="3">
-        <v>2691500</v>
+        <v>2874400</v>
       </c>
       <c r="I33" s="3">
-        <v>2899700</v>
+        <v>3096800</v>
       </c>
       <c r="J33" s="3">
-        <v>2308200</v>
+        <v>2465200</v>
       </c>
       <c r="K33" s="3">
         <v>2025800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3888800</v>
+        <v>4153200</v>
       </c>
       <c r="E35" s="3">
-        <v>5632100</v>
+        <v>6015000</v>
       </c>
       <c r="F35" s="3">
-        <v>3564300</v>
+        <v>3806600</v>
       </c>
       <c r="G35" s="3">
-        <v>3560900</v>
+        <v>3803000</v>
       </c>
       <c r="H35" s="3">
-        <v>2691500</v>
+        <v>2874400</v>
       </c>
       <c r="I35" s="3">
-        <v>2899700</v>
+        <v>3096800</v>
       </c>
       <c r="J35" s="3">
-        <v>2308200</v>
+        <v>2465200</v>
       </c>
       <c r="K35" s="3">
         <v>2025800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>69058400</v>
+        <v>73607100</v>
       </c>
       <c r="E41" s="3">
-        <v>79129800</v>
+        <v>84342000</v>
       </c>
       <c r="F41" s="3">
-        <v>84612300</v>
+        <v>90185500</v>
       </c>
       <c r="G41" s="3">
-        <v>89123600</v>
+        <v>94994000</v>
       </c>
       <c r="H41" s="3">
-        <v>100817000</v>
+        <v>107457000</v>
       </c>
       <c r="I41" s="3">
-        <v>48884500</v>
+        <v>52104400</v>
       </c>
       <c r="J41" s="3">
-        <v>49706800</v>
+        <v>52980900</v>
       </c>
       <c r="K41" s="3">
         <v>9040900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>191298000</v>
+        <v>203899000</v>
       </c>
       <c r="E42" s="3">
-        <v>172900000</v>
+        <v>184289000</v>
       </c>
       <c r="F42" s="3">
-        <v>154666000</v>
+        <v>164854000</v>
       </c>
       <c r="G42" s="3">
-        <v>185966000</v>
+        <v>198215000</v>
       </c>
       <c r="H42" s="3">
-        <v>246893000</v>
+        <v>263155000</v>
       </c>
       <c r="I42" s="3">
-        <v>228594000</v>
+        <v>243651000</v>
       </c>
       <c r="J42" s="3">
-        <v>191965000</v>
+        <v>204610000</v>
       </c>
       <c r="K42" s="3">
         <v>49903000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1651400</v>
+        <v>1760200</v>
       </c>
       <c r="E47" s="3">
-        <v>1751300</v>
+        <v>1866600</v>
       </c>
       <c r="F47" s="3">
-        <v>1762400</v>
+        <v>1878400</v>
       </c>
       <c r="G47" s="3">
-        <v>849000</v>
+        <v>904900</v>
       </c>
       <c r="H47" s="3">
-        <v>975500</v>
+        <v>1039800</v>
       </c>
       <c r="I47" s="3">
-        <v>5004100</v>
+        <v>5333700</v>
       </c>
       <c r="J47" s="3">
-        <v>5262700</v>
+        <v>5609300</v>
       </c>
       <c r="K47" s="3">
         <v>11838600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11174600</v>
+        <v>11910600</v>
       </c>
       <c r="E48" s="3">
-        <v>8022700</v>
+        <v>8551200</v>
       </c>
       <c r="F48" s="3">
-        <v>7980600</v>
+        <v>8506200</v>
       </c>
       <c r="G48" s="3">
-        <v>9923800</v>
+        <v>10577500</v>
       </c>
       <c r="H48" s="3">
-        <v>11035900</v>
+        <v>11762800</v>
       </c>
       <c r="I48" s="3">
-        <v>8678600</v>
+        <v>9250300</v>
       </c>
       <c r="J48" s="3">
-        <v>8361200</v>
+        <v>8912000</v>
       </c>
       <c r="K48" s="3">
         <v>8314100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7730900</v>
+        <v>8240100</v>
       </c>
       <c r="E49" s="3">
-        <v>9226900</v>
+        <v>9834600</v>
       </c>
       <c r="F49" s="3">
-        <v>9393300</v>
+        <v>10012100</v>
       </c>
       <c r="G49" s="3">
-        <v>10860500</v>
+        <v>11575900</v>
       </c>
       <c r="H49" s="3">
-        <v>11155700</v>
+        <v>11890500</v>
       </c>
       <c r="I49" s="3">
-        <v>8180300</v>
+        <v>8719200</v>
       </c>
       <c r="J49" s="3">
-        <v>7501100</v>
+        <v>7995200</v>
       </c>
       <c r="K49" s="3">
         <v>7830900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20417000</v>
+        <v>21761800</v>
       </c>
       <c r="E52" s="3">
-        <v>19218400</v>
+        <v>20484300</v>
       </c>
       <c r="F52" s="3">
-        <v>42813900</v>
+        <v>45633900</v>
       </c>
       <c r="G52" s="3">
-        <v>22189300</v>
+        <v>23650900</v>
       </c>
       <c r="H52" s="3">
-        <v>21360300</v>
+        <v>22767300</v>
       </c>
       <c r="I52" s="3">
-        <v>11531900</v>
+        <v>12291500</v>
       </c>
       <c r="J52" s="3">
-        <v>10212400</v>
+        <v>10885000</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>775406000</v>
+        <v>826480000</v>
       </c>
       <c r="E54" s="3">
-        <v>750990000</v>
+        <v>800455000</v>
       </c>
       <c r="F54" s="3">
-        <v>765828000</v>
+        <v>816271000</v>
       </c>
       <c r="G54" s="3">
-        <v>812214000</v>
+        <v>865713000</v>
       </c>
       <c r="H54" s="3">
-        <v>832189000</v>
+        <v>887004000</v>
       </c>
       <c r="I54" s="3">
-        <v>701329000</v>
+        <v>747524000</v>
       </c>
       <c r="J54" s="3">
-        <v>646677000</v>
+        <v>689272000</v>
       </c>
       <c r="K54" s="3">
         <v>681937000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4987400</v>
+        <v>5316000</v>
       </c>
       <c r="E57" s="3">
-        <v>6268200</v>
+        <v>6681000</v>
       </c>
       <c r="F57" s="3">
-        <v>6173800</v>
+        <v>6580500</v>
       </c>
       <c r="G57" s="3">
-        <v>7247000</v>
+        <v>7724300</v>
       </c>
       <c r="H57" s="3">
-        <v>7742000</v>
+        <v>8251900</v>
       </c>
       <c r="I57" s="3">
-        <v>3712300</v>
+        <v>3956800</v>
       </c>
       <c r="J57" s="3">
-        <v>2370500</v>
+        <v>2526700</v>
       </c>
       <c r="K57" s="3">
         <v>8333800</v>
@@ -2177,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7283600</v>
+        <v>7763400</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>976600</v>
+        <v>1041000</v>
       </c>
       <c r="E59" s="3">
-        <v>1365100</v>
+        <v>1455000</v>
       </c>
       <c r="F59" s="3">
-        <v>1236300</v>
+        <v>1317800</v>
       </c>
       <c r="G59" s="3">
-        <v>1998700</v>
+        <v>2130400</v>
       </c>
       <c r="H59" s="3">
-        <v>1938800</v>
+        <v>2066500</v>
       </c>
       <c r="I59" s="3">
-        <v>1087600</v>
+        <v>1159200</v>
       </c>
       <c r="J59" s="3">
-        <v>1321800</v>
+        <v>1408800</v>
       </c>
       <c r="K59" s="3">
         <v>6722000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>76153400</v>
+        <v>81169400</v>
       </c>
       <c r="E61" s="3">
-        <v>70993900</v>
+        <v>75670100</v>
       </c>
       <c r="F61" s="3">
-        <v>70932900</v>
+        <v>75605100</v>
       </c>
       <c r="G61" s="3">
-        <v>84761000</v>
+        <v>90344000</v>
       </c>
       <c r="H61" s="3">
-        <v>90981400</v>
+        <v>96974100</v>
       </c>
       <c r="I61" s="3">
-        <v>80117600</v>
+        <v>85394700</v>
       </c>
       <c r="J61" s="3">
-        <v>82875400</v>
+        <v>88334200</v>
       </c>
       <c r="K61" s="3">
         <v>98141400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9395600</v>
+        <v>10014400</v>
       </c>
       <c r="E62" s="3">
-        <v>9786200</v>
+        <v>10430800</v>
       </c>
       <c r="F62" s="3">
-        <v>10721800</v>
+        <v>11428000</v>
       </c>
       <c r="G62" s="3">
-        <v>13831400</v>
+        <v>14742500</v>
       </c>
       <c r="H62" s="3">
-        <v>13617200</v>
+        <v>14514200</v>
       </c>
       <c r="I62" s="3">
-        <v>11787200</v>
+        <v>12563600</v>
       </c>
       <c r="J62" s="3">
-        <v>9311200</v>
+        <v>9924500</v>
       </c>
       <c r="K62" s="3">
         <v>6343100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>721332000</v>
+        <v>768845000</v>
       </c>
       <c r="E66" s="3">
-        <v>698707000</v>
+        <v>744729000</v>
       </c>
       <c r="F66" s="3">
-        <v>714395000</v>
+        <v>761451000</v>
       </c>
       <c r="G66" s="3">
-        <v>759649000</v>
+        <v>809686000</v>
       </c>
       <c r="H66" s="3">
-        <v>779707000</v>
+        <v>831064000</v>
       </c>
       <c r="I66" s="3">
-        <v>646839000</v>
+        <v>689445000</v>
       </c>
       <c r="J66" s="3">
-        <v>599850000</v>
+        <v>639361000</v>
       </c>
       <c r="K66" s="3">
         <v>636447000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33059800</v>
+        <v>35237400</v>
       </c>
       <c r="E72" s="3">
-        <v>31389600</v>
+        <v>33457100</v>
       </c>
       <c r="F72" s="3">
-        <v>30071100</v>
+        <v>32051900</v>
       </c>
       <c r="G72" s="3">
-        <v>30071100</v>
+        <v>32051900</v>
       </c>
       <c r="H72" s="3">
-        <v>27891500</v>
+        <v>29728600</v>
       </c>
       <c r="I72" s="3">
-        <v>26141300</v>
+        <v>27863200</v>
       </c>
       <c r="J72" s="3">
-        <v>24250200</v>
+        <v>25847500</v>
       </c>
       <c r="K72" s="3">
         <v>21110100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>54073900</v>
+        <v>57635600</v>
       </c>
       <c r="E76" s="3">
-        <v>52282700</v>
+        <v>55726400</v>
       </c>
       <c r="F76" s="3">
-        <v>51432600</v>
+        <v>54820300</v>
       </c>
       <c r="G76" s="3">
-        <v>52564600</v>
+        <v>56026900</v>
       </c>
       <c r="H76" s="3">
-        <v>52482400</v>
+        <v>55939300</v>
       </c>
       <c r="I76" s="3">
-        <v>54490100</v>
+        <v>58079200</v>
       </c>
       <c r="J76" s="3">
-        <v>46826900</v>
+        <v>49911300</v>
       </c>
       <c r="K76" s="3">
         <v>45490100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3888800</v>
+        <v>4153200</v>
       </c>
       <c r="E81" s="3">
-        <v>5632100</v>
+        <v>6015000</v>
       </c>
       <c r="F81" s="3">
-        <v>3564300</v>
+        <v>3806600</v>
       </c>
       <c r="G81" s="3">
-        <v>3560900</v>
+        <v>3803000</v>
       </c>
       <c r="H81" s="3">
-        <v>2691500</v>
+        <v>2874400</v>
       </c>
       <c r="I81" s="3">
-        <v>2899700</v>
+        <v>3096800</v>
       </c>
       <c r="J81" s="3">
-        <v>2308200</v>
+        <v>2465200</v>
       </c>
       <c r="K81" s="3">
         <v>2025800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1771100</v>
+        <v>1891500</v>
       </c>
       <c r="E83" s="3">
-        <v>1338000</v>
+        <v>1428900</v>
       </c>
       <c r="F83" s="3">
-        <v>1536200</v>
+        <v>1640700</v>
       </c>
       <c r="G83" s="3">
-        <v>1579400</v>
+        <v>1686800</v>
       </c>
       <c r="H83" s="3">
-        <v>1408900</v>
+        <v>1504600</v>
       </c>
       <c r="I83" s="3">
-        <v>1268200</v>
+        <v>1354400</v>
       </c>
       <c r="J83" s="3">
-        <v>1217300</v>
+        <v>1300000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9098900</v>
+        <v>-9717500</v>
       </c>
       <c r="E89" s="3">
-        <v>10244200</v>
+        <v>10940600</v>
       </c>
       <c r="F89" s="3">
-        <v>2277200</v>
+        <v>2432000</v>
       </c>
       <c r="G89" s="3">
-        <v>7337900</v>
+        <v>7836700</v>
       </c>
       <c r="H89" s="3">
-        <v>25586700</v>
+        <v>27326200</v>
       </c>
       <c r="I89" s="3">
-        <v>-6853800</v>
+        <v>-7319800</v>
       </c>
       <c r="J89" s="3">
-        <v>-553800</v>
+        <v>-591500</v>
       </c>
       <c r="K89" s="3">
         <v>10681300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-943700</v>
+        <v>-1007800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1044500</v>
+        <v>-1115500</v>
       </c>
       <c r="F91" s="3">
-        <v>-860600</v>
+        <v>-919100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1453200</v>
+        <v>-1552000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2404600</v>
+        <v>-2568100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1571700</v>
+        <v>-1678500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1386700</v>
+        <v>-1481000</v>
       </c>
       <c r="K91" s="3">
         <v>-1850100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>108500</v>
+        <v>115900</v>
       </c>
       <c r="E94" s="3">
-        <v>8324700</v>
+        <v>8890700</v>
       </c>
       <c r="F94" s="3">
-        <v>3214300</v>
+        <v>225900</v>
       </c>
       <c r="G94" s="3">
-        <v>-620300</v>
+        <v>-2099600</v>
       </c>
       <c r="H94" s="3">
-        <v>-4885600</v>
+        <v>-5217800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1274800</v>
+        <v>-1361500</v>
       </c>
       <c r="J94" s="3">
-        <v>3346100</v>
+        <v>3573500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2378000</v>
+        <v>-2539700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2333700</v>
+        <v>-2492400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1880700</v>
+        <v>-2008600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1771100</v>
+        <v>-1891500</v>
       </c>
       <c r="H96" s="3">
-        <v>-973600</v>
+        <v>-1039800</v>
       </c>
       <c r="I96" s="3">
-        <v>-914900</v>
+        <v>-977100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1412200</v>
+        <v>-1508200</v>
       </c>
       <c r="K96" s="3">
         <v>-1393400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2992700</v>
+        <v>-3196200</v>
       </c>
       <c r="E100" s="3">
-        <v>-5639900</v>
+        <v>-6023300</v>
       </c>
       <c r="F100" s="3">
-        <v>-108500</v>
+        <v>-115900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1232800</v>
+        <v>-1316600</v>
       </c>
       <c r="H100" s="3">
-        <v>140700</v>
+        <v>150200</v>
       </c>
       <c r="I100" s="3">
-        <v>3496700</v>
+        <v>3734400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1468700</v>
+        <v>-1568500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-285800</v>
+        <v>-305200</v>
       </c>
       <c r="E101" s="3">
-        <v>-2766800</v>
+        <v>-2954900</v>
       </c>
       <c r="F101" s="3">
-        <v>-4725000</v>
+        <v>-5046300</v>
       </c>
       <c r="G101" s="3">
-        <v>-3835600</v>
+        <v>-4096400</v>
       </c>
       <c r="H101" s="3">
-        <v>-7510600</v>
+        <v>-8021200</v>
       </c>
       <c r="I101" s="3">
-        <v>803000</v>
+        <v>857600</v>
       </c>
       <c r="J101" s="3">
-        <v>-1976000</v>
+        <v>-2110300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12268900</v>
+        <v>-13103000</v>
       </c>
       <c r="E102" s="3">
-        <v>10162200</v>
+        <v>10853100</v>
       </c>
       <c r="F102" s="3">
-        <v>657900</v>
+        <v>702600</v>
       </c>
       <c r="G102" s="3">
-        <v>1649200</v>
+        <v>1761300</v>
       </c>
       <c r="H102" s="3">
-        <v>13331100</v>
+        <v>14237400</v>
       </c>
       <c r="I102" s="3">
-        <v>-3829000</v>
+        <v>-4089300</v>
       </c>
       <c r="J102" s="3">
-        <v>-652400</v>
+        <v>-696700</v>
       </c>
       <c r="K102" s="3">
         <v>6200400</v>

--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>36740900</v>
+        <v>37154000</v>
       </c>
       <c r="E8" s="3">
-        <v>35284700</v>
+        <v>35681400</v>
       </c>
       <c r="F8" s="3">
-        <v>34654200</v>
+        <v>35043900</v>
       </c>
       <c r="G8" s="3">
-        <v>32775800</v>
+        <v>33144300</v>
       </c>
       <c r="H8" s="3">
-        <v>29315800</v>
+        <v>29645400</v>
       </c>
       <c r="I8" s="3">
-        <v>27015100</v>
+        <v>27318800</v>
       </c>
       <c r="J8" s="3">
-        <v>27812300</v>
+        <v>28125100</v>
       </c>
       <c r="K8" s="3">
         <v>27675100</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1891500</v>
+        <v>-1912700</v>
       </c>
       <c r="E15" s="3">
-        <v>-1427800</v>
+        <v>-1443800</v>
       </c>
       <c r="F15" s="3">
-        <v>-1641900</v>
+        <v>-1660300</v>
       </c>
       <c r="G15" s="3">
-        <v>-1685600</v>
+        <v>-1704600</v>
       </c>
       <c r="H15" s="3">
-        <v>-1504600</v>
+        <v>-1521600</v>
       </c>
       <c r="I15" s="3">
-        <v>-1355600</v>
+        <v>-1370800</v>
       </c>
       <c r="J15" s="3">
-        <v>-1295300</v>
+        <v>-1309800</v>
       </c>
       <c r="K15" s="3">
         <v>-1073800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20024100</v>
+        <v>20249300</v>
       </c>
       <c r="E17" s="3">
-        <v>19185500</v>
+        <v>19401200</v>
       </c>
       <c r="F17" s="3">
-        <v>17996600</v>
+        <v>18199000</v>
       </c>
       <c r="G17" s="3">
-        <v>16851600</v>
+        <v>17041100</v>
       </c>
       <c r="H17" s="3">
-        <v>15389500</v>
+        <v>15562600</v>
       </c>
       <c r="I17" s="3">
-        <v>15136400</v>
+        <v>15306600</v>
       </c>
       <c r="J17" s="3">
-        <v>18008500</v>
+        <v>18210900</v>
       </c>
       <c r="K17" s="3">
         <v>19983600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16716700</v>
+        <v>16904700</v>
       </c>
       <c r="E18" s="3">
-        <v>16099300</v>
+        <v>16280300</v>
       </c>
       <c r="F18" s="3">
-        <v>16657600</v>
+        <v>16844900</v>
       </c>
       <c r="G18" s="3">
-        <v>15924200</v>
+        <v>16103200</v>
       </c>
       <c r="H18" s="3">
-        <v>13926300</v>
+        <v>14082900</v>
       </c>
       <c r="I18" s="3">
-        <v>11878700</v>
+        <v>12012200</v>
       </c>
       <c r="J18" s="3">
-        <v>9803900</v>
+        <v>9914100</v>
       </c>
       <c r="K18" s="3">
         <v>7691500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9149700</v>
+        <v>-9252600</v>
       </c>
       <c r="E20" s="3">
-        <v>-6110900</v>
+        <v>-6179600</v>
       </c>
       <c r="F20" s="3">
-        <v>-8458900</v>
+        <v>-8554000</v>
       </c>
       <c r="G20" s="3">
-        <v>-8363100</v>
+        <v>-8457100</v>
       </c>
       <c r="H20" s="3">
-        <v>-8481400</v>
+        <v>-8576800</v>
       </c>
       <c r="I20" s="3">
-        <v>-7170700</v>
+        <v>-7251400</v>
       </c>
       <c r="J20" s="3">
-        <v>-8675400</v>
+        <v>-8772900</v>
       </c>
       <c r="K20" s="3">
         <v>-5954500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9459100</v>
+        <v>9557000</v>
       </c>
       <c r="E21" s="3">
-        <v>11417800</v>
+        <v>11539800</v>
       </c>
       <c r="F21" s="3">
-        <v>9839900</v>
+        <v>9943200</v>
       </c>
       <c r="G21" s="3">
-        <v>9248500</v>
+        <v>9344900</v>
       </c>
       <c r="H21" s="3">
-        <v>6950100</v>
+        <v>7021400</v>
       </c>
       <c r="I21" s="3">
-        <v>6062800</v>
+        <v>6124900</v>
       </c>
       <c r="J21" s="3">
-        <v>2428900</v>
+        <v>2450400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7567000</v>
+        <v>7652100</v>
       </c>
       <c r="E23" s="3">
-        <v>9988400</v>
+        <v>10100700</v>
       </c>
       <c r="F23" s="3">
-        <v>8198700</v>
+        <v>8290900</v>
       </c>
       <c r="G23" s="3">
-        <v>7561100</v>
+        <v>7646100</v>
       </c>
       <c r="H23" s="3">
-        <v>5444900</v>
+        <v>5506100</v>
       </c>
       <c r="I23" s="3">
-        <v>4707900</v>
+        <v>4760900</v>
       </c>
       <c r="J23" s="3">
-        <v>1128500</v>
+        <v>1141200</v>
       </c>
       <c r="K23" s="3">
         <v>1737000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2428500</v>
+        <v>2455800</v>
       </c>
       <c r="E24" s="3">
-        <v>2624900</v>
+        <v>2654400</v>
       </c>
       <c r="F24" s="3">
-        <v>2565700</v>
+        <v>2594600</v>
       </c>
       <c r="G24" s="3">
-        <v>2009700</v>
+        <v>2032300</v>
       </c>
       <c r="H24" s="3">
-        <v>1507000</v>
+        <v>1524000</v>
       </c>
       <c r="I24" s="3">
-        <v>1062200</v>
+        <v>1074200</v>
       </c>
       <c r="J24" s="3">
-        <v>-18900</v>
+        <v>-19100</v>
       </c>
       <c r="K24" s="3">
         <v>-386500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5138500</v>
+        <v>5196300</v>
       </c>
       <c r="E26" s="3">
-        <v>7363600</v>
+        <v>7446300</v>
       </c>
       <c r="F26" s="3">
-        <v>5633000</v>
+        <v>5696300</v>
       </c>
       <c r="G26" s="3">
-        <v>5551300</v>
+        <v>5613800</v>
       </c>
       <c r="H26" s="3">
-        <v>3937900</v>
+        <v>3982100</v>
       </c>
       <c r="I26" s="3">
-        <v>3645700</v>
+        <v>3686700</v>
       </c>
       <c r="J26" s="3">
-        <v>1147400</v>
+        <v>1160300</v>
       </c>
       <c r="K26" s="3">
         <v>2123500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4153200</v>
+        <v>4199900</v>
       </c>
       <c r="E27" s="3">
-        <v>6015000</v>
+        <v>6082700</v>
       </c>
       <c r="F27" s="3">
-        <v>3806600</v>
+        <v>3849400</v>
       </c>
       <c r="G27" s="3">
-        <v>3803000</v>
+        <v>3845800</v>
       </c>
       <c r="H27" s="3">
-        <v>2874400</v>
+        <v>2906800</v>
       </c>
       <c r="I27" s="3">
-        <v>3096800</v>
+        <v>3131700</v>
       </c>
       <c r="J27" s="3">
-        <v>257900</v>
+        <v>260800</v>
       </c>
       <c r="K27" s="3">
         <v>1513000</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>2207300</v>
+        <v>2232100</v>
       </c>
       <c r="K29" s="3">
         <v>512800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9149700</v>
+        <v>9252600</v>
       </c>
       <c r="E32" s="3">
-        <v>6110900</v>
+        <v>6179600</v>
       </c>
       <c r="F32" s="3">
-        <v>8458900</v>
+        <v>8554000</v>
       </c>
       <c r="G32" s="3">
-        <v>8363100</v>
+        <v>8457100</v>
       </c>
       <c r="H32" s="3">
-        <v>8481400</v>
+        <v>8576800</v>
       </c>
       <c r="I32" s="3">
-        <v>7170700</v>
+        <v>7251400</v>
       </c>
       <c r="J32" s="3">
-        <v>8675400</v>
+        <v>8772900</v>
       </c>
       <c r="K32" s="3">
         <v>5954500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4153200</v>
+        <v>4199900</v>
       </c>
       <c r="E33" s="3">
-        <v>6015000</v>
+        <v>6082700</v>
       </c>
       <c r="F33" s="3">
-        <v>3806600</v>
+        <v>3849400</v>
       </c>
       <c r="G33" s="3">
-        <v>3803000</v>
+        <v>3845800</v>
       </c>
       <c r="H33" s="3">
-        <v>2874400</v>
+        <v>2906800</v>
       </c>
       <c r="I33" s="3">
-        <v>3096800</v>
+        <v>3131700</v>
       </c>
       <c r="J33" s="3">
-        <v>2465200</v>
+        <v>2492900</v>
       </c>
       <c r="K33" s="3">
         <v>2025800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4153200</v>
+        <v>4199900</v>
       </c>
       <c r="E35" s="3">
-        <v>6015000</v>
+        <v>6082700</v>
       </c>
       <c r="F35" s="3">
-        <v>3806600</v>
+        <v>3849400</v>
       </c>
       <c r="G35" s="3">
-        <v>3803000</v>
+        <v>3845800</v>
       </c>
       <c r="H35" s="3">
-        <v>2874400</v>
+        <v>2906800</v>
       </c>
       <c r="I35" s="3">
-        <v>3096800</v>
+        <v>3131700</v>
       </c>
       <c r="J35" s="3">
-        <v>2465200</v>
+        <v>2492900</v>
       </c>
       <c r="K35" s="3">
         <v>2025800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>73607100</v>
+        <v>74434700</v>
       </c>
       <c r="E41" s="3">
-        <v>84342000</v>
+        <v>85290300</v>
       </c>
       <c r="F41" s="3">
-        <v>90185500</v>
+        <v>91199500</v>
       </c>
       <c r="G41" s="3">
-        <v>94994000</v>
+        <v>96062000</v>
       </c>
       <c r="H41" s="3">
-        <v>107457000</v>
+        <v>108665000</v>
       </c>
       <c r="I41" s="3">
-        <v>52104400</v>
+        <v>52690200</v>
       </c>
       <c r="J41" s="3">
-        <v>52980900</v>
+        <v>53576600</v>
       </c>
       <c r="K41" s="3">
         <v>9040900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>203899000</v>
+        <v>206191000</v>
       </c>
       <c r="E42" s="3">
-        <v>184289000</v>
+        <v>186361000</v>
       </c>
       <c r="F42" s="3">
-        <v>164854000</v>
+        <v>166707000</v>
       </c>
       <c r="G42" s="3">
-        <v>198215000</v>
+        <v>200444000</v>
       </c>
       <c r="H42" s="3">
-        <v>263155000</v>
+        <v>266114000</v>
       </c>
       <c r="I42" s="3">
-        <v>243651000</v>
+        <v>246391000</v>
       </c>
       <c r="J42" s="3">
-        <v>204610000</v>
+        <v>206910000</v>
       </c>
       <c r="K42" s="3">
         <v>49903000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1760200</v>
+        <v>1779900</v>
       </c>
       <c r="E47" s="3">
-        <v>1866600</v>
+        <v>1887600</v>
       </c>
       <c r="F47" s="3">
-        <v>1878400</v>
+        <v>1899600</v>
       </c>
       <c r="G47" s="3">
-        <v>904900</v>
+        <v>915100</v>
       </c>
       <c r="H47" s="3">
-        <v>1039800</v>
+        <v>1051500</v>
       </c>
       <c r="I47" s="3">
-        <v>5333700</v>
+        <v>5393700</v>
       </c>
       <c r="J47" s="3">
-        <v>5609300</v>
+        <v>5672400</v>
       </c>
       <c r="K47" s="3">
         <v>11838600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11910600</v>
+        <v>12044500</v>
       </c>
       <c r="E48" s="3">
-        <v>8551200</v>
+        <v>8647300</v>
       </c>
       <c r="F48" s="3">
-        <v>8506200</v>
+        <v>8601900</v>
       </c>
       <c r="G48" s="3">
-        <v>10577500</v>
+        <v>10696400</v>
       </c>
       <c r="H48" s="3">
-        <v>11762800</v>
+        <v>11895000</v>
       </c>
       <c r="I48" s="3">
-        <v>9250300</v>
+        <v>9354300</v>
       </c>
       <c r="J48" s="3">
-        <v>8912000</v>
+        <v>9012200</v>
       </c>
       <c r="K48" s="3">
         <v>8314100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8240100</v>
+        <v>8332700</v>
       </c>
       <c r="E49" s="3">
-        <v>9834600</v>
+        <v>9945200</v>
       </c>
       <c r="F49" s="3">
-        <v>10012100</v>
+        <v>10124600</v>
       </c>
       <c r="G49" s="3">
-        <v>11575900</v>
+        <v>11706000</v>
       </c>
       <c r="H49" s="3">
-        <v>11890500</v>
+        <v>12024200</v>
       </c>
       <c r="I49" s="3">
-        <v>8719200</v>
+        <v>8817200</v>
       </c>
       <c r="J49" s="3">
-        <v>7995200</v>
+        <v>8085100</v>
       </c>
       <c r="K49" s="3">
         <v>7830900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21761800</v>
+        <v>22006500</v>
       </c>
       <c r="E52" s="3">
-        <v>20484300</v>
+        <v>20714600</v>
       </c>
       <c r="F52" s="3">
-        <v>45633900</v>
+        <v>46147000</v>
       </c>
       <c r="G52" s="3">
-        <v>23650900</v>
+        <v>23916800</v>
       </c>
       <c r="H52" s="3">
-        <v>22767300</v>
+        <v>23023300</v>
       </c>
       <c r="I52" s="3">
-        <v>12291500</v>
+        <v>12429700</v>
       </c>
       <c r="J52" s="3">
-        <v>10885000</v>
+        <v>11007400</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>826480000</v>
+        <v>835773000</v>
       </c>
       <c r="E54" s="3">
-        <v>800455000</v>
+        <v>809455000</v>
       </c>
       <c r="F54" s="3">
-        <v>816271000</v>
+        <v>825449000</v>
       </c>
       <c r="G54" s="3">
-        <v>865713000</v>
+        <v>875446000</v>
       </c>
       <c r="H54" s="3">
-        <v>887004000</v>
+        <v>896977000</v>
       </c>
       <c r="I54" s="3">
-        <v>747524000</v>
+        <v>755929000</v>
       </c>
       <c r="J54" s="3">
-        <v>689272000</v>
+        <v>697022000</v>
       </c>
       <c r="K54" s="3">
         <v>681937000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5316000</v>
+        <v>5375700</v>
       </c>
       <c r="E57" s="3">
-        <v>6681000</v>
+        <v>6756100</v>
       </c>
       <c r="F57" s="3">
-        <v>6580500</v>
+        <v>6654500</v>
       </c>
       <c r="G57" s="3">
-        <v>7724300</v>
+        <v>7811200</v>
       </c>
       <c r="H57" s="3">
-        <v>8251900</v>
+        <v>8344700</v>
       </c>
       <c r="I57" s="3">
-        <v>3956800</v>
+        <v>4001300</v>
       </c>
       <c r="J57" s="3">
-        <v>2526700</v>
+        <v>2555100</v>
       </c>
       <c r="K57" s="3">
         <v>8333800</v>
@@ -2177,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7763400</v>
+        <v>7850700</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1041000</v>
+        <v>1052700</v>
       </c>
       <c r="E59" s="3">
-        <v>1455000</v>
+        <v>1471300</v>
       </c>
       <c r="F59" s="3">
-        <v>1317800</v>
+        <v>1332600</v>
       </c>
       <c r="G59" s="3">
-        <v>2130400</v>
+        <v>2154400</v>
       </c>
       <c r="H59" s="3">
-        <v>2066500</v>
+        <v>2089800</v>
       </c>
       <c r="I59" s="3">
-        <v>1159200</v>
+        <v>1172300</v>
       </c>
       <c r="J59" s="3">
-        <v>1408800</v>
+        <v>1424700</v>
       </c>
       <c r="K59" s="3">
         <v>6722000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>81169400</v>
+        <v>82082000</v>
       </c>
       <c r="E61" s="3">
-        <v>75670100</v>
+        <v>76520900</v>
       </c>
       <c r="F61" s="3">
-        <v>75605100</v>
+        <v>76455100</v>
       </c>
       <c r="G61" s="3">
-        <v>90344000</v>
+        <v>91359800</v>
       </c>
       <c r="H61" s="3">
-        <v>96974100</v>
+        <v>98064500</v>
       </c>
       <c r="I61" s="3">
-        <v>85394700</v>
+        <v>86354900</v>
       </c>
       <c r="J61" s="3">
-        <v>88334200</v>
+        <v>89327400</v>
       </c>
       <c r="K61" s="3">
         <v>98141400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10014400</v>
+        <v>10127000</v>
       </c>
       <c r="E62" s="3">
-        <v>10430800</v>
+        <v>10548100</v>
       </c>
       <c r="F62" s="3">
-        <v>11428000</v>
+        <v>11556500</v>
       </c>
       <c r="G62" s="3">
-        <v>14742500</v>
+        <v>14908200</v>
       </c>
       <c r="H62" s="3">
-        <v>14514200</v>
+        <v>14677400</v>
       </c>
       <c r="I62" s="3">
-        <v>12563600</v>
+        <v>12704800</v>
       </c>
       <c r="J62" s="3">
-        <v>9924500</v>
+        <v>10036100</v>
       </c>
       <c r="K62" s="3">
         <v>6343100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>768845000</v>
+        <v>777489000</v>
       </c>
       <c r="E66" s="3">
-        <v>744729000</v>
+        <v>753102000</v>
       </c>
       <c r="F66" s="3">
-        <v>761451000</v>
+        <v>770012000</v>
       </c>
       <c r="G66" s="3">
-        <v>809686000</v>
+        <v>818789000</v>
       </c>
       <c r="H66" s="3">
-        <v>831064000</v>
+        <v>840408000</v>
       </c>
       <c r="I66" s="3">
-        <v>689445000</v>
+        <v>697197000</v>
       </c>
       <c r="J66" s="3">
-        <v>639361000</v>
+        <v>646550000</v>
       </c>
       <c r="K66" s="3">
         <v>636447000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35237400</v>
+        <v>35633600</v>
       </c>
       <c r="E72" s="3">
-        <v>33457100</v>
+        <v>33833300</v>
       </c>
       <c r="F72" s="3">
-        <v>32051900</v>
+        <v>32412200</v>
       </c>
       <c r="G72" s="3">
-        <v>32051900</v>
+        <v>32412200</v>
       </c>
       <c r="H72" s="3">
-        <v>29728600</v>
+        <v>30062900</v>
       </c>
       <c r="I72" s="3">
-        <v>27863200</v>
+        <v>28176500</v>
       </c>
       <c r="J72" s="3">
-        <v>25847500</v>
+        <v>26138200</v>
       </c>
       <c r="K72" s="3">
         <v>21110100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>57635600</v>
+        <v>58283600</v>
       </c>
       <c r="E76" s="3">
-        <v>55726400</v>
+        <v>56353000</v>
       </c>
       <c r="F76" s="3">
-        <v>54820300</v>
+        <v>55436700</v>
       </c>
       <c r="G76" s="3">
-        <v>56026900</v>
+        <v>56656800</v>
       </c>
       <c r="H76" s="3">
-        <v>55939300</v>
+        <v>56568300</v>
       </c>
       <c r="I76" s="3">
-        <v>58079200</v>
+        <v>58732200</v>
       </c>
       <c r="J76" s="3">
-        <v>49911300</v>
+        <v>50472500</v>
       </c>
       <c r="K76" s="3">
         <v>45490100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4153200</v>
+        <v>4199900</v>
       </c>
       <c r="E81" s="3">
-        <v>6015000</v>
+        <v>6082700</v>
       </c>
       <c r="F81" s="3">
-        <v>3806600</v>
+        <v>3849400</v>
       </c>
       <c r="G81" s="3">
-        <v>3803000</v>
+        <v>3845800</v>
       </c>
       <c r="H81" s="3">
-        <v>2874400</v>
+        <v>2906800</v>
       </c>
       <c r="I81" s="3">
-        <v>3096800</v>
+        <v>3131700</v>
       </c>
       <c r="J81" s="3">
-        <v>2465200</v>
+        <v>2492900</v>
       </c>
       <c r="K81" s="3">
         <v>2025800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1891500</v>
+        <v>1912700</v>
       </c>
       <c r="E83" s="3">
-        <v>1428900</v>
+        <v>1445000</v>
       </c>
       <c r="F83" s="3">
-        <v>1640700</v>
+        <v>1659100</v>
       </c>
       <c r="G83" s="3">
-        <v>1686800</v>
+        <v>1705800</v>
       </c>
       <c r="H83" s="3">
-        <v>1504600</v>
+        <v>1521600</v>
       </c>
       <c r="I83" s="3">
-        <v>1354400</v>
+        <v>1369600</v>
       </c>
       <c r="J83" s="3">
-        <v>1300000</v>
+        <v>1314600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9717500</v>
+        <v>-9826800</v>
       </c>
       <c r="E89" s="3">
-        <v>10940600</v>
+        <v>11063700</v>
       </c>
       <c r="F89" s="3">
-        <v>2432000</v>
+        <v>2459400</v>
       </c>
       <c r="G89" s="3">
-        <v>7836700</v>
+        <v>7924800</v>
       </c>
       <c r="H89" s="3">
-        <v>27326200</v>
+        <v>27633400</v>
       </c>
       <c r="I89" s="3">
-        <v>-7319800</v>
+        <v>-7402100</v>
       </c>
       <c r="J89" s="3">
-        <v>-591500</v>
+        <v>-598100</v>
       </c>
       <c r="K89" s="3">
         <v>10681300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1007800</v>
+        <v>-1019200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1115500</v>
+        <v>-1128000</v>
       </c>
       <c r="F91" s="3">
-        <v>-919100</v>
+        <v>-929400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1552000</v>
+        <v>-1569400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2568100</v>
+        <v>-2597000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1678500</v>
+        <v>-1697400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1481000</v>
+        <v>-1497600</v>
       </c>
       <c r="K91" s="3">
         <v>-1850100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>115900</v>
+        <v>117200</v>
       </c>
       <c r="E94" s="3">
-        <v>8890700</v>
+        <v>8990600</v>
       </c>
       <c r="F94" s="3">
-        <v>225900</v>
+        <v>228500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2099600</v>
+        <v>-2123300</v>
       </c>
       <c r="H94" s="3">
-        <v>-5217800</v>
+        <v>-5276400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1361500</v>
+        <v>-1376800</v>
       </c>
       <c r="J94" s="3">
-        <v>3573500</v>
+        <v>3613700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2539700</v>
+        <v>-2568200</v>
       </c>
       <c r="E96" s="3">
-        <v>-2492400</v>
+        <v>-2520400</v>
       </c>
       <c r="F96" s="3">
-        <v>-2008600</v>
+        <v>-2031100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1891500</v>
+        <v>-1912700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1039800</v>
+        <v>-1051500</v>
       </c>
       <c r="I96" s="3">
-        <v>-977100</v>
+        <v>-988100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1508200</v>
+        <v>-1525200</v>
       </c>
       <c r="K96" s="3">
         <v>-1393400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3196200</v>
+        <v>-3232100</v>
       </c>
       <c r="E100" s="3">
-        <v>-6023300</v>
+        <v>-6091100</v>
       </c>
       <c r="F100" s="3">
-        <v>-115900</v>
+        <v>-117200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1316600</v>
+        <v>-1331400</v>
       </c>
       <c r="H100" s="3">
-        <v>150200</v>
+        <v>151900</v>
       </c>
       <c r="I100" s="3">
-        <v>3734400</v>
+        <v>3776400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1568500</v>
+        <v>-1586200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-305200</v>
+        <v>-308600</v>
       </c>
       <c r="E101" s="3">
-        <v>-2954900</v>
+        <v>-2988100</v>
       </c>
       <c r="F101" s="3">
-        <v>-5046300</v>
+        <v>-5103000</v>
       </c>
       <c r="G101" s="3">
-        <v>-4096400</v>
+        <v>-4142400</v>
       </c>
       <c r="H101" s="3">
-        <v>-8021200</v>
+        <v>-8111400</v>
       </c>
       <c r="I101" s="3">
-        <v>857600</v>
+        <v>867200</v>
       </c>
       <c r="J101" s="3">
-        <v>-2110300</v>
+        <v>-2134000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13103000</v>
+        <v>-13250300</v>
       </c>
       <c r="E102" s="3">
-        <v>10853100</v>
+        <v>10975100</v>
       </c>
       <c r="F102" s="3">
-        <v>702600</v>
+        <v>710500</v>
       </c>
       <c r="G102" s="3">
-        <v>1761300</v>
+        <v>1781100</v>
       </c>
       <c r="H102" s="3">
-        <v>14237400</v>
+        <v>14397500</v>
       </c>
       <c r="I102" s="3">
-        <v>-4089300</v>
+        <v>-4135300</v>
       </c>
       <c r="J102" s="3">
-        <v>-696700</v>
+        <v>-704600</v>
       </c>
       <c r="K102" s="3">
         <v>6200400</v>

--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>BBVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>37154000</v>
+        <v>26338400</v>
       </c>
       <c r="E8" s="3">
-        <v>35681400</v>
+        <v>32658000</v>
       </c>
       <c r="F8" s="3">
-        <v>35043900</v>
+        <v>35090800</v>
       </c>
       <c r="G8" s="3">
-        <v>33144300</v>
+        <v>34463800</v>
       </c>
       <c r="H8" s="3">
-        <v>29645400</v>
+        <v>32595700</v>
       </c>
       <c r="I8" s="3">
-        <v>27318800</v>
+        <v>29154700</v>
       </c>
       <c r="J8" s="3">
+        <v>26866600</v>
+      </c>
+      <c r="K8" s="3">
         <v>28125100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27675100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27926100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1912700</v>
+        <v>-1516400</v>
       </c>
       <c r="E15" s="3">
-        <v>-1443800</v>
+        <v>-1629300</v>
       </c>
       <c r="F15" s="3">
-        <v>-1660300</v>
+        <v>-1421100</v>
       </c>
       <c r="G15" s="3">
-        <v>-1704600</v>
+        <v>-1631700</v>
       </c>
       <c r="H15" s="3">
-        <v>-1521600</v>
+        <v>-1677500</v>
       </c>
       <c r="I15" s="3">
-        <v>-1370800</v>
+        <v>-1496400</v>
       </c>
       <c r="J15" s="3">
+        <v>-1347000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-1309800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-1073800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-950800</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20249300</v>
+        <v>15242600</v>
       </c>
       <c r="E17" s="3">
-        <v>19401200</v>
+        <v>18166000</v>
       </c>
       <c r="F17" s="3">
-        <v>18199000</v>
+        <v>19080000</v>
       </c>
       <c r="G17" s="3">
-        <v>17041100</v>
+        <v>17897700</v>
       </c>
       <c r="H17" s="3">
-        <v>15562600</v>
+        <v>16759000</v>
       </c>
       <c r="I17" s="3">
-        <v>15306600</v>
+        <v>15305000</v>
       </c>
       <c r="J17" s="3">
+        <v>15053200</v>
+      </c>
+      <c r="K17" s="3">
         <v>18210900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19983600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17243300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16904700</v>
+        <v>11095800</v>
       </c>
       <c r="E18" s="3">
-        <v>16280300</v>
+        <v>14492100</v>
       </c>
       <c r="F18" s="3">
-        <v>16844900</v>
+        <v>16010800</v>
       </c>
       <c r="G18" s="3">
-        <v>16103200</v>
+        <v>16566100</v>
       </c>
       <c r="H18" s="3">
-        <v>14082900</v>
+        <v>15836700</v>
       </c>
       <c r="I18" s="3">
-        <v>12012200</v>
+        <v>13849800</v>
       </c>
       <c r="J18" s="3">
+        <v>11813400</v>
+      </c>
+      <c r="K18" s="3">
         <v>9914100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7691500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10682800</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9252600</v>
+        <v>-4922100</v>
       </c>
       <c r="E20" s="3">
-        <v>-6179600</v>
+        <v>-6203200</v>
       </c>
       <c r="F20" s="3">
-        <v>-8554000</v>
+        <v>-6077300</v>
       </c>
       <c r="G20" s="3">
-        <v>-8457100</v>
+        <v>-8412400</v>
       </c>
       <c r="H20" s="3">
-        <v>-8576800</v>
+        <v>-8317100</v>
       </c>
       <c r="I20" s="3">
-        <v>-7251400</v>
+        <v>-8434800</v>
       </c>
       <c r="J20" s="3">
+        <v>-7131300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8772900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5954500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6694200</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9557000</v>
+        <v>7695100</v>
       </c>
       <c r="E21" s="3">
-        <v>11539800</v>
+        <v>9926100</v>
       </c>
       <c r="F21" s="3">
-        <v>9943200</v>
+        <v>11360400</v>
       </c>
       <c r="G21" s="3">
-        <v>9344900</v>
+        <v>9792000</v>
       </c>
       <c r="H21" s="3">
-        <v>7021400</v>
+        <v>9203900</v>
       </c>
       <c r="I21" s="3">
-        <v>6124900</v>
+        <v>6917500</v>
       </c>
       <c r="J21" s="3">
+        <v>6034500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2450400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>12367100</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7652100</v>
+        <v>6173700</v>
       </c>
       <c r="E23" s="3">
-        <v>10100700</v>
+        <v>8288900</v>
       </c>
       <c r="F23" s="3">
-        <v>8290900</v>
+        <v>9933500</v>
       </c>
       <c r="G23" s="3">
-        <v>7646100</v>
+        <v>8153600</v>
       </c>
       <c r="H23" s="3">
-        <v>5506100</v>
+        <v>7519500</v>
       </c>
       <c r="I23" s="3">
-        <v>4760900</v>
+        <v>5415000</v>
       </c>
       <c r="J23" s="3">
+        <v>4682100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1141200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1737000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3988600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2455800</v>
+        <v>1716400</v>
       </c>
       <c r="E24" s="3">
-        <v>2654400</v>
+        <v>2285700</v>
       </c>
       <c r="F24" s="3">
-        <v>2594600</v>
+        <v>2610400</v>
       </c>
       <c r="G24" s="3">
-        <v>2032300</v>
+        <v>2551600</v>
       </c>
       <c r="H24" s="3">
-        <v>1524000</v>
+        <v>1998700</v>
       </c>
       <c r="I24" s="3">
-        <v>1074200</v>
+        <v>1498700</v>
       </c>
       <c r="J24" s="3">
+        <v>1056400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-19100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-386500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>185500</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5196300</v>
+        <v>4457400</v>
       </c>
       <c r="E26" s="3">
-        <v>7446300</v>
+        <v>6003200</v>
       </c>
       <c r="F26" s="3">
-        <v>5696300</v>
+        <v>7323100</v>
       </c>
       <c r="G26" s="3">
-        <v>5613800</v>
+        <v>5602000</v>
       </c>
       <c r="H26" s="3">
-        <v>3982100</v>
+        <v>5520800</v>
       </c>
       <c r="I26" s="3">
-        <v>3686700</v>
+        <v>3916200</v>
       </c>
       <c r="J26" s="3">
+        <v>3625700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1160300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2123500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3803100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4199900</v>
+        <v>3569200</v>
       </c>
       <c r="E27" s="3">
-        <v>6082700</v>
+        <v>5023200</v>
       </c>
       <c r="F27" s="3">
-        <v>3849400</v>
+        <v>5982000</v>
       </c>
       <c r="G27" s="3">
-        <v>3845800</v>
+        <v>3785700</v>
       </c>
       <c r="H27" s="3">
-        <v>2906800</v>
+        <v>3782100</v>
       </c>
       <c r="I27" s="3">
-        <v>3131700</v>
+        <v>2858700</v>
       </c>
       <c r="J27" s="3">
+        <v>3079800</v>
+      </c>
+      <c r="K27" s="3">
         <v>260800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1513000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3283100</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-2034000</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+        <v>-891700</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>2232100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>512800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>343900</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9252600</v>
+        <v>4922100</v>
       </c>
       <c r="E32" s="3">
-        <v>6179600</v>
+        <v>6203200</v>
       </c>
       <c r="F32" s="3">
-        <v>8554000</v>
+        <v>6077300</v>
       </c>
       <c r="G32" s="3">
-        <v>8457100</v>
+        <v>8412400</v>
       </c>
       <c r="H32" s="3">
-        <v>8576800</v>
+        <v>8317100</v>
       </c>
       <c r="I32" s="3">
-        <v>7251400</v>
+        <v>8434800</v>
       </c>
       <c r="J32" s="3">
+        <v>7131300</v>
+      </c>
+      <c r="K32" s="3">
         <v>8772900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5954500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6694200</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4199900</v>
+        <v>1535200</v>
       </c>
       <c r="E33" s="3">
-        <v>6082700</v>
+        <v>4131500</v>
       </c>
       <c r="F33" s="3">
-        <v>3849400</v>
+        <v>5982000</v>
       </c>
       <c r="G33" s="3">
-        <v>3845800</v>
+        <v>3785700</v>
       </c>
       <c r="H33" s="3">
-        <v>2906800</v>
+        <v>3782100</v>
       </c>
       <c r="I33" s="3">
-        <v>3131700</v>
+        <v>2858700</v>
       </c>
       <c r="J33" s="3">
+        <v>3079800</v>
+      </c>
+      <c r="K33" s="3">
         <v>2492900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2025800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3627100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4199900</v>
+        <v>1535200</v>
       </c>
       <c r="E35" s="3">
-        <v>6082700</v>
+        <v>4131500</v>
       </c>
       <c r="F35" s="3">
-        <v>3849400</v>
+        <v>5982000</v>
       </c>
       <c r="G35" s="3">
-        <v>3845800</v>
+        <v>3785700</v>
       </c>
       <c r="H35" s="3">
-        <v>2906800</v>
+        <v>3782100</v>
       </c>
       <c r="I35" s="3">
-        <v>3131700</v>
+        <v>2858700</v>
       </c>
       <c r="J35" s="3">
+        <v>3079800</v>
+      </c>
+      <c r="K35" s="3">
         <v>2492900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2025800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3627100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>74434700</v>
+        <v>101528000</v>
       </c>
       <c r="E41" s="3">
-        <v>85290300</v>
+        <v>73203800</v>
       </c>
       <c r="F41" s="3">
-        <v>91199500</v>
+        <v>83878500</v>
       </c>
       <c r="G41" s="3">
-        <v>96062000</v>
+        <v>89689900</v>
       </c>
       <c r="H41" s="3">
-        <v>108665000</v>
+        <v>94472000</v>
       </c>
       <c r="I41" s="3">
-        <v>52690200</v>
+        <v>106867000</v>
       </c>
       <c r="J41" s="3">
+        <v>51818100</v>
+      </c>
+      <c r="K41" s="3">
         <v>53576600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9040900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10566600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>206191000</v>
+        <v>218814000</v>
       </c>
       <c r="E42" s="3">
-        <v>186361000</v>
+        <v>201656000</v>
       </c>
       <c r="F42" s="3">
-        <v>166707000</v>
+        <v>183276000</v>
       </c>
       <c r="G42" s="3">
-        <v>200444000</v>
+        <v>163948000</v>
       </c>
       <c r="H42" s="3">
-        <v>266114000</v>
+        <v>197126000</v>
       </c>
       <c r="I42" s="3">
-        <v>246391000</v>
+        <v>261709000</v>
       </c>
       <c r="J42" s="3">
+        <v>242313000</v>
+      </c>
+      <c r="K42" s="3">
         <v>206910000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>49903000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>45849000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1944,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1779900</v>
+        <v>1689300</v>
       </c>
       <c r="E47" s="3">
-        <v>1887600</v>
+        <v>1750500</v>
       </c>
       <c r="F47" s="3">
-        <v>1899600</v>
+        <v>1856400</v>
       </c>
       <c r="G47" s="3">
-        <v>915100</v>
+        <v>1868100</v>
       </c>
       <c r="H47" s="3">
-        <v>1051500</v>
+        <v>899900</v>
       </c>
       <c r="I47" s="3">
-        <v>5393700</v>
+        <v>1034100</v>
       </c>
       <c r="J47" s="3">
+        <v>5304400</v>
+      </c>
+      <c r="K47" s="3">
         <v>5672400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11838600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10915300</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12044500</v>
+        <v>9203000</v>
       </c>
       <c r="E48" s="3">
-        <v>8647300</v>
+        <v>11844000</v>
       </c>
       <c r="F48" s="3">
-        <v>8601900</v>
+        <v>8504200</v>
       </c>
       <c r="G48" s="3">
-        <v>10696400</v>
+        <v>8459500</v>
       </c>
       <c r="H48" s="3">
-        <v>11895000</v>
+        <v>10519400</v>
       </c>
       <c r="I48" s="3">
-        <v>9354300</v>
+        <v>11698100</v>
       </c>
       <c r="J48" s="3">
+        <v>9199400</v>
+      </c>
+      <c r="K48" s="3">
         <v>9012200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8314100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8365700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8332700</v>
+        <v>2758700</v>
       </c>
       <c r="E49" s="3">
-        <v>9945200</v>
+        <v>8196000</v>
       </c>
       <c r="F49" s="3">
-        <v>10124600</v>
+        <v>9780600</v>
       </c>
       <c r="G49" s="3">
-        <v>11706000</v>
+        <v>9957000</v>
       </c>
       <c r="H49" s="3">
-        <v>12024200</v>
+        <v>11512300</v>
       </c>
       <c r="I49" s="3">
-        <v>8817200</v>
+        <v>11825200</v>
       </c>
       <c r="J49" s="3">
+        <v>8671200</v>
+      </c>
+      <c r="K49" s="3">
         <v>8085100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7830900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8075800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22006500</v>
+        <v>119185000</v>
       </c>
       <c r="E52" s="3">
-        <v>20714600</v>
+        <v>21642200</v>
       </c>
       <c r="F52" s="3">
-        <v>46147000</v>
+        <v>20371700</v>
       </c>
       <c r="G52" s="3">
-        <v>23916800</v>
+        <v>45383200</v>
       </c>
       <c r="H52" s="3">
-        <v>23023300</v>
+        <v>23520900</v>
       </c>
       <c r="I52" s="3">
-        <v>12429700</v>
+        <v>22642200</v>
       </c>
       <c r="J52" s="3">
+        <v>12224000</v>
+      </c>
+      <c r="K52" s="3">
         <v>11007400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>835773000</v>
+        <v>866037000</v>
       </c>
       <c r="E54" s="3">
-        <v>809455000</v>
+        <v>820818000</v>
       </c>
       <c r="F54" s="3">
-        <v>825449000</v>
+        <v>796057000</v>
       </c>
       <c r="G54" s="3">
-        <v>875446000</v>
+        <v>811785000</v>
       </c>
       <c r="H54" s="3">
-        <v>896977000</v>
+        <v>860955000</v>
       </c>
       <c r="I54" s="3">
-        <v>755929000</v>
+        <v>882129000</v>
       </c>
       <c r="J54" s="3">
+        <v>743417000</v>
+      </c>
+      <c r="K54" s="3">
         <v>697022000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>681937000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>684141000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,107 +2267,117 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5375700</v>
+        <v>5882000</v>
       </c>
       <c r="E57" s="3">
-        <v>6756100</v>
+        <v>5286700</v>
       </c>
       <c r="F57" s="3">
-        <v>6654500</v>
+        <v>6644300</v>
       </c>
       <c r="G57" s="3">
-        <v>7811200</v>
+        <v>6544300</v>
       </c>
       <c r="H57" s="3">
-        <v>8344700</v>
+        <v>7681900</v>
       </c>
       <c r="I57" s="3">
-        <v>4001300</v>
+        <v>8206600</v>
       </c>
       <c r="J57" s="3">
+        <v>3935100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2555100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8333800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8697900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7850700</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1052700</v>
+        <v>641100</v>
       </c>
       <c r="E59" s="3">
-        <v>1471300</v>
+        <v>1035200</v>
       </c>
       <c r="F59" s="3">
-        <v>1332600</v>
+        <v>1447000</v>
       </c>
       <c r="G59" s="3">
-        <v>2154400</v>
+        <v>1310500</v>
       </c>
       <c r="H59" s="3">
-        <v>2089800</v>
+        <v>2118700</v>
       </c>
       <c r="I59" s="3">
-        <v>1172300</v>
+        <v>2055200</v>
       </c>
       <c r="J59" s="3">
+        <v>1152900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1424700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6722000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5113100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>82082000</v>
+        <v>81154000</v>
       </c>
       <c r="E61" s="3">
-        <v>76520900</v>
+        <v>84646700</v>
       </c>
       <c r="F61" s="3">
-        <v>76455100</v>
+        <v>75254300</v>
       </c>
       <c r="G61" s="3">
-        <v>91359800</v>
+        <v>75189600</v>
       </c>
       <c r="H61" s="3">
-        <v>98064500</v>
+        <v>89847500</v>
       </c>
       <c r="I61" s="3">
-        <v>86354900</v>
+        <v>96441300</v>
       </c>
       <c r="J61" s="3">
+        <v>84925500</v>
+      </c>
+      <c r="K61" s="3">
         <v>89327400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>98141400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>126617000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10127000</v>
+        <v>9353600</v>
       </c>
       <c r="E62" s="3">
-        <v>10548100</v>
+        <v>9960600</v>
       </c>
       <c r="F62" s="3">
-        <v>11556500</v>
+        <v>10373500</v>
       </c>
       <c r="G62" s="3">
-        <v>14908200</v>
+        <v>11365200</v>
       </c>
       <c r="H62" s="3">
-        <v>14677400</v>
+        <v>14661500</v>
       </c>
       <c r="I62" s="3">
-        <v>12704800</v>
+        <v>14434400</v>
       </c>
       <c r="J62" s="3">
+        <v>12494500</v>
+      </c>
+      <c r="K62" s="3">
         <v>10036100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6343100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6546300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>777489000</v>
+        <v>813631000</v>
       </c>
       <c r="E66" s="3">
-        <v>753102000</v>
+        <v>763499000</v>
       </c>
       <c r="F66" s="3">
-        <v>770012000</v>
+        <v>740637000</v>
       </c>
       <c r="G66" s="3">
-        <v>818789000</v>
+        <v>757266000</v>
       </c>
       <c r="H66" s="3">
-        <v>840408000</v>
+        <v>805236000</v>
       </c>
       <c r="I66" s="3">
-        <v>697197000</v>
+        <v>826498000</v>
       </c>
       <c r="J66" s="3">
+        <v>685657000</v>
+      </c>
+      <c r="K66" s="3">
         <v>646550000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>636447000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>639341000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35633600</v>
+        <v>37231900</v>
       </c>
       <c r="E72" s="3">
-        <v>33833300</v>
+        <v>38563600</v>
       </c>
       <c r="F72" s="3">
-        <v>32412200</v>
+        <v>33273300</v>
       </c>
       <c r="G72" s="3">
-        <v>32412200</v>
+        <v>31875700</v>
       </c>
       <c r="H72" s="3">
-        <v>30062900</v>
+        <v>31875700</v>
       </c>
       <c r="I72" s="3">
-        <v>28176500</v>
+        <v>29565300</v>
       </c>
       <c r="J72" s="3">
+        <v>27710100</v>
+      </c>
+      <c r="K72" s="3">
         <v>26138200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21110100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21373900</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58283600</v>
+        <v>52406300</v>
       </c>
       <c r="E76" s="3">
-        <v>56353000</v>
+        <v>57318900</v>
       </c>
       <c r="F76" s="3">
-        <v>55436700</v>
+        <v>55420200</v>
       </c>
       <c r="G76" s="3">
-        <v>56656800</v>
+        <v>54519100</v>
       </c>
       <c r="H76" s="3">
-        <v>56568300</v>
+        <v>55719000</v>
       </c>
       <c r="I76" s="3">
-        <v>58732200</v>
+        <v>55632000</v>
       </c>
       <c r="J76" s="3">
+        <v>57760100</v>
+      </c>
+      <c r="K76" s="3">
         <v>50472500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45490100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>44799600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4199900</v>
+        <v>1535200</v>
       </c>
       <c r="E81" s="3">
-        <v>6082700</v>
+        <v>4131500</v>
       </c>
       <c r="F81" s="3">
-        <v>3849400</v>
+        <v>5982000</v>
       </c>
       <c r="G81" s="3">
-        <v>3845800</v>
+        <v>3785700</v>
       </c>
       <c r="H81" s="3">
-        <v>2906800</v>
+        <v>3782100</v>
       </c>
       <c r="I81" s="3">
-        <v>3131700</v>
+        <v>2858700</v>
       </c>
       <c r="J81" s="3">
+        <v>3079800</v>
+      </c>
+      <c r="K81" s="3">
         <v>2492900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2025800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3627100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1912700</v>
+        <v>1515200</v>
       </c>
       <c r="E83" s="3">
-        <v>1445000</v>
+        <v>1630500</v>
       </c>
       <c r="F83" s="3">
-        <v>1659100</v>
+        <v>1421100</v>
       </c>
       <c r="G83" s="3">
-        <v>1705800</v>
+        <v>1631700</v>
       </c>
       <c r="H83" s="3">
-        <v>1521600</v>
+        <v>1677500</v>
       </c>
       <c r="I83" s="3">
-        <v>1369600</v>
+        <v>1496400</v>
       </c>
       <c r="J83" s="3">
+        <v>1347000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1314600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>8372800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9826800</v>
+        <v>46290200</v>
       </c>
       <c r="E89" s="3">
-        <v>11063700</v>
+        <v>-12533400</v>
       </c>
       <c r="F89" s="3">
-        <v>2459400</v>
+        <v>10880500</v>
       </c>
       <c r="G89" s="3">
-        <v>7924800</v>
+        <v>2418700</v>
       </c>
       <c r="H89" s="3">
-        <v>27633400</v>
+        <v>7793700</v>
       </c>
       <c r="I89" s="3">
-        <v>-7402100</v>
+        <v>27176000</v>
       </c>
       <c r="J89" s="3">
+        <v>-7279600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-598100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10681300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20168400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1019200</v>
+        <v>-743500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1128000</v>
+        <v>-1002300</v>
       </c>
       <c r="F91" s="3">
-        <v>-929400</v>
+        <v>-1109300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1569400</v>
+        <v>-914100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2597000</v>
+        <v>-1543400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1697400</v>
+        <v>-2554000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1669300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1497600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1850100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2244300</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>117200</v>
+        <v>-43500</v>
       </c>
       <c r="E94" s="3">
-        <v>8990600</v>
+        <v>114100</v>
       </c>
       <c r="F94" s="3">
-        <v>228500</v>
+        <v>8841800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2123300</v>
+        <v>224700</v>
       </c>
       <c r="H94" s="3">
-        <v>-5276400</v>
+        <v>-1037600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1376800</v>
+        <v>-5189100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1354000</v>
+      </c>
+      <c r="K94" s="3">
         <v>3613700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-5977000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2568200</v>
+        <v>-1252900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2520400</v>
+        <v>-2525700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2031100</v>
+        <v>-2478700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1912700</v>
+        <v>-1997500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1051500</v>
+        <v>-1881100</v>
       </c>
       <c r="I96" s="3">
-        <v>-988100</v>
+        <v>-1034100</v>
       </c>
       <c r="J96" s="3">
+        <v>-971700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1525200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1393400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1210200</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3232100</v>
+        <v>-2434000</v>
       </c>
       <c r="E100" s="3">
-        <v>-6091100</v>
+        <v>-3178600</v>
       </c>
       <c r="F100" s="3">
-        <v>-117200</v>
+        <v>-5990200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1331400</v>
+        <v>-115300</v>
       </c>
       <c r="H100" s="3">
-        <v>151900</v>
+        <v>-1309300</v>
       </c>
       <c r="I100" s="3">
-        <v>3776400</v>
+        <v>149400</v>
       </c>
       <c r="J100" s="3">
+        <v>3713900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1586200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1489600</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-308600</v>
+        <v>-5479700</v>
       </c>
       <c r="E101" s="3">
-        <v>-2988100</v>
+        <v>-745800</v>
       </c>
       <c r="F101" s="3">
-        <v>-5103000</v>
+        <v>-2938600</v>
       </c>
       <c r="G101" s="3">
-        <v>-4142400</v>
+        <v>-5018500</v>
       </c>
       <c r="H101" s="3">
-        <v>-8111400</v>
+        <v>-4073900</v>
       </c>
       <c r="I101" s="3">
-        <v>867200</v>
+        <v>-7977200</v>
       </c>
       <c r="J101" s="3">
+        <v>852900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2134000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1125700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13250300</v>
+        <v>38333000</v>
       </c>
       <c r="E102" s="3">
-        <v>10975100</v>
+        <v>-16343700</v>
       </c>
       <c r="F102" s="3">
-        <v>710500</v>
+        <v>10793500</v>
       </c>
       <c r="G102" s="3">
-        <v>1781100</v>
+        <v>698800</v>
       </c>
       <c r="H102" s="3">
-        <v>14397500</v>
+        <v>1751700</v>
       </c>
       <c r="I102" s="3">
-        <v>-4135300</v>
+        <v>14159200</v>
       </c>
       <c r="J102" s="3">
+        <v>-4066800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-704600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6200400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11576100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26338400</v>
+        <v>27426300</v>
       </c>
       <c r="E8" s="3">
-        <v>32658000</v>
+        <v>34006900</v>
       </c>
       <c r="F8" s="3">
-        <v>35090800</v>
+        <v>36540200</v>
       </c>
       <c r="G8" s="3">
-        <v>34463800</v>
+        <v>35887300</v>
       </c>
       <c r="H8" s="3">
-        <v>32595700</v>
+        <v>33942000</v>
       </c>
       <c r="I8" s="3">
-        <v>29154700</v>
+        <v>30358900</v>
       </c>
       <c r="J8" s="3">
-        <v>26866600</v>
+        <v>27976300</v>
       </c>
       <c r="K8" s="3">
         <v>28125100</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1516400</v>
+        <v>-1579000</v>
       </c>
       <c r="E15" s="3">
-        <v>-1629300</v>
+        <v>-1696600</v>
       </c>
       <c r="F15" s="3">
-        <v>-1421100</v>
+        <v>-1479800</v>
       </c>
       <c r="G15" s="3">
-        <v>-1631700</v>
+        <v>-1699100</v>
       </c>
       <c r="H15" s="3">
-        <v>-1677500</v>
+        <v>-1746800</v>
       </c>
       <c r="I15" s="3">
-        <v>-1496400</v>
+        <v>-1558200</v>
       </c>
       <c r="J15" s="3">
-        <v>-1347000</v>
+        <v>-1402600</v>
       </c>
       <c r="K15" s="3">
         <v>-1309800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15242600</v>
+        <v>15872200</v>
       </c>
       <c r="E17" s="3">
-        <v>18166000</v>
+        <v>18916300</v>
       </c>
       <c r="F17" s="3">
-        <v>19080000</v>
+        <v>19868100</v>
       </c>
       <c r="G17" s="3">
-        <v>17897700</v>
+        <v>18637000</v>
       </c>
       <c r="H17" s="3">
-        <v>16759000</v>
+        <v>17451200</v>
       </c>
       <c r="I17" s="3">
-        <v>15305000</v>
+        <v>15937100</v>
       </c>
       <c r="J17" s="3">
-        <v>15053200</v>
+        <v>15675000</v>
       </c>
       <c r="K17" s="3">
         <v>18210900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11095800</v>
+        <v>11554100</v>
       </c>
       <c r="E18" s="3">
-        <v>14492100</v>
+        <v>15090700</v>
       </c>
       <c r="F18" s="3">
-        <v>16010800</v>
+        <v>16672100</v>
       </c>
       <c r="G18" s="3">
-        <v>16566100</v>
+        <v>17250300</v>
       </c>
       <c r="H18" s="3">
-        <v>15836700</v>
+        <v>16490800</v>
       </c>
       <c r="I18" s="3">
-        <v>13849800</v>
+        <v>14421800</v>
       </c>
       <c r="J18" s="3">
-        <v>11813400</v>
+        <v>12301300</v>
       </c>
       <c r="K18" s="3">
         <v>9914100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4922100</v>
+        <v>-5125400</v>
       </c>
       <c r="E20" s="3">
-        <v>-6203200</v>
+        <v>-6459400</v>
       </c>
       <c r="F20" s="3">
-        <v>-6077300</v>
+        <v>-6328300</v>
       </c>
       <c r="G20" s="3">
-        <v>-8412400</v>
+        <v>-8759900</v>
       </c>
       <c r="H20" s="3">
-        <v>-8317100</v>
+        <v>-8660700</v>
       </c>
       <c r="I20" s="3">
-        <v>-8434800</v>
+        <v>-8783200</v>
       </c>
       <c r="J20" s="3">
-        <v>-7131300</v>
+        <v>-7425900</v>
       </c>
       <c r="K20" s="3">
         <v>-8772900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7695100</v>
+        <v>8002000</v>
       </c>
       <c r="E21" s="3">
-        <v>9926100</v>
+        <v>10324300</v>
       </c>
       <c r="F21" s="3">
-        <v>11360400</v>
+        <v>11819400</v>
       </c>
       <c r="G21" s="3">
-        <v>9792000</v>
+        <v>10184600</v>
       </c>
       <c r="H21" s="3">
-        <v>9203900</v>
+        <v>9572000</v>
       </c>
       <c r="I21" s="3">
-        <v>6917500</v>
+        <v>7192400</v>
       </c>
       <c r="J21" s="3">
-        <v>6034500</v>
+        <v>6274100</v>
       </c>
       <c r="K21" s="3">
         <v>2450400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6173700</v>
+        <v>6428700</v>
       </c>
       <c r="E23" s="3">
-        <v>8288900</v>
+        <v>8631300</v>
       </c>
       <c r="F23" s="3">
-        <v>9933500</v>
+        <v>10343800</v>
       </c>
       <c r="G23" s="3">
-        <v>8153600</v>
+        <v>8490400</v>
       </c>
       <c r="H23" s="3">
-        <v>7519500</v>
+        <v>7830100</v>
       </c>
       <c r="I23" s="3">
-        <v>5415000</v>
+        <v>5638600</v>
       </c>
       <c r="J23" s="3">
-        <v>4682100</v>
+        <v>4875500</v>
       </c>
       <c r="K23" s="3">
         <v>1141200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1716400</v>
+        <v>1787300</v>
       </c>
       <c r="E24" s="3">
-        <v>2285700</v>
+        <v>2380200</v>
       </c>
       <c r="F24" s="3">
-        <v>2610400</v>
+        <v>2718300</v>
       </c>
       <c r="G24" s="3">
-        <v>2551600</v>
+        <v>2657000</v>
       </c>
       <c r="H24" s="3">
-        <v>1998700</v>
+        <v>2081300</v>
       </c>
       <c r="I24" s="3">
-        <v>1498700</v>
+        <v>1560600</v>
       </c>
       <c r="J24" s="3">
-        <v>1056400</v>
+        <v>1100000</v>
       </c>
       <c r="K24" s="3">
         <v>-19100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4457400</v>
+        <v>4641500</v>
       </c>
       <c r="E26" s="3">
-        <v>6003200</v>
+        <v>6251100</v>
       </c>
       <c r="F26" s="3">
-        <v>7323100</v>
+        <v>7625600</v>
       </c>
       <c r="G26" s="3">
-        <v>5602000</v>
+        <v>5833400</v>
       </c>
       <c r="H26" s="3">
-        <v>5520800</v>
+        <v>5748900</v>
       </c>
       <c r="I26" s="3">
-        <v>3916200</v>
+        <v>4078000</v>
       </c>
       <c r="J26" s="3">
-        <v>3625700</v>
+        <v>3775400</v>
       </c>
       <c r="K26" s="3">
         <v>1160300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3569200</v>
+        <v>3716600</v>
       </c>
       <c r="E27" s="3">
-        <v>5023200</v>
+        <v>5230700</v>
       </c>
       <c r="F27" s="3">
-        <v>5982000</v>
+        <v>6229100</v>
       </c>
       <c r="G27" s="3">
-        <v>3785700</v>
+        <v>3942000</v>
       </c>
       <c r="H27" s="3">
-        <v>3782100</v>
+        <v>3938300</v>
       </c>
       <c r="I27" s="3">
-        <v>2858700</v>
+        <v>2976700</v>
       </c>
       <c r="J27" s="3">
-        <v>3079800</v>
+        <v>3207000</v>
       </c>
       <c r="K27" s="3">
         <v>260800</v>
@@ -1413,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-2034000</v>
+        <v>-2118000</v>
       </c>
       <c r="E29" s="3">
-        <v>-891700</v>
+        <v>-928500</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4922100</v>
+        <v>5125400</v>
       </c>
       <c r="E32" s="3">
-        <v>6203200</v>
+        <v>6459400</v>
       </c>
       <c r="F32" s="3">
-        <v>6077300</v>
+        <v>6328300</v>
       </c>
       <c r="G32" s="3">
-        <v>8412400</v>
+        <v>8759900</v>
       </c>
       <c r="H32" s="3">
-        <v>8317100</v>
+        <v>8660700</v>
       </c>
       <c r="I32" s="3">
-        <v>8434800</v>
+        <v>8783200</v>
       </c>
       <c r="J32" s="3">
-        <v>7131300</v>
+        <v>7425900</v>
       </c>
       <c r="K32" s="3">
         <v>8772900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1535200</v>
+        <v>1598600</v>
       </c>
       <c r="E33" s="3">
-        <v>4131500</v>
+        <v>4302200</v>
       </c>
       <c r="F33" s="3">
-        <v>5982000</v>
+        <v>6229100</v>
       </c>
       <c r="G33" s="3">
-        <v>3785700</v>
+        <v>3942000</v>
       </c>
       <c r="H33" s="3">
-        <v>3782100</v>
+        <v>3938300</v>
       </c>
       <c r="I33" s="3">
-        <v>2858700</v>
+        <v>2976700</v>
       </c>
       <c r="J33" s="3">
-        <v>3079800</v>
+        <v>3207000</v>
       </c>
       <c r="K33" s="3">
         <v>2492900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1535200</v>
+        <v>1598600</v>
       </c>
       <c r="E35" s="3">
-        <v>4131500</v>
+        <v>4302200</v>
       </c>
       <c r="F35" s="3">
-        <v>5982000</v>
+        <v>6229100</v>
       </c>
       <c r="G35" s="3">
-        <v>3785700</v>
+        <v>3942000</v>
       </c>
       <c r="H35" s="3">
-        <v>3782100</v>
+        <v>3938300</v>
       </c>
       <c r="I35" s="3">
-        <v>2858700</v>
+        <v>2976700</v>
       </c>
       <c r="J35" s="3">
-        <v>3079800</v>
+        <v>3207000</v>
       </c>
       <c r="K35" s="3">
         <v>2492900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>101528000</v>
+        <v>105722000</v>
       </c>
       <c r="E41" s="3">
-        <v>73203800</v>
+        <v>76227500</v>
       </c>
       <c r="F41" s="3">
-        <v>83878500</v>
+        <v>87343000</v>
       </c>
       <c r="G41" s="3">
-        <v>89689900</v>
+        <v>93394500</v>
       </c>
       <c r="H41" s="3">
-        <v>94472000</v>
+        <v>98374000</v>
       </c>
       <c r="I41" s="3">
-        <v>106867000</v>
+        <v>111281000</v>
       </c>
       <c r="J41" s="3">
-        <v>51818100</v>
+        <v>53958400</v>
       </c>
       <c r="K41" s="3">
         <v>53576600</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>218814000</v>
+        <v>227852000</v>
       </c>
       <c r="E42" s="3">
-        <v>201656000</v>
+        <v>209985000</v>
       </c>
       <c r="F42" s="3">
-        <v>183276000</v>
+        <v>190846000</v>
       </c>
       <c r="G42" s="3">
-        <v>163948000</v>
+        <v>170720000</v>
       </c>
       <c r="H42" s="3">
-        <v>197126000</v>
+        <v>205268000</v>
       </c>
       <c r="I42" s="3">
-        <v>261709000</v>
+        <v>272519000</v>
       </c>
       <c r="J42" s="3">
-        <v>242313000</v>
+        <v>252321000</v>
       </c>
       <c r="K42" s="3">
         <v>206910000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1689300</v>
+        <v>1759100</v>
       </c>
       <c r="E47" s="3">
-        <v>1750500</v>
+        <v>1822800</v>
       </c>
       <c r="F47" s="3">
-        <v>1856400</v>
+        <v>1933000</v>
       </c>
       <c r="G47" s="3">
-        <v>1868100</v>
+        <v>1945300</v>
       </c>
       <c r="H47" s="3">
-        <v>899900</v>
+        <v>937100</v>
       </c>
       <c r="I47" s="3">
-        <v>1034100</v>
+        <v>1076800</v>
       </c>
       <c r="J47" s="3">
-        <v>5304400</v>
+        <v>5523500</v>
       </c>
       <c r="K47" s="3">
         <v>5672400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9203000</v>
+        <v>9583100</v>
       </c>
       <c r="E48" s="3">
-        <v>11844000</v>
+        <v>12333200</v>
       </c>
       <c r="F48" s="3">
-        <v>8504200</v>
+        <v>8855500</v>
       </c>
       <c r="G48" s="3">
-        <v>8459500</v>
+        <v>8808900</v>
       </c>
       <c r="H48" s="3">
-        <v>10519400</v>
+        <v>10953900</v>
       </c>
       <c r="I48" s="3">
-        <v>11698100</v>
+        <v>12181300</v>
       </c>
       <c r="J48" s="3">
-        <v>9199400</v>
+        <v>9579400</v>
       </c>
       <c r="K48" s="3">
         <v>9012200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2758700</v>
+        <v>2872600</v>
       </c>
       <c r="E49" s="3">
-        <v>8196000</v>
+        <v>8534500</v>
       </c>
       <c r="F49" s="3">
-        <v>9780600</v>
+        <v>10184600</v>
       </c>
       <c r="G49" s="3">
-        <v>9957000</v>
+        <v>10368300</v>
       </c>
       <c r="H49" s="3">
-        <v>11512300</v>
+        <v>11987800</v>
       </c>
       <c r="I49" s="3">
-        <v>11825200</v>
+        <v>12313600</v>
       </c>
       <c r="J49" s="3">
-        <v>8671200</v>
+        <v>9029400</v>
       </c>
       <c r="K49" s="3">
         <v>8085100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>119185000</v>
+        <v>124107000</v>
       </c>
       <c r="E52" s="3">
-        <v>21642200</v>
+        <v>22536100</v>
       </c>
       <c r="F52" s="3">
-        <v>20371700</v>
+        <v>21213200</v>
       </c>
       <c r="G52" s="3">
-        <v>45383200</v>
+        <v>47257700</v>
       </c>
       <c r="H52" s="3">
-        <v>23520900</v>
+        <v>24492500</v>
       </c>
       <c r="I52" s="3">
-        <v>22642200</v>
+        <v>23577400</v>
       </c>
       <c r="J52" s="3">
-        <v>12224000</v>
+        <v>12728900</v>
       </c>
       <c r="K52" s="3">
         <v>11007400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>866037000</v>
+        <v>901808000</v>
       </c>
       <c r="E54" s="3">
-        <v>820818000</v>
+        <v>854721000</v>
       </c>
       <c r="F54" s="3">
-        <v>796057000</v>
+        <v>828937000</v>
       </c>
       <c r="G54" s="3">
-        <v>811785000</v>
+        <v>845315000</v>
       </c>
       <c r="H54" s="3">
-        <v>860955000</v>
+        <v>896516000</v>
       </c>
       <c r="I54" s="3">
-        <v>882129000</v>
+        <v>918565000</v>
       </c>
       <c r="J54" s="3">
-        <v>743417000</v>
+        <v>774123000</v>
       </c>
       <c r="K54" s="3">
         <v>697022000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5882000</v>
+        <v>6124900</v>
       </c>
       <c r="E57" s="3">
-        <v>5286700</v>
+        <v>5505100</v>
       </c>
       <c r="F57" s="3">
-        <v>6644300</v>
+        <v>6918700</v>
       </c>
       <c r="G57" s="3">
-        <v>6544300</v>
+        <v>6814600</v>
       </c>
       <c r="H57" s="3">
-        <v>7681900</v>
+        <v>7999200</v>
       </c>
       <c r="I57" s="3">
-        <v>8206600</v>
+        <v>8545500</v>
       </c>
       <c r="J57" s="3">
-        <v>3935100</v>
+        <v>4097600</v>
       </c>
       <c r="K57" s="3">
         <v>2555100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>641100</v>
+        <v>667600</v>
       </c>
       <c r="E59" s="3">
-        <v>1035200</v>
+        <v>1078000</v>
       </c>
       <c r="F59" s="3">
-        <v>1447000</v>
+        <v>1506700</v>
       </c>
       <c r="G59" s="3">
-        <v>1310500</v>
+        <v>1364600</v>
       </c>
       <c r="H59" s="3">
-        <v>2118700</v>
+        <v>2206200</v>
       </c>
       <c r="I59" s="3">
-        <v>2055200</v>
+        <v>2140100</v>
       </c>
       <c r="J59" s="3">
-        <v>1152900</v>
+        <v>1200500</v>
       </c>
       <c r="K59" s="3">
         <v>1424700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>81154000</v>
+        <v>84505900</v>
       </c>
       <c r="E61" s="3">
-        <v>84646700</v>
+        <v>88142900</v>
       </c>
       <c r="F61" s="3">
-        <v>75254300</v>
+        <v>78362600</v>
       </c>
       <c r="G61" s="3">
-        <v>75189600</v>
+        <v>78295200</v>
       </c>
       <c r="H61" s="3">
-        <v>89847500</v>
+        <v>93558600</v>
       </c>
       <c r="I61" s="3">
-        <v>96441300</v>
+        <v>100425000</v>
       </c>
       <c r="J61" s="3">
-        <v>84925500</v>
+        <v>88433300</v>
       </c>
       <c r="K61" s="3">
         <v>89327400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9353600</v>
+        <v>9739900</v>
       </c>
       <c r="E62" s="3">
-        <v>9960600</v>
+        <v>10372000</v>
       </c>
       <c r="F62" s="3">
-        <v>10373500</v>
+        <v>10802000</v>
       </c>
       <c r="G62" s="3">
-        <v>11365200</v>
+        <v>11834600</v>
       </c>
       <c r="H62" s="3">
-        <v>14661500</v>
+        <v>15267100</v>
       </c>
       <c r="I62" s="3">
-        <v>14434400</v>
+        <v>15030600</v>
       </c>
       <c r="J62" s="3">
-        <v>12494500</v>
+        <v>13010600</v>
       </c>
       <c r="K62" s="3">
         <v>10036100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>813631000</v>
+        <v>847237000</v>
       </c>
       <c r="E66" s="3">
-        <v>763499000</v>
+        <v>795034000</v>
       </c>
       <c r="F66" s="3">
-        <v>740637000</v>
+        <v>771228000</v>
       </c>
       <c r="G66" s="3">
-        <v>757266000</v>
+        <v>788544000</v>
       </c>
       <c r="H66" s="3">
-        <v>805236000</v>
+        <v>838496000</v>
       </c>
       <c r="I66" s="3">
-        <v>826498000</v>
+        <v>860635000</v>
       </c>
       <c r="J66" s="3">
-        <v>685657000</v>
+        <v>713977000</v>
       </c>
       <c r="K66" s="3">
         <v>646550000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>37231900</v>
+        <v>38769700</v>
       </c>
       <c r="E72" s="3">
-        <v>38563600</v>
+        <v>40156400</v>
       </c>
       <c r="F72" s="3">
-        <v>33273300</v>
+        <v>34647600</v>
       </c>
       <c r="G72" s="3">
-        <v>31875700</v>
+        <v>33192300</v>
       </c>
       <c r="H72" s="3">
-        <v>31875700</v>
+        <v>33192300</v>
       </c>
       <c r="I72" s="3">
-        <v>29565300</v>
+        <v>30786400</v>
       </c>
       <c r="J72" s="3">
-        <v>27710100</v>
+        <v>28854600</v>
       </c>
       <c r="K72" s="3">
         <v>26138200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52406300</v>
+        <v>54570900</v>
       </c>
       <c r="E76" s="3">
-        <v>57318900</v>
+        <v>59686400</v>
       </c>
       <c r="F76" s="3">
-        <v>55420200</v>
+        <v>57709300</v>
       </c>
       <c r="G76" s="3">
-        <v>54519100</v>
+        <v>56770900</v>
       </c>
       <c r="H76" s="3">
-        <v>55719000</v>
+        <v>58020400</v>
       </c>
       <c r="I76" s="3">
-        <v>55632000</v>
+        <v>57929800</v>
       </c>
       <c r="J76" s="3">
-        <v>57760100</v>
+        <v>60145800</v>
       </c>
       <c r="K76" s="3">
         <v>50472500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1535200</v>
+        <v>1598600</v>
       </c>
       <c r="E81" s="3">
-        <v>4131500</v>
+        <v>4302200</v>
       </c>
       <c r="F81" s="3">
-        <v>5982000</v>
+        <v>6229100</v>
       </c>
       <c r="G81" s="3">
-        <v>3785700</v>
+        <v>3942000</v>
       </c>
       <c r="H81" s="3">
-        <v>3782100</v>
+        <v>3938300</v>
       </c>
       <c r="I81" s="3">
-        <v>2858700</v>
+        <v>2976700</v>
       </c>
       <c r="J81" s="3">
-        <v>3079800</v>
+        <v>3207000</v>
       </c>
       <c r="K81" s="3">
         <v>2492900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1515200</v>
+        <v>1577800</v>
       </c>
       <c r="E83" s="3">
-        <v>1630500</v>
+        <v>1697800</v>
       </c>
       <c r="F83" s="3">
-        <v>1421100</v>
+        <v>1479800</v>
       </c>
       <c r="G83" s="3">
-        <v>1631700</v>
+        <v>1699100</v>
       </c>
       <c r="H83" s="3">
-        <v>1677500</v>
+        <v>1746800</v>
       </c>
       <c r="I83" s="3">
-        <v>1496400</v>
+        <v>1558200</v>
       </c>
       <c r="J83" s="3">
-        <v>1347000</v>
+        <v>1402600</v>
       </c>
       <c r="K83" s="3">
         <v>1314600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>46290200</v>
+        <v>48202100</v>
       </c>
       <c r="E89" s="3">
-        <v>-12533400</v>
+        <v>-13051000</v>
       </c>
       <c r="F89" s="3">
-        <v>10880500</v>
+        <v>11329900</v>
       </c>
       <c r="G89" s="3">
-        <v>2418700</v>
+        <v>2518600</v>
       </c>
       <c r="H89" s="3">
-        <v>7793700</v>
+        <v>8113100</v>
       </c>
       <c r="I89" s="3">
-        <v>27176000</v>
+        <v>28298500</v>
       </c>
       <c r="J89" s="3">
-        <v>-7279600</v>
+        <v>-7580200</v>
       </c>
       <c r="K89" s="3">
         <v>-598100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-743500</v>
+        <v>-774200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1002300</v>
+        <v>-1043700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1109300</v>
+        <v>-1155200</v>
       </c>
       <c r="G91" s="3">
-        <v>-914100</v>
+        <v>-951800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1543400</v>
+        <v>-1607200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2554000</v>
+        <v>-2659500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1669300</v>
+        <v>-1738300</v>
       </c>
       <c r="K91" s="3">
         <v>-1497600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-43500</v>
+        <v>-45300</v>
       </c>
       <c r="E94" s="3">
-        <v>114100</v>
+        <v>118800</v>
       </c>
       <c r="F94" s="3">
-        <v>8841800</v>
+        <v>9207000</v>
       </c>
       <c r="G94" s="3">
-        <v>224700</v>
+        <v>3554900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1037600</v>
+        <v>-686000</v>
       </c>
       <c r="I94" s="3">
-        <v>-5189100</v>
+        <v>-5403400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1354000</v>
+        <v>-1410000</v>
       </c>
       <c r="K94" s="3">
         <v>3613700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1252900</v>
+        <v>-1304600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2525700</v>
+        <v>-2630100</v>
       </c>
       <c r="F96" s="3">
-        <v>-2478700</v>
+        <v>-2581100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1997500</v>
+        <v>-2080000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1881100</v>
+        <v>-1958800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1034100</v>
+        <v>-1076800</v>
       </c>
       <c r="J96" s="3">
-        <v>-971700</v>
+        <v>-1011800</v>
       </c>
       <c r="K96" s="3">
         <v>-1525200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2434000</v>
+        <v>-2534500</v>
       </c>
       <c r="E100" s="3">
-        <v>-3178600</v>
+        <v>-3309900</v>
       </c>
       <c r="F100" s="3">
-        <v>-5990200</v>
+        <v>-6237600</v>
       </c>
       <c r="G100" s="3">
-        <v>-115300</v>
+        <v>-120000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1309300</v>
+        <v>-1363400</v>
       </c>
       <c r="I100" s="3">
-        <v>149400</v>
+        <v>155600</v>
       </c>
       <c r="J100" s="3">
-        <v>3713900</v>
+        <v>3867300</v>
       </c>
       <c r="K100" s="3">
         <v>-1586200</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5479700</v>
+        <v>-5706000</v>
       </c>
       <c r="E101" s="3">
-        <v>-745800</v>
+        <v>-776600</v>
       </c>
       <c r="F101" s="3">
-        <v>-2938600</v>
+        <v>-3060000</v>
       </c>
       <c r="G101" s="3">
-        <v>-5018500</v>
+        <v>-5225800</v>
       </c>
       <c r="H101" s="3">
-        <v>-4073900</v>
+        <v>-4242100</v>
       </c>
       <c r="I101" s="3">
-        <v>-7977200</v>
+        <v>-8306700</v>
       </c>
       <c r="J101" s="3">
-        <v>852900</v>
+        <v>888100</v>
       </c>
       <c r="K101" s="3">
         <v>-2134000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38333000</v>
+        <v>39916300</v>
       </c>
       <c r="E102" s="3">
-        <v>-16343700</v>
+        <v>-17018800</v>
       </c>
       <c r="F102" s="3">
-        <v>10793500</v>
+        <v>11239300</v>
       </c>
       <c r="G102" s="3">
-        <v>698800</v>
+        <v>727600</v>
       </c>
       <c r="H102" s="3">
-        <v>1751700</v>
+        <v>1824000</v>
       </c>
       <c r="I102" s="3">
-        <v>14159200</v>
+        <v>14744000</v>
       </c>
       <c r="J102" s="3">
-        <v>-4066800</v>
+        <v>-4234800</v>
       </c>
       <c r="K102" s="3">
         <v>-704600</v>

--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27426300</v>
+        <v>26137100</v>
       </c>
       <c r="E8" s="3">
-        <v>34006900</v>
+        <v>32408500</v>
       </c>
       <c r="F8" s="3">
-        <v>36540200</v>
+        <v>34822700</v>
       </c>
       <c r="G8" s="3">
-        <v>35887300</v>
+        <v>34200400</v>
       </c>
       <c r="H8" s="3">
-        <v>33942000</v>
+        <v>32346600</v>
       </c>
       <c r="I8" s="3">
-        <v>30358900</v>
+        <v>28931900</v>
       </c>
       <c r="J8" s="3">
-        <v>27976300</v>
+        <v>26661300</v>
       </c>
       <c r="K8" s="3">
         <v>28125100</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1579000</v>
+        <v>-1504800</v>
       </c>
       <c r="E15" s="3">
-        <v>-1696600</v>
+        <v>-1616900</v>
       </c>
       <c r="F15" s="3">
-        <v>-1479800</v>
+        <v>-1410200</v>
       </c>
       <c r="G15" s="3">
-        <v>-1699100</v>
+        <v>-1619200</v>
       </c>
       <c r="H15" s="3">
-        <v>-1746800</v>
+        <v>-1664700</v>
       </c>
       <c r="I15" s="3">
-        <v>-1558200</v>
+        <v>-1484900</v>
       </c>
       <c r="J15" s="3">
-        <v>-1402600</v>
+        <v>-1336700</v>
       </c>
       <c r="K15" s="3">
         <v>-1309800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15872200</v>
+        <v>15126100</v>
       </c>
       <c r="E17" s="3">
-        <v>18916300</v>
+        <v>18027100</v>
       </c>
       <c r="F17" s="3">
-        <v>19868100</v>
+        <v>18934200</v>
       </c>
       <c r="G17" s="3">
-        <v>18637000</v>
+        <v>17761000</v>
       </c>
       <c r="H17" s="3">
-        <v>17451200</v>
+        <v>16630900</v>
       </c>
       <c r="I17" s="3">
-        <v>15937100</v>
+        <v>15188000</v>
       </c>
       <c r="J17" s="3">
-        <v>15675000</v>
+        <v>14938200</v>
       </c>
       <c r="K17" s="3">
         <v>18210900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11554100</v>
+        <v>11011000</v>
       </c>
       <c r="E18" s="3">
-        <v>15090700</v>
+        <v>14381300</v>
       </c>
       <c r="F18" s="3">
-        <v>16672100</v>
+        <v>15888500</v>
       </c>
       <c r="G18" s="3">
-        <v>17250300</v>
+        <v>16439500</v>
       </c>
       <c r="H18" s="3">
-        <v>16490800</v>
+        <v>15715700</v>
       </c>
       <c r="I18" s="3">
-        <v>14421800</v>
+        <v>13743900</v>
       </c>
       <c r="J18" s="3">
-        <v>12301300</v>
+        <v>11723100</v>
       </c>
       <c r="K18" s="3">
         <v>9914100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5125400</v>
+        <v>-4884400</v>
       </c>
       <c r="E20" s="3">
-        <v>-6459400</v>
+        <v>-6155800</v>
       </c>
       <c r="F20" s="3">
-        <v>-6328300</v>
+        <v>-6030800</v>
       </c>
       <c r="G20" s="3">
-        <v>-8759900</v>
+        <v>-8348100</v>
       </c>
       <c r="H20" s="3">
-        <v>-8660700</v>
+        <v>-8253600</v>
       </c>
       <c r="I20" s="3">
-        <v>-8783200</v>
+        <v>-8370300</v>
       </c>
       <c r="J20" s="3">
-        <v>-7425900</v>
+        <v>-7076800</v>
       </c>
       <c r="K20" s="3">
         <v>-8772900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8002000</v>
+        <v>7634800</v>
       </c>
       <c r="E21" s="3">
-        <v>10324300</v>
+        <v>9848600</v>
       </c>
       <c r="F21" s="3">
-        <v>11819400</v>
+        <v>11272200</v>
       </c>
       <c r="G21" s="3">
-        <v>10184600</v>
+        <v>9715500</v>
       </c>
       <c r="H21" s="3">
-        <v>9572000</v>
+        <v>9131900</v>
       </c>
       <c r="I21" s="3">
-        <v>7192400</v>
+        <v>6863100</v>
       </c>
       <c r="J21" s="3">
-        <v>6274100</v>
+        <v>5987100</v>
       </c>
       <c r="K21" s="3">
         <v>2450400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6428700</v>
+        <v>6126600</v>
       </c>
       <c r="E23" s="3">
-        <v>8631300</v>
+        <v>8225600</v>
       </c>
       <c r="F23" s="3">
-        <v>10343800</v>
+        <v>9857600</v>
       </c>
       <c r="G23" s="3">
-        <v>8490400</v>
+        <v>8091300</v>
       </c>
       <c r="H23" s="3">
-        <v>7830100</v>
+        <v>7462100</v>
       </c>
       <c r="I23" s="3">
-        <v>5638600</v>
+        <v>5373600</v>
       </c>
       <c r="J23" s="3">
-        <v>4875500</v>
+        <v>4646300</v>
       </c>
       <c r="K23" s="3">
         <v>1141200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1787300</v>
+        <v>1703300</v>
       </c>
       <c r="E24" s="3">
-        <v>2380200</v>
+        <v>2268300</v>
       </c>
       <c r="F24" s="3">
-        <v>2718300</v>
+        <v>2590500</v>
       </c>
       <c r="G24" s="3">
-        <v>2657000</v>
+        <v>2532100</v>
       </c>
       <c r="H24" s="3">
-        <v>2081300</v>
+        <v>1983400</v>
       </c>
       <c r="I24" s="3">
-        <v>1560600</v>
+        <v>1487300</v>
       </c>
       <c r="J24" s="3">
-        <v>1100000</v>
+        <v>1048300</v>
       </c>
       <c r="K24" s="3">
         <v>-19100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4641500</v>
+        <v>4423300</v>
       </c>
       <c r="E26" s="3">
-        <v>6251100</v>
+        <v>5957300</v>
       </c>
       <c r="F26" s="3">
-        <v>7625600</v>
+        <v>7267100</v>
       </c>
       <c r="G26" s="3">
-        <v>5833400</v>
+        <v>5559200</v>
       </c>
       <c r="H26" s="3">
-        <v>5748900</v>
+        <v>5478700</v>
       </c>
       <c r="I26" s="3">
-        <v>4078000</v>
+        <v>3886300</v>
       </c>
       <c r="J26" s="3">
-        <v>3775400</v>
+        <v>3598000</v>
       </c>
       <c r="K26" s="3">
         <v>1160300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3716600</v>
+        <v>3541900</v>
       </c>
       <c r="E27" s="3">
-        <v>5230700</v>
+        <v>4984800</v>
       </c>
       <c r="F27" s="3">
-        <v>6229100</v>
+        <v>5936300</v>
       </c>
       <c r="G27" s="3">
-        <v>3942000</v>
+        <v>3756700</v>
       </c>
       <c r="H27" s="3">
-        <v>3938300</v>
+        <v>3753200</v>
       </c>
       <c r="I27" s="3">
-        <v>2976700</v>
+        <v>2836800</v>
       </c>
       <c r="J27" s="3">
-        <v>3207000</v>
+        <v>3056300</v>
       </c>
       <c r="K27" s="3">
         <v>260800</v>
@@ -1413,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-2118000</v>
+        <v>-2018500</v>
       </c>
       <c r="E29" s="3">
-        <v>-928500</v>
+        <v>-884900</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5125400</v>
+        <v>4884400</v>
       </c>
       <c r="E32" s="3">
-        <v>6459400</v>
+        <v>6155800</v>
       </c>
       <c r="F32" s="3">
-        <v>6328300</v>
+        <v>6030800</v>
       </c>
       <c r="G32" s="3">
-        <v>8759900</v>
+        <v>8348100</v>
       </c>
       <c r="H32" s="3">
-        <v>8660700</v>
+        <v>8253600</v>
       </c>
       <c r="I32" s="3">
-        <v>8783200</v>
+        <v>8370300</v>
       </c>
       <c r="J32" s="3">
-        <v>7425900</v>
+        <v>7076800</v>
       </c>
       <c r="K32" s="3">
         <v>8772900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1598600</v>
+        <v>1523500</v>
       </c>
       <c r="E33" s="3">
-        <v>4302200</v>
+        <v>4099900</v>
       </c>
       <c r="F33" s="3">
-        <v>6229100</v>
+        <v>5936300</v>
       </c>
       <c r="G33" s="3">
-        <v>3942000</v>
+        <v>3756700</v>
       </c>
       <c r="H33" s="3">
-        <v>3938300</v>
+        <v>3753200</v>
       </c>
       <c r="I33" s="3">
-        <v>2976700</v>
+        <v>2836800</v>
       </c>
       <c r="J33" s="3">
-        <v>3207000</v>
+        <v>3056300</v>
       </c>
       <c r="K33" s="3">
         <v>2492900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1598600</v>
+        <v>1523500</v>
       </c>
       <c r="E35" s="3">
-        <v>4302200</v>
+        <v>4099900</v>
       </c>
       <c r="F35" s="3">
-        <v>6229100</v>
+        <v>5936300</v>
       </c>
       <c r="G35" s="3">
-        <v>3942000</v>
+        <v>3756700</v>
       </c>
       <c r="H35" s="3">
-        <v>3938300</v>
+        <v>3753200</v>
       </c>
       <c r="I35" s="3">
-        <v>2976700</v>
+        <v>2836800</v>
       </c>
       <c r="J35" s="3">
-        <v>3207000</v>
+        <v>3056300</v>
       </c>
       <c r="K35" s="3">
         <v>2492900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>105722000</v>
+        <v>100752000</v>
       </c>
       <c r="E41" s="3">
-        <v>76227500</v>
+        <v>72644400</v>
       </c>
       <c r="F41" s="3">
-        <v>87343000</v>
+        <v>83237500</v>
       </c>
       <c r="G41" s="3">
-        <v>93394500</v>
+        <v>89004500</v>
       </c>
       <c r="H41" s="3">
-        <v>98374000</v>
+        <v>93750000</v>
       </c>
       <c r="I41" s="3">
-        <v>111281000</v>
+        <v>106050000</v>
       </c>
       <c r="J41" s="3">
-        <v>53958400</v>
+        <v>51422100</v>
       </c>
       <c r="K41" s="3">
         <v>53576600</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>227852000</v>
+        <v>217142000</v>
       </c>
       <c r="E42" s="3">
-        <v>209985000</v>
+        <v>200115000</v>
       </c>
       <c r="F42" s="3">
-        <v>190846000</v>
+        <v>181876000</v>
       </c>
       <c r="G42" s="3">
-        <v>170720000</v>
+        <v>162695000</v>
       </c>
       <c r="H42" s="3">
-        <v>205268000</v>
+        <v>195619000</v>
       </c>
       <c r="I42" s="3">
-        <v>272519000</v>
+        <v>259709000</v>
       </c>
       <c r="J42" s="3">
-        <v>252321000</v>
+        <v>240461000</v>
       </c>
       <c r="K42" s="3">
         <v>206910000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1759100</v>
+        <v>1676400</v>
       </c>
       <c r="E47" s="3">
-        <v>1822800</v>
+        <v>1737100</v>
       </c>
       <c r="F47" s="3">
-        <v>1933000</v>
+        <v>1842200</v>
       </c>
       <c r="G47" s="3">
-        <v>1945300</v>
+        <v>1853800</v>
       </c>
       <c r="H47" s="3">
-        <v>937100</v>
+        <v>893100</v>
       </c>
       <c r="I47" s="3">
-        <v>1076800</v>
+        <v>1026200</v>
       </c>
       <c r="J47" s="3">
-        <v>5523500</v>
+        <v>5263900</v>
       </c>
       <c r="K47" s="3">
         <v>5672400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9583100</v>
+        <v>9132600</v>
       </c>
       <c r="E48" s="3">
-        <v>12333200</v>
+        <v>11753500</v>
       </c>
       <c r="F48" s="3">
-        <v>8855500</v>
+        <v>8439200</v>
       </c>
       <c r="G48" s="3">
-        <v>8808900</v>
+        <v>8394800</v>
       </c>
       <c r="H48" s="3">
-        <v>10953900</v>
+        <v>10439000</v>
       </c>
       <c r="I48" s="3">
-        <v>12181300</v>
+        <v>11608700</v>
       </c>
       <c r="J48" s="3">
-        <v>9579400</v>
+        <v>9129100</v>
       </c>
       <c r="K48" s="3">
         <v>9012200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2872600</v>
+        <v>2737600</v>
       </c>
       <c r="E49" s="3">
-        <v>8534500</v>
+        <v>8133300</v>
       </c>
       <c r="F49" s="3">
-        <v>10184600</v>
+        <v>9705800</v>
       </c>
       <c r="G49" s="3">
-        <v>10368300</v>
+        <v>9881000</v>
       </c>
       <c r="H49" s="3">
-        <v>11987800</v>
+        <v>11424300</v>
       </c>
       <c r="I49" s="3">
-        <v>12313600</v>
+        <v>11734800</v>
       </c>
       <c r="J49" s="3">
-        <v>9029400</v>
+        <v>8605000</v>
       </c>
       <c r="K49" s="3">
         <v>8085100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>124107000</v>
+        <v>118274000</v>
       </c>
       <c r="E52" s="3">
-        <v>22536100</v>
+        <v>21476800</v>
       </c>
       <c r="F52" s="3">
-        <v>21213200</v>
+        <v>20216000</v>
       </c>
       <c r="G52" s="3">
-        <v>47257700</v>
+        <v>45036300</v>
       </c>
       <c r="H52" s="3">
-        <v>24492500</v>
+        <v>23341200</v>
       </c>
       <c r="I52" s="3">
-        <v>23577400</v>
+        <v>22469100</v>
       </c>
       <c r="J52" s="3">
-        <v>12728900</v>
+        <v>12130600</v>
       </c>
       <c r="K52" s="3">
         <v>11007400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>901808000</v>
+        <v>859419000</v>
       </c>
       <c r="E54" s="3">
-        <v>854721000</v>
+        <v>814545000</v>
       </c>
       <c r="F54" s="3">
-        <v>828937000</v>
+        <v>789974000</v>
       </c>
       <c r="G54" s="3">
-        <v>845315000</v>
+        <v>805582000</v>
       </c>
       <c r="H54" s="3">
-        <v>896516000</v>
+        <v>854376000</v>
       </c>
       <c r="I54" s="3">
-        <v>918565000</v>
+        <v>875388000</v>
       </c>
       <c r="J54" s="3">
-        <v>774123000</v>
+        <v>737735000</v>
       </c>
       <c r="K54" s="3">
         <v>697022000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6124900</v>
+        <v>5837100</v>
       </c>
       <c r="E57" s="3">
-        <v>5505100</v>
+        <v>5246300</v>
       </c>
       <c r="F57" s="3">
-        <v>6918700</v>
+        <v>6593500</v>
       </c>
       <c r="G57" s="3">
-        <v>6814600</v>
+        <v>6494300</v>
       </c>
       <c r="H57" s="3">
-        <v>7999200</v>
+        <v>7623200</v>
       </c>
       <c r="I57" s="3">
-        <v>8545500</v>
+        <v>8143900</v>
       </c>
       <c r="J57" s="3">
-        <v>4097600</v>
+        <v>3905000</v>
       </c>
       <c r="K57" s="3">
         <v>2555100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>667600</v>
+        <v>636200</v>
       </c>
       <c r="E59" s="3">
-        <v>1078000</v>
+        <v>1027300</v>
       </c>
       <c r="F59" s="3">
-        <v>1506700</v>
+        <v>1435900</v>
       </c>
       <c r="G59" s="3">
-        <v>1364600</v>
+        <v>1300500</v>
       </c>
       <c r="H59" s="3">
-        <v>2206200</v>
+        <v>2102500</v>
       </c>
       <c r="I59" s="3">
-        <v>2140100</v>
+        <v>2039500</v>
       </c>
       <c r="J59" s="3">
-        <v>1200500</v>
+        <v>1144100</v>
       </c>
       <c r="K59" s="3">
         <v>1424700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>84505900</v>
+        <v>80533800</v>
       </c>
       <c r="E61" s="3">
-        <v>88142900</v>
+        <v>83999800</v>
       </c>
       <c r="F61" s="3">
-        <v>78362600</v>
+        <v>74679200</v>
       </c>
       <c r="G61" s="3">
-        <v>78295200</v>
+        <v>74615000</v>
       </c>
       <c r="H61" s="3">
-        <v>93558600</v>
+        <v>89160900</v>
       </c>
       <c r="I61" s="3">
-        <v>100425000</v>
+        <v>95704300</v>
       </c>
       <c r="J61" s="3">
-        <v>88433300</v>
+        <v>84276500</v>
       </c>
       <c r="K61" s="3">
         <v>89327400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9739900</v>
+        <v>9282100</v>
       </c>
       <c r="E62" s="3">
-        <v>10372000</v>
+        <v>9884500</v>
       </c>
       <c r="F62" s="3">
-        <v>10802000</v>
+        <v>10294200</v>
       </c>
       <c r="G62" s="3">
-        <v>11834600</v>
+        <v>11278300</v>
       </c>
       <c r="H62" s="3">
-        <v>15267100</v>
+        <v>14549400</v>
       </c>
       <c r="I62" s="3">
-        <v>15030600</v>
+        <v>14324100</v>
       </c>
       <c r="J62" s="3">
-        <v>13010600</v>
+        <v>12399100</v>
       </c>
       <c r="K62" s="3">
         <v>10036100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>847237000</v>
+        <v>807413000</v>
       </c>
       <c r="E66" s="3">
-        <v>795034000</v>
+        <v>757664000</v>
       </c>
       <c r="F66" s="3">
-        <v>771228000</v>
+        <v>734977000</v>
       </c>
       <c r="G66" s="3">
-        <v>788544000</v>
+        <v>751479000</v>
       </c>
       <c r="H66" s="3">
-        <v>838496000</v>
+        <v>799083000</v>
       </c>
       <c r="I66" s="3">
-        <v>860635000</v>
+        <v>820181000</v>
       </c>
       <c r="J66" s="3">
-        <v>713977000</v>
+        <v>680417000</v>
       </c>
       <c r="K66" s="3">
         <v>646550000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>38769700</v>
+        <v>36947400</v>
       </c>
       <c r="E72" s="3">
-        <v>40156400</v>
+        <v>38268900</v>
       </c>
       <c r="F72" s="3">
-        <v>34647600</v>
+        <v>33019000</v>
       </c>
       <c r="G72" s="3">
-        <v>33192300</v>
+        <v>31632100</v>
       </c>
       <c r="H72" s="3">
-        <v>33192300</v>
+        <v>31632100</v>
       </c>
       <c r="I72" s="3">
-        <v>30786400</v>
+        <v>29339300</v>
       </c>
       <c r="J72" s="3">
-        <v>28854600</v>
+        <v>27498300</v>
       </c>
       <c r="K72" s="3">
         <v>26138200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>54570900</v>
+        <v>52005800</v>
       </c>
       <c r="E76" s="3">
-        <v>59686400</v>
+        <v>56880900</v>
       </c>
       <c r="F76" s="3">
-        <v>57709300</v>
+        <v>54996700</v>
       </c>
       <c r="G76" s="3">
-        <v>56770900</v>
+        <v>54102400</v>
       </c>
       <c r="H76" s="3">
-        <v>58020400</v>
+        <v>55293200</v>
       </c>
       <c r="I76" s="3">
-        <v>57929800</v>
+        <v>55206800</v>
       </c>
       <c r="J76" s="3">
-        <v>60145800</v>
+        <v>57318700</v>
       </c>
       <c r="K76" s="3">
         <v>50472500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1598600</v>
+        <v>1523500</v>
       </c>
       <c r="E81" s="3">
-        <v>4302200</v>
+        <v>4099900</v>
       </c>
       <c r="F81" s="3">
-        <v>6229100</v>
+        <v>5936300</v>
       </c>
       <c r="G81" s="3">
-        <v>3942000</v>
+        <v>3756700</v>
       </c>
       <c r="H81" s="3">
-        <v>3938300</v>
+        <v>3753200</v>
       </c>
       <c r="I81" s="3">
-        <v>2976700</v>
+        <v>2836800</v>
       </c>
       <c r="J81" s="3">
-        <v>3207000</v>
+        <v>3056300</v>
       </c>
       <c r="K81" s="3">
         <v>2492900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1577800</v>
+        <v>1503600</v>
       </c>
       <c r="E83" s="3">
-        <v>1697800</v>
+        <v>1618000</v>
       </c>
       <c r="F83" s="3">
-        <v>1479800</v>
+        <v>1410200</v>
       </c>
       <c r="G83" s="3">
-        <v>1699100</v>
+        <v>1619200</v>
       </c>
       <c r="H83" s="3">
-        <v>1746800</v>
+        <v>1664700</v>
       </c>
       <c r="I83" s="3">
-        <v>1558200</v>
+        <v>1484900</v>
       </c>
       <c r="J83" s="3">
-        <v>1402600</v>
+        <v>1336700</v>
       </c>
       <c r="K83" s="3">
         <v>1314600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>48202100</v>
+        <v>45936400</v>
       </c>
       <c r="E89" s="3">
-        <v>-13051000</v>
+        <v>-12437600</v>
       </c>
       <c r="F89" s="3">
-        <v>11329900</v>
+        <v>10797400</v>
       </c>
       <c r="G89" s="3">
-        <v>2518600</v>
+        <v>2400200</v>
       </c>
       <c r="H89" s="3">
-        <v>8113100</v>
+        <v>7731800</v>
       </c>
       <c r="I89" s="3">
-        <v>28298500</v>
+        <v>26968300</v>
       </c>
       <c r="J89" s="3">
-        <v>-7580200</v>
+        <v>-7223900</v>
       </c>
       <c r="K89" s="3">
         <v>-598100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-774200</v>
+        <v>-737800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1043700</v>
+        <v>-994600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1155200</v>
+        <v>-1100900</v>
       </c>
       <c r="G91" s="3">
-        <v>-951800</v>
+        <v>-907100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1607200</v>
+        <v>-1531600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2659500</v>
+        <v>-2534400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1738300</v>
+        <v>-1656600</v>
       </c>
       <c r="K91" s="3">
         <v>-1497600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-45300</v>
+        <v>-43200</v>
       </c>
       <c r="E94" s="3">
-        <v>118800</v>
+        <v>113200</v>
       </c>
       <c r="F94" s="3">
-        <v>9207000</v>
+        <v>8774300</v>
       </c>
       <c r="G94" s="3">
-        <v>3554900</v>
+        <v>3387800</v>
       </c>
       <c r="H94" s="3">
-        <v>-686000</v>
+        <v>-653700</v>
       </c>
       <c r="I94" s="3">
-        <v>-5403400</v>
+        <v>-5149400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1410000</v>
+        <v>-1343700</v>
       </c>
       <c r="K94" s="3">
         <v>3613700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1304600</v>
+        <v>-1243300</v>
       </c>
       <c r="E96" s="3">
-        <v>-2630100</v>
+        <v>-2506400</v>
       </c>
       <c r="F96" s="3">
-        <v>-2581100</v>
+        <v>-2459700</v>
       </c>
       <c r="G96" s="3">
-        <v>-2080000</v>
+        <v>-1982300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1958800</v>
+        <v>-1866700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1076800</v>
+        <v>-1026200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1011800</v>
+        <v>-964300</v>
       </c>
       <c r="K96" s="3">
         <v>-1525200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2534500</v>
+        <v>-2415400</v>
       </c>
       <c r="E100" s="3">
-        <v>-3309900</v>
+        <v>-3154300</v>
       </c>
       <c r="F100" s="3">
-        <v>-6237600</v>
+        <v>-5944500</v>
       </c>
       <c r="G100" s="3">
-        <v>-120000</v>
+        <v>-114400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1363400</v>
+        <v>-1299300</v>
       </c>
       <c r="I100" s="3">
-        <v>155600</v>
+        <v>148300</v>
       </c>
       <c r="J100" s="3">
-        <v>3867300</v>
+        <v>3685500</v>
       </c>
       <c r="K100" s="3">
         <v>-1586200</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5706000</v>
+        <v>-5437800</v>
       </c>
       <c r="E101" s="3">
-        <v>-776600</v>
+        <v>-740100</v>
       </c>
       <c r="F101" s="3">
-        <v>-3060000</v>
+        <v>-2916200</v>
       </c>
       <c r="G101" s="3">
-        <v>-5225800</v>
+        <v>-4980200</v>
       </c>
       <c r="H101" s="3">
-        <v>-4242100</v>
+        <v>-4042700</v>
       </c>
       <c r="I101" s="3">
-        <v>-8306700</v>
+        <v>-7916200</v>
       </c>
       <c r="J101" s="3">
-        <v>888100</v>
+        <v>846400</v>
       </c>
       <c r="K101" s="3">
         <v>-2134000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>39916300</v>
+        <v>38040100</v>
       </c>
       <c r="E102" s="3">
-        <v>-17018800</v>
+        <v>-16218800</v>
       </c>
       <c r="F102" s="3">
-        <v>11239300</v>
+        <v>10711000</v>
       </c>
       <c r="G102" s="3">
-        <v>727600</v>
+        <v>693400</v>
       </c>
       <c r="H102" s="3">
-        <v>1824000</v>
+        <v>1738300</v>
       </c>
       <c r="I102" s="3">
-        <v>14744000</v>
+        <v>14050900</v>
       </c>
       <c r="J102" s="3">
-        <v>-4234800</v>
+        <v>-4035700</v>
       </c>
       <c r="K102" s="3">
         <v>-704600</v>

--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26137100</v>
+        <v>25279400</v>
       </c>
       <c r="E8" s="3">
-        <v>32408500</v>
+        <v>31344900</v>
       </c>
       <c r="F8" s="3">
-        <v>34822700</v>
+        <v>33679900</v>
       </c>
       <c r="G8" s="3">
-        <v>34200400</v>
+        <v>33078100</v>
       </c>
       <c r="H8" s="3">
-        <v>32346600</v>
+        <v>31285100</v>
       </c>
       <c r="I8" s="3">
-        <v>28931900</v>
+        <v>27982500</v>
       </c>
       <c r="J8" s="3">
-        <v>26661300</v>
+        <v>25786400</v>
       </c>
       <c r="K8" s="3">
         <v>28125100</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1504800</v>
+        <v>-1455400</v>
       </c>
       <c r="E15" s="3">
-        <v>-1616900</v>
+        <v>-1563800</v>
       </c>
       <c r="F15" s="3">
-        <v>-1410200</v>
+        <v>-1364000</v>
       </c>
       <c r="G15" s="3">
-        <v>-1619200</v>
+        <v>-1566100</v>
       </c>
       <c r="H15" s="3">
-        <v>-1664700</v>
+        <v>-1610100</v>
       </c>
       <c r="I15" s="3">
-        <v>-1484900</v>
+        <v>-1436200</v>
       </c>
       <c r="J15" s="3">
-        <v>-1336700</v>
+        <v>-1292800</v>
       </c>
       <c r="K15" s="3">
         <v>-1309800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15126100</v>
+        <v>14629700</v>
       </c>
       <c r="E17" s="3">
-        <v>18027100</v>
+        <v>17435600</v>
       </c>
       <c r="F17" s="3">
-        <v>18934200</v>
+        <v>18312900</v>
       </c>
       <c r="G17" s="3">
-        <v>17761000</v>
+        <v>17178100</v>
       </c>
       <c r="H17" s="3">
-        <v>16630900</v>
+        <v>16085200</v>
       </c>
       <c r="I17" s="3">
-        <v>15188000</v>
+        <v>14689600</v>
       </c>
       <c r="J17" s="3">
-        <v>14938200</v>
+        <v>14448000</v>
       </c>
       <c r="K17" s="3">
         <v>18210900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11011000</v>
+        <v>10649700</v>
       </c>
       <c r="E18" s="3">
-        <v>14381300</v>
+        <v>13909400</v>
       </c>
       <c r="F18" s="3">
-        <v>15888500</v>
+        <v>15367100</v>
       </c>
       <c r="G18" s="3">
-        <v>16439500</v>
+        <v>15900000</v>
       </c>
       <c r="H18" s="3">
-        <v>15715700</v>
+        <v>15199900</v>
       </c>
       <c r="I18" s="3">
-        <v>13743900</v>
+        <v>13292900</v>
       </c>
       <c r="J18" s="3">
-        <v>11723100</v>
+        <v>11338400</v>
       </c>
       <c r="K18" s="3">
         <v>9914100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4884400</v>
+        <v>-4724200</v>
       </c>
       <c r="E20" s="3">
-        <v>-6155800</v>
+        <v>-5953700</v>
       </c>
       <c r="F20" s="3">
-        <v>-6030800</v>
+        <v>-5832900</v>
       </c>
       <c r="G20" s="3">
-        <v>-8348100</v>
+        <v>-8074200</v>
       </c>
       <c r="H20" s="3">
-        <v>-8253600</v>
+        <v>-7982700</v>
       </c>
       <c r="I20" s="3">
-        <v>-8370300</v>
+        <v>-8095600</v>
       </c>
       <c r="J20" s="3">
-        <v>-7076800</v>
+        <v>-6844600</v>
       </c>
       <c r="K20" s="3">
         <v>-8772900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7634800</v>
+        <v>7383100</v>
       </c>
       <c r="E21" s="3">
-        <v>9848600</v>
+        <v>9524200</v>
       </c>
       <c r="F21" s="3">
-        <v>11272200</v>
+        <v>10901200</v>
       </c>
       <c r="G21" s="3">
-        <v>9715500</v>
+        <v>9395500</v>
       </c>
       <c r="H21" s="3">
-        <v>9131900</v>
+        <v>8831000</v>
       </c>
       <c r="I21" s="3">
-        <v>6863100</v>
+        <v>6636800</v>
       </c>
       <c r="J21" s="3">
-        <v>5987100</v>
+        <v>5789600</v>
       </c>
       <c r="K21" s="3">
         <v>2450400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6126600</v>
+        <v>5925500</v>
       </c>
       <c r="E23" s="3">
-        <v>8225600</v>
+        <v>7955600</v>
       </c>
       <c r="F23" s="3">
-        <v>9857600</v>
+        <v>9534100</v>
       </c>
       <c r="G23" s="3">
-        <v>8091300</v>
+        <v>7825800</v>
       </c>
       <c r="H23" s="3">
-        <v>7462100</v>
+        <v>7217200</v>
       </c>
       <c r="I23" s="3">
-        <v>5373600</v>
+        <v>5197200</v>
       </c>
       <c r="J23" s="3">
-        <v>4646300</v>
+        <v>4493800</v>
       </c>
       <c r="K23" s="3">
         <v>1141200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1703300</v>
+        <v>1647400</v>
       </c>
       <c r="E24" s="3">
-        <v>2268300</v>
+        <v>2193800</v>
       </c>
       <c r="F24" s="3">
-        <v>2590500</v>
+        <v>2505500</v>
       </c>
       <c r="G24" s="3">
-        <v>2532100</v>
+        <v>2449000</v>
       </c>
       <c r="H24" s="3">
-        <v>1983400</v>
+        <v>1918300</v>
       </c>
       <c r="I24" s="3">
-        <v>1487300</v>
+        <v>1438500</v>
       </c>
       <c r="J24" s="3">
-        <v>1048300</v>
+        <v>1013900</v>
       </c>
       <c r="K24" s="3">
         <v>-19100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4423300</v>
+        <v>4278200</v>
       </c>
       <c r="E26" s="3">
-        <v>5957300</v>
+        <v>5761800</v>
       </c>
       <c r="F26" s="3">
-        <v>7267100</v>
+        <v>7028600</v>
       </c>
       <c r="G26" s="3">
-        <v>5559200</v>
+        <v>5376800</v>
       </c>
       <c r="H26" s="3">
-        <v>5478700</v>
+        <v>5298900</v>
       </c>
       <c r="I26" s="3">
-        <v>3886300</v>
+        <v>3758800</v>
       </c>
       <c r="J26" s="3">
-        <v>3598000</v>
+        <v>3479900</v>
       </c>
       <c r="K26" s="3">
         <v>1160300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3541900</v>
+        <v>3425700</v>
       </c>
       <c r="E27" s="3">
-        <v>4984800</v>
+        <v>4821300</v>
       </c>
       <c r="F27" s="3">
-        <v>5936300</v>
+        <v>5741500</v>
       </c>
       <c r="G27" s="3">
-        <v>3756700</v>
+        <v>3633400</v>
       </c>
       <c r="H27" s="3">
-        <v>3753200</v>
+        <v>3630100</v>
       </c>
       <c r="I27" s="3">
-        <v>2836800</v>
+        <v>2743700</v>
       </c>
       <c r="J27" s="3">
-        <v>3056300</v>
+        <v>2956000</v>
       </c>
       <c r="K27" s="3">
         <v>260800</v>
@@ -1413,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-2018500</v>
+        <v>-1952200</v>
       </c>
       <c r="E29" s="3">
-        <v>-884900</v>
+        <v>-855900</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4884400</v>
+        <v>4724200</v>
       </c>
       <c r="E32" s="3">
-        <v>6155800</v>
+        <v>5953700</v>
       </c>
       <c r="F32" s="3">
-        <v>6030800</v>
+        <v>5832900</v>
       </c>
       <c r="G32" s="3">
-        <v>8348100</v>
+        <v>8074200</v>
       </c>
       <c r="H32" s="3">
-        <v>8253600</v>
+        <v>7982700</v>
       </c>
       <c r="I32" s="3">
-        <v>8370300</v>
+        <v>8095600</v>
       </c>
       <c r="J32" s="3">
-        <v>7076800</v>
+        <v>6844600</v>
       </c>
       <c r="K32" s="3">
         <v>8772900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1523500</v>
+        <v>1473500</v>
       </c>
       <c r="E33" s="3">
-        <v>4099900</v>
+        <v>3965400</v>
       </c>
       <c r="F33" s="3">
-        <v>5936300</v>
+        <v>5741500</v>
       </c>
       <c r="G33" s="3">
-        <v>3756700</v>
+        <v>3633400</v>
       </c>
       <c r="H33" s="3">
-        <v>3753200</v>
+        <v>3630100</v>
       </c>
       <c r="I33" s="3">
-        <v>2836800</v>
+        <v>2743700</v>
       </c>
       <c r="J33" s="3">
-        <v>3056300</v>
+        <v>2956000</v>
       </c>
       <c r="K33" s="3">
         <v>2492900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1523500</v>
+        <v>1473500</v>
       </c>
       <c r="E35" s="3">
-        <v>4099900</v>
+        <v>3965400</v>
       </c>
       <c r="F35" s="3">
-        <v>5936300</v>
+        <v>5741500</v>
       </c>
       <c r="G35" s="3">
-        <v>3756700</v>
+        <v>3633400</v>
       </c>
       <c r="H35" s="3">
-        <v>3753200</v>
+        <v>3630100</v>
       </c>
       <c r="I35" s="3">
-        <v>2836800</v>
+        <v>2743700</v>
       </c>
       <c r="J35" s="3">
-        <v>3056300</v>
+        <v>2956000</v>
       </c>
       <c r="K35" s="3">
         <v>2492900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100752000</v>
+        <v>97445800</v>
       </c>
       <c r="E41" s="3">
-        <v>72644400</v>
+        <v>70260500</v>
       </c>
       <c r="F41" s="3">
-        <v>83237500</v>
+        <v>80506000</v>
       </c>
       <c r="G41" s="3">
-        <v>89004500</v>
+        <v>86083700</v>
       </c>
       <c r="H41" s="3">
-        <v>93750000</v>
+        <v>90673500</v>
       </c>
       <c r="I41" s="3">
-        <v>106050000</v>
+        <v>102570000</v>
       </c>
       <c r="J41" s="3">
-        <v>51422100</v>
+        <v>49734600</v>
       </c>
       <c r="K41" s="3">
         <v>53576600</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>217142000</v>
+        <v>210016000</v>
       </c>
       <c r="E42" s="3">
-        <v>200115000</v>
+        <v>193548000</v>
       </c>
       <c r="F42" s="3">
-        <v>181876000</v>
+        <v>175907000</v>
       </c>
       <c r="G42" s="3">
-        <v>162695000</v>
+        <v>157356000</v>
       </c>
       <c r="H42" s="3">
-        <v>195619000</v>
+        <v>189200000</v>
       </c>
       <c r="I42" s="3">
-        <v>259709000</v>
+        <v>251186000</v>
       </c>
       <c r="J42" s="3">
-        <v>240461000</v>
+        <v>232570000</v>
       </c>
       <c r="K42" s="3">
         <v>206910000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1676400</v>
+        <v>1621400</v>
       </c>
       <c r="E47" s="3">
-        <v>1737100</v>
+        <v>1680100</v>
       </c>
       <c r="F47" s="3">
-        <v>1842200</v>
+        <v>1781700</v>
       </c>
       <c r="G47" s="3">
-        <v>1853800</v>
+        <v>1793000</v>
       </c>
       <c r="H47" s="3">
-        <v>893100</v>
+        <v>863800</v>
       </c>
       <c r="I47" s="3">
-        <v>1026200</v>
+        <v>992500</v>
       </c>
       <c r="J47" s="3">
-        <v>5263900</v>
+        <v>5091100</v>
       </c>
       <c r="K47" s="3">
         <v>5672400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9132600</v>
+        <v>8832900</v>
       </c>
       <c r="E48" s="3">
-        <v>11753500</v>
+        <v>11367800</v>
       </c>
       <c r="F48" s="3">
-        <v>8439200</v>
+        <v>8162300</v>
       </c>
       <c r="G48" s="3">
-        <v>8394800</v>
+        <v>8119400</v>
       </c>
       <c r="H48" s="3">
-        <v>10439000</v>
+        <v>10096400</v>
       </c>
       <c r="I48" s="3">
-        <v>11608700</v>
+        <v>11227800</v>
       </c>
       <c r="J48" s="3">
-        <v>9129100</v>
+        <v>8829600</v>
       </c>
       <c r="K48" s="3">
         <v>9012200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2737600</v>
+        <v>2647700</v>
       </c>
       <c r="E49" s="3">
-        <v>8133300</v>
+        <v>7866400</v>
       </c>
       <c r="F49" s="3">
-        <v>9705800</v>
+        <v>9387300</v>
       </c>
       <c r="G49" s="3">
-        <v>9881000</v>
+        <v>9556700</v>
       </c>
       <c r="H49" s="3">
-        <v>11424300</v>
+        <v>11049400</v>
       </c>
       <c r="I49" s="3">
-        <v>11734800</v>
+        <v>11349700</v>
       </c>
       <c r="J49" s="3">
-        <v>8605000</v>
+        <v>8322600</v>
       </c>
       <c r="K49" s="3">
         <v>8085100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>118274000</v>
+        <v>114393000</v>
       </c>
       <c r="E52" s="3">
-        <v>21476800</v>
+        <v>20772100</v>
       </c>
       <c r="F52" s="3">
-        <v>20216000</v>
+        <v>19552600</v>
       </c>
       <c r="G52" s="3">
-        <v>45036300</v>
+        <v>43558400</v>
       </c>
       <c r="H52" s="3">
-        <v>23341200</v>
+        <v>22575200</v>
       </c>
       <c r="I52" s="3">
-        <v>22469100</v>
+        <v>21731800</v>
       </c>
       <c r="J52" s="3">
-        <v>12130600</v>
+        <v>11732500</v>
       </c>
       <c r="K52" s="3">
         <v>11007400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>859419000</v>
+        <v>831216000</v>
       </c>
       <c r="E54" s="3">
-        <v>814545000</v>
+        <v>787815000</v>
       </c>
       <c r="F54" s="3">
-        <v>789974000</v>
+        <v>764050000</v>
       </c>
       <c r="G54" s="3">
-        <v>805582000</v>
+        <v>779146000</v>
       </c>
       <c r="H54" s="3">
-        <v>854376000</v>
+        <v>826339000</v>
       </c>
       <c r="I54" s="3">
-        <v>875388000</v>
+        <v>846661000</v>
       </c>
       <c r="J54" s="3">
-        <v>737735000</v>
+        <v>713526000</v>
       </c>
       <c r="K54" s="3">
         <v>697022000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5837100</v>
+        <v>5645500</v>
       </c>
       <c r="E57" s="3">
-        <v>5246300</v>
+        <v>5074200</v>
       </c>
       <c r="F57" s="3">
-        <v>6593500</v>
+        <v>6377200</v>
       </c>
       <c r="G57" s="3">
-        <v>6494300</v>
+        <v>6281200</v>
       </c>
       <c r="H57" s="3">
-        <v>7623200</v>
+        <v>7373000</v>
       </c>
       <c r="I57" s="3">
-        <v>8143900</v>
+        <v>7876600</v>
       </c>
       <c r="J57" s="3">
-        <v>3905000</v>
+        <v>3776800</v>
       </c>
       <c r="K57" s="3">
         <v>2555100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>636200</v>
+        <v>615400</v>
       </c>
       <c r="E59" s="3">
-        <v>1027300</v>
+        <v>993600</v>
       </c>
       <c r="F59" s="3">
-        <v>1435900</v>
+        <v>1388800</v>
       </c>
       <c r="G59" s="3">
-        <v>1300500</v>
+        <v>1257800</v>
       </c>
       <c r="H59" s="3">
-        <v>2102500</v>
+        <v>2033500</v>
       </c>
       <c r="I59" s="3">
-        <v>2039500</v>
+        <v>1972500</v>
       </c>
       <c r="J59" s="3">
-        <v>1144100</v>
+        <v>1106500</v>
       </c>
       <c r="K59" s="3">
         <v>1424700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>80533800</v>
+        <v>77891000</v>
       </c>
       <c r="E61" s="3">
-        <v>83999800</v>
+        <v>81243300</v>
       </c>
       <c r="F61" s="3">
-        <v>74679200</v>
+        <v>72228500</v>
       </c>
       <c r="G61" s="3">
-        <v>74615000</v>
+        <v>72166400</v>
       </c>
       <c r="H61" s="3">
-        <v>89160900</v>
+        <v>86235000</v>
       </c>
       <c r="I61" s="3">
-        <v>95704300</v>
+        <v>92563600</v>
       </c>
       <c r="J61" s="3">
-        <v>84276500</v>
+        <v>81510900</v>
       </c>
       <c r="K61" s="3">
         <v>89327400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9282100</v>
+        <v>8977500</v>
       </c>
       <c r="E62" s="3">
-        <v>9884500</v>
+        <v>9560100</v>
       </c>
       <c r="F62" s="3">
-        <v>10294200</v>
+        <v>9956400</v>
       </c>
       <c r="G62" s="3">
-        <v>11278300</v>
+        <v>10908200</v>
       </c>
       <c r="H62" s="3">
-        <v>14549400</v>
+        <v>14072000</v>
       </c>
       <c r="I62" s="3">
-        <v>14324100</v>
+        <v>13854100</v>
       </c>
       <c r="J62" s="3">
-        <v>12399100</v>
+        <v>11992200</v>
       </c>
       <c r="K62" s="3">
         <v>10036100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>807413000</v>
+        <v>780917000</v>
       </c>
       <c r="E66" s="3">
-        <v>757664000</v>
+        <v>732801000</v>
       </c>
       <c r="F66" s="3">
-        <v>734977000</v>
+        <v>710858000</v>
       </c>
       <c r="G66" s="3">
-        <v>751479000</v>
+        <v>726819000</v>
       </c>
       <c r="H66" s="3">
-        <v>799083000</v>
+        <v>772860000</v>
       </c>
       <c r="I66" s="3">
-        <v>820181000</v>
+        <v>793266000</v>
       </c>
       <c r="J66" s="3">
-        <v>680417000</v>
+        <v>658088000</v>
       </c>
       <c r="K66" s="3">
         <v>646550000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36947400</v>
+        <v>35734900</v>
       </c>
       <c r="E72" s="3">
-        <v>38268900</v>
+        <v>37013000</v>
       </c>
       <c r="F72" s="3">
-        <v>33019000</v>
+        <v>31935500</v>
       </c>
       <c r="G72" s="3">
-        <v>31632100</v>
+        <v>30594100</v>
       </c>
       <c r="H72" s="3">
-        <v>31632100</v>
+        <v>30594100</v>
       </c>
       <c r="I72" s="3">
-        <v>29339300</v>
+        <v>28376500</v>
       </c>
       <c r="J72" s="3">
-        <v>27498300</v>
+        <v>26596000</v>
       </c>
       <c r="K72" s="3">
         <v>26138200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52005800</v>
+        <v>50299100</v>
       </c>
       <c r="E76" s="3">
-        <v>56880900</v>
+        <v>55014300</v>
       </c>
       <c r="F76" s="3">
-        <v>54996700</v>
+        <v>53191900</v>
       </c>
       <c r="G76" s="3">
-        <v>54102400</v>
+        <v>52327000</v>
       </c>
       <c r="H76" s="3">
-        <v>55293200</v>
+        <v>53478700</v>
       </c>
       <c r="I76" s="3">
-        <v>55206800</v>
+        <v>53395100</v>
       </c>
       <c r="J76" s="3">
-        <v>57318700</v>
+        <v>55437700</v>
       </c>
       <c r="K76" s="3">
         <v>50472500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1523500</v>
+        <v>1473500</v>
       </c>
       <c r="E81" s="3">
-        <v>4099900</v>
+        <v>3965400</v>
       </c>
       <c r="F81" s="3">
-        <v>5936300</v>
+        <v>5741500</v>
       </c>
       <c r="G81" s="3">
-        <v>3756700</v>
+        <v>3633400</v>
       </c>
       <c r="H81" s="3">
-        <v>3753200</v>
+        <v>3630100</v>
       </c>
       <c r="I81" s="3">
-        <v>2836800</v>
+        <v>2743700</v>
       </c>
       <c r="J81" s="3">
-        <v>3056300</v>
+        <v>2956000</v>
       </c>
       <c r="K81" s="3">
         <v>2492900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1503600</v>
+        <v>1454300</v>
       </c>
       <c r="E83" s="3">
-        <v>1618000</v>
+        <v>1564900</v>
       </c>
       <c r="F83" s="3">
-        <v>1410200</v>
+        <v>1364000</v>
       </c>
       <c r="G83" s="3">
-        <v>1619200</v>
+        <v>1566100</v>
       </c>
       <c r="H83" s="3">
-        <v>1664700</v>
+        <v>1610100</v>
       </c>
       <c r="I83" s="3">
-        <v>1484900</v>
+        <v>1436200</v>
       </c>
       <c r="J83" s="3">
-        <v>1336700</v>
+        <v>1292800</v>
       </c>
       <c r="K83" s="3">
         <v>1314600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45936400</v>
+        <v>44429000</v>
       </c>
       <c r="E89" s="3">
-        <v>-12437600</v>
+        <v>-12029400</v>
       </c>
       <c r="F89" s="3">
-        <v>10797400</v>
+        <v>10443000</v>
       </c>
       <c r="G89" s="3">
-        <v>2400200</v>
+        <v>2321400</v>
       </c>
       <c r="H89" s="3">
-        <v>7731800</v>
+        <v>7478000</v>
       </c>
       <c r="I89" s="3">
-        <v>26968300</v>
+        <v>26083300</v>
       </c>
       <c r="J89" s="3">
-        <v>-7223900</v>
+        <v>-6986900</v>
       </c>
       <c r="K89" s="3">
         <v>-598100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-737800</v>
+        <v>-713600</v>
       </c>
       <c r="E91" s="3">
-        <v>-994600</v>
+        <v>-962000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1100900</v>
+        <v>-1064700</v>
       </c>
       <c r="G91" s="3">
-        <v>-907100</v>
+        <v>-877300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1531600</v>
+        <v>-1481400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2534400</v>
+        <v>-2451300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1656600</v>
+        <v>-1602200</v>
       </c>
       <c r="K91" s="3">
         <v>-1497600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-43200</v>
+        <v>-41800</v>
       </c>
       <c r="E94" s="3">
-        <v>113200</v>
+        <v>109500</v>
       </c>
       <c r="F94" s="3">
-        <v>8774300</v>
+        <v>8486300</v>
       </c>
       <c r="G94" s="3">
-        <v>3387800</v>
+        <v>3276600</v>
       </c>
       <c r="H94" s="3">
-        <v>-653700</v>
+        <v>-632300</v>
       </c>
       <c r="I94" s="3">
-        <v>-5149400</v>
+        <v>-4980500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1343700</v>
+        <v>-1299600</v>
       </c>
       <c r="K94" s="3">
         <v>3613700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1243300</v>
+        <v>-1202500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2506400</v>
+        <v>-2424200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2459700</v>
+        <v>-2379000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1982300</v>
+        <v>-1917200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1866700</v>
+        <v>-1805400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1026200</v>
+        <v>-992500</v>
       </c>
       <c r="J96" s="3">
-        <v>-964300</v>
+        <v>-932600</v>
       </c>
       <c r="K96" s="3">
         <v>-1525200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2415400</v>
+        <v>-2336100</v>
       </c>
       <c r="E100" s="3">
-        <v>-3154300</v>
+        <v>-3050800</v>
       </c>
       <c r="F100" s="3">
-        <v>-5944500</v>
+        <v>-5749400</v>
       </c>
       <c r="G100" s="3">
-        <v>-114400</v>
+        <v>-110700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1299300</v>
+        <v>-1256700</v>
       </c>
       <c r="I100" s="3">
-        <v>148300</v>
+        <v>143400</v>
       </c>
       <c r="J100" s="3">
-        <v>3685500</v>
+        <v>3564600</v>
       </c>
       <c r="K100" s="3">
         <v>-1586200</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5437800</v>
+        <v>-5259300</v>
       </c>
       <c r="E101" s="3">
-        <v>-740100</v>
+        <v>-715800</v>
       </c>
       <c r="F101" s="3">
-        <v>-2916200</v>
+        <v>-2820500</v>
       </c>
       <c r="G101" s="3">
-        <v>-4980200</v>
+        <v>-4816700</v>
       </c>
       <c r="H101" s="3">
-        <v>-4042700</v>
+        <v>-3910100</v>
       </c>
       <c r="I101" s="3">
-        <v>-7916200</v>
+        <v>-7656400</v>
       </c>
       <c r="J101" s="3">
-        <v>846400</v>
+        <v>818600</v>
       </c>
       <c r="K101" s="3">
         <v>-2134000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38040100</v>
+        <v>36791700</v>
       </c>
       <c r="E102" s="3">
-        <v>-16218800</v>
+        <v>-15686600</v>
       </c>
       <c r="F102" s="3">
-        <v>10711000</v>
+        <v>10359500</v>
       </c>
       <c r="G102" s="3">
-        <v>693400</v>
+        <v>670700</v>
       </c>
       <c r="H102" s="3">
-        <v>1738300</v>
+        <v>1681200</v>
       </c>
       <c r="I102" s="3">
-        <v>14050900</v>
+        <v>13589800</v>
       </c>
       <c r="J102" s="3">
-        <v>-4035700</v>
+        <v>-3903300</v>
       </c>
       <c r="K102" s="3">
         <v>-704600</v>

--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>BBVA</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25279400</v>
+        <v>24424400</v>
       </c>
       <c r="E8" s="3">
-        <v>31344900</v>
+        <v>30284800</v>
       </c>
       <c r="F8" s="3">
-        <v>33679900</v>
+        <v>32540800</v>
       </c>
       <c r="G8" s="3">
-        <v>33078100</v>
+        <v>31959300</v>
       </c>
       <c r="H8" s="3">
-        <v>31285100</v>
+        <v>30226900</v>
       </c>
       <c r="I8" s="3">
-        <v>27982500</v>
+        <v>27036000</v>
       </c>
       <c r="J8" s="3">
-        <v>25786400</v>
+        <v>24914200</v>
       </c>
       <c r="K8" s="3">
         <v>28125100</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1455400</v>
+        <v>-1406200</v>
       </c>
       <c r="E15" s="3">
-        <v>-1563800</v>
+        <v>-1510900</v>
       </c>
       <c r="F15" s="3">
-        <v>-1364000</v>
+        <v>-1317800</v>
       </c>
       <c r="G15" s="3">
-        <v>-1566100</v>
+        <v>-1513100</v>
       </c>
       <c r="H15" s="3">
-        <v>-1610100</v>
+        <v>-1555600</v>
       </c>
       <c r="I15" s="3">
-        <v>-1436200</v>
+        <v>-1387600</v>
       </c>
       <c r="J15" s="3">
-        <v>-1292800</v>
+        <v>-1249100</v>
       </c>
       <c r="K15" s="3">
         <v>-1309800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14629700</v>
+        <v>14134900</v>
       </c>
       <c r="E17" s="3">
-        <v>17435600</v>
+        <v>16845800</v>
       </c>
       <c r="F17" s="3">
-        <v>18312900</v>
+        <v>17693500</v>
       </c>
       <c r="G17" s="3">
-        <v>17178100</v>
+        <v>16597100</v>
       </c>
       <c r="H17" s="3">
-        <v>16085200</v>
+        <v>15541100</v>
       </c>
       <c r="I17" s="3">
-        <v>14689600</v>
+        <v>14192700</v>
       </c>
       <c r="J17" s="3">
-        <v>14448000</v>
+        <v>13959300</v>
       </c>
       <c r="K17" s="3">
         <v>18210900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10649700</v>
+        <v>10289500</v>
       </c>
       <c r="E18" s="3">
-        <v>13909400</v>
+        <v>13438900</v>
       </c>
       <c r="F18" s="3">
-        <v>15367100</v>
+        <v>14847300</v>
       </c>
       <c r="G18" s="3">
-        <v>15900000</v>
+        <v>15362200</v>
       </c>
       <c r="H18" s="3">
-        <v>15199900</v>
+        <v>14685800</v>
       </c>
       <c r="I18" s="3">
-        <v>13292900</v>
+        <v>12843300</v>
       </c>
       <c r="J18" s="3">
-        <v>11338400</v>
+        <v>10954900</v>
       </c>
       <c r="K18" s="3">
         <v>9914100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4724200</v>
+        <v>-4564400</v>
       </c>
       <c r="E20" s="3">
-        <v>-5953700</v>
+        <v>-5752400</v>
       </c>
       <c r="F20" s="3">
-        <v>-5832900</v>
+        <v>-5635600</v>
       </c>
       <c r="G20" s="3">
-        <v>-8074200</v>
+        <v>-7801100</v>
       </c>
       <c r="H20" s="3">
-        <v>-7982700</v>
+        <v>-7712700</v>
       </c>
       <c r="I20" s="3">
-        <v>-8095600</v>
+        <v>-7821800</v>
       </c>
       <c r="J20" s="3">
-        <v>-6844600</v>
+        <v>-6613100</v>
       </c>
       <c r="K20" s="3">
         <v>-8772900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7383100</v>
+        <v>7151600</v>
       </c>
       <c r="E21" s="3">
-        <v>9524200</v>
+        <v>9221600</v>
       </c>
       <c r="F21" s="3">
-        <v>10901200</v>
+        <v>10549500</v>
       </c>
       <c r="G21" s="3">
-        <v>9395500</v>
+        <v>9097200</v>
       </c>
       <c r="H21" s="3">
-        <v>8831000</v>
+        <v>8552400</v>
       </c>
       <c r="I21" s="3">
-        <v>6636800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>5789600</v>
+        <v>6430200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>2450400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5925500</v>
+        <v>5725100</v>
       </c>
       <c r="E23" s="3">
-        <v>7955600</v>
+        <v>7686600</v>
       </c>
       <c r="F23" s="3">
-        <v>9534100</v>
+        <v>9211600</v>
       </c>
       <c r="G23" s="3">
-        <v>7825800</v>
+        <v>7561100</v>
       </c>
       <c r="H23" s="3">
-        <v>7217200</v>
+        <v>6973100</v>
       </c>
       <c r="I23" s="3">
-        <v>5197200</v>
+        <v>5021500</v>
       </c>
       <c r="J23" s="3">
-        <v>4493800</v>
+        <v>4341800</v>
       </c>
       <c r="K23" s="3">
         <v>1141200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1647400</v>
+        <v>1591600</v>
       </c>
       <c r="E24" s="3">
-        <v>2193800</v>
+        <v>2119600</v>
       </c>
       <c r="F24" s="3">
-        <v>2505500</v>
+        <v>2420700</v>
       </c>
       <c r="G24" s="3">
-        <v>2449000</v>
+        <v>2366200</v>
       </c>
       <c r="H24" s="3">
-        <v>1918300</v>
+        <v>1853500</v>
       </c>
       <c r="I24" s="3">
-        <v>1438500</v>
+        <v>1389800</v>
       </c>
       <c r="J24" s="3">
-        <v>1013900</v>
+        <v>979600</v>
       </c>
       <c r="K24" s="3">
         <v>-19100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4278200</v>
+        <v>4133500</v>
       </c>
       <c r="E26" s="3">
-        <v>5761800</v>
+        <v>5566900</v>
       </c>
       <c r="F26" s="3">
-        <v>7028600</v>
+        <v>6790900</v>
       </c>
       <c r="G26" s="3">
-        <v>5376800</v>
+        <v>5194900</v>
       </c>
       <c r="H26" s="3">
-        <v>5298900</v>
+        <v>5119600</v>
       </c>
       <c r="I26" s="3">
-        <v>3758800</v>
+        <v>3631600</v>
       </c>
       <c r="J26" s="3">
-        <v>3479900</v>
+        <v>3362200</v>
       </c>
       <c r="K26" s="3">
         <v>1160300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3425700</v>
+        <v>3309800</v>
       </c>
       <c r="E27" s="3">
-        <v>4821300</v>
+        <v>4658200</v>
       </c>
       <c r="F27" s="3">
-        <v>5741500</v>
+        <v>5547300</v>
       </c>
       <c r="G27" s="3">
-        <v>3633400</v>
+        <v>3510500</v>
       </c>
       <c r="H27" s="3">
-        <v>3630100</v>
+        <v>3507300</v>
       </c>
       <c r="I27" s="3">
-        <v>2743700</v>
+        <v>2650900</v>
       </c>
       <c r="J27" s="3">
-        <v>2956000</v>
+        <v>2856000</v>
       </c>
       <c r="K27" s="3">
         <v>260800</v>
@@ -1413,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-1952200</v>
+        <v>-1886200</v>
       </c>
       <c r="E29" s="3">
-        <v>-855900</v>
+        <v>-826900</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4724200</v>
+        <v>4564400</v>
       </c>
       <c r="E32" s="3">
-        <v>5953700</v>
+        <v>5752400</v>
       </c>
       <c r="F32" s="3">
-        <v>5832900</v>
+        <v>5635600</v>
       </c>
       <c r="G32" s="3">
-        <v>8074200</v>
+        <v>7801100</v>
       </c>
       <c r="H32" s="3">
-        <v>7982700</v>
+        <v>7712700</v>
       </c>
       <c r="I32" s="3">
-        <v>8095600</v>
+        <v>7821800</v>
       </c>
       <c r="J32" s="3">
-        <v>6844600</v>
+        <v>6613100</v>
       </c>
       <c r="K32" s="3">
         <v>8772900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1473500</v>
+        <v>1423600</v>
       </c>
       <c r="E33" s="3">
-        <v>3965400</v>
+        <v>3831300</v>
       </c>
       <c r="F33" s="3">
-        <v>5741500</v>
+        <v>5547300</v>
       </c>
       <c r="G33" s="3">
-        <v>3633400</v>
+        <v>3510500</v>
       </c>
       <c r="H33" s="3">
-        <v>3630100</v>
+        <v>3507300</v>
       </c>
       <c r="I33" s="3">
-        <v>2743700</v>
+        <v>2650900</v>
       </c>
       <c r="J33" s="3">
-        <v>2956000</v>
+        <v>2856000</v>
       </c>
       <c r="K33" s="3">
         <v>2492900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1473500</v>
+        <v>1423600</v>
       </c>
       <c r="E35" s="3">
-        <v>3965400</v>
+        <v>3831300</v>
       </c>
       <c r="F35" s="3">
-        <v>5741500</v>
+        <v>5547300</v>
       </c>
       <c r="G35" s="3">
-        <v>3633400</v>
+        <v>3510500</v>
       </c>
       <c r="H35" s="3">
-        <v>3630100</v>
+        <v>3507300</v>
       </c>
       <c r="I35" s="3">
-        <v>2743700</v>
+        <v>2650900</v>
       </c>
       <c r="J35" s="3">
-        <v>2956000</v>
+        <v>2856000</v>
       </c>
       <c r="K35" s="3">
         <v>2492900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>97445800</v>
+        <v>94643000</v>
       </c>
       <c r="E41" s="3">
-        <v>70260500</v>
+        <v>172400000</v>
       </c>
       <c r="F41" s="3">
-        <v>80506000</v>
+        <v>67884100</v>
       </c>
       <c r="G41" s="3">
-        <v>86083700</v>
+        <v>77783000</v>
       </c>
       <c r="H41" s="3">
-        <v>90673500</v>
+        <v>83172100</v>
       </c>
       <c r="I41" s="3">
-        <v>102570000</v>
+        <v>87606600</v>
       </c>
       <c r="J41" s="3">
-        <v>49734600</v>
+        <v>99100400</v>
       </c>
       <c r="K41" s="3">
         <v>53576600</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>210016000</v>
+        <v>142550000</v>
       </c>
       <c r="E42" s="3">
-        <v>193548000</v>
+        <v>319634000</v>
       </c>
       <c r="F42" s="3">
-        <v>175907000</v>
+        <v>187002000</v>
       </c>
       <c r="G42" s="3">
-        <v>157356000</v>
+        <v>169957000</v>
       </c>
       <c r="H42" s="3">
-        <v>189200000</v>
+        <v>152034000</v>
       </c>
       <c r="I42" s="3">
-        <v>251186000</v>
+        <v>182801000</v>
       </c>
       <c r="J42" s="3">
-        <v>232570000</v>
+        <v>242690000</v>
       </c>
       <c r="K42" s="3">
         <v>206910000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1621400</v>
+        <v>981800</v>
       </c>
       <c r="E47" s="3">
-        <v>1680100</v>
+        <v>3134200</v>
       </c>
       <c r="F47" s="3">
-        <v>1781700</v>
+        <v>1623300</v>
       </c>
       <c r="G47" s="3">
-        <v>1793000</v>
+        <v>1721500</v>
       </c>
       <c r="H47" s="3">
-        <v>863800</v>
+        <v>1732400</v>
       </c>
       <c r="I47" s="3">
-        <v>992500</v>
+        <v>834500</v>
       </c>
       <c r="J47" s="3">
-        <v>5091100</v>
+        <v>958900</v>
       </c>
       <c r="K47" s="3">
         <v>5672400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8832900</v>
+        <v>7961500</v>
       </c>
       <c r="E48" s="3">
-        <v>11367800</v>
+        <v>17068400</v>
       </c>
       <c r="F48" s="3">
-        <v>8162300</v>
+        <v>10983300</v>
       </c>
       <c r="G48" s="3">
-        <v>8119400</v>
+        <v>7886200</v>
       </c>
       <c r="H48" s="3">
-        <v>10096400</v>
+        <v>7844700</v>
       </c>
       <c r="I48" s="3">
-        <v>11227800</v>
+        <v>9754900</v>
       </c>
       <c r="J48" s="3">
-        <v>8829600</v>
+        <v>10848000</v>
       </c>
       <c r="K48" s="3">
         <v>9012200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2647700</v>
+        <v>2396700</v>
       </c>
       <c r="E49" s="3">
-        <v>7866400</v>
+        <v>5116400</v>
       </c>
       <c r="F49" s="3">
-        <v>9387300</v>
+        <v>7600400</v>
       </c>
       <c r="G49" s="3">
-        <v>9556700</v>
+        <v>9069800</v>
       </c>
       <c r="H49" s="3">
-        <v>11049400</v>
+        <v>9233500</v>
       </c>
       <c r="I49" s="3">
-        <v>11349700</v>
+        <v>10675600</v>
       </c>
       <c r="J49" s="3">
-        <v>8322600</v>
+        <v>10965800</v>
       </c>
       <c r="K49" s="3">
         <v>8085100</v>
@@ -2133,26 +2133,26 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>114393000</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>20772100</v>
+        <v>110523000</v>
       </c>
       <c r="F52" s="3">
-        <v>19552600</v>
+        <v>20069500</v>
       </c>
       <c r="G52" s="3">
-        <v>43558400</v>
+        <v>18891300</v>
       </c>
       <c r="H52" s="3">
-        <v>22575200</v>
+        <v>42085100</v>
       </c>
       <c r="I52" s="3">
-        <v>21731800</v>
+        <v>21811700</v>
       </c>
       <c r="J52" s="3">
-        <v>11732500</v>
+        <v>20996700</v>
       </c>
       <c r="K52" s="3">
         <v>11007400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>831216000</v>
+        <v>723148000</v>
       </c>
       <c r="E54" s="3">
-        <v>787815000</v>
+        <v>800507000</v>
       </c>
       <c r="F54" s="3">
-        <v>764050000</v>
+        <v>761168000</v>
       </c>
       <c r="G54" s="3">
-        <v>779146000</v>
+        <v>738207000</v>
       </c>
       <c r="H54" s="3">
-        <v>826339000</v>
+        <v>752792000</v>
       </c>
       <c r="I54" s="3">
-        <v>846661000</v>
+        <v>798389000</v>
       </c>
       <c r="J54" s="3">
-        <v>713526000</v>
+        <v>818024000</v>
       </c>
       <c r="K54" s="3">
         <v>697022000</v>
@@ -2273,26 +2273,26 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>5645500</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E57" s="3">
-        <v>5074200</v>
+        <v>5454600</v>
       </c>
       <c r="F57" s="3">
-        <v>6377200</v>
+        <v>4902500</v>
       </c>
       <c r="G57" s="3">
-        <v>6281200</v>
+        <v>6161500</v>
       </c>
       <c r="H57" s="3">
-        <v>7373000</v>
+        <v>6068700</v>
       </c>
       <c r="I57" s="3">
-        <v>7876600</v>
+        <v>7123600</v>
       </c>
       <c r="J57" s="3">
-        <v>3776800</v>
+        <v>7610200</v>
       </c>
       <c r="K57" s="3">
         <v>2555100</v>
@@ -2345,26 +2345,26 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>615400</v>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>993600</v>
+        <v>594500</v>
       </c>
       <c r="F59" s="3">
-        <v>1388800</v>
+        <v>960000</v>
       </c>
       <c r="G59" s="3">
-        <v>1257800</v>
+        <v>1341800</v>
       </c>
       <c r="H59" s="3">
-        <v>2033500</v>
+        <v>1215300</v>
       </c>
       <c r="I59" s="3">
-        <v>1972500</v>
+        <v>1964700</v>
       </c>
       <c r="J59" s="3">
-        <v>1106500</v>
+        <v>1905800</v>
       </c>
       <c r="K59" s="3">
         <v>1424700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>77891000</v>
+        <v>60832400</v>
       </c>
       <c r="E61" s="3">
-        <v>81243300</v>
+        <v>67396400</v>
       </c>
       <c r="F61" s="3">
-        <v>72228500</v>
+        <v>78495300</v>
       </c>
       <c r="G61" s="3">
-        <v>72166400</v>
+        <v>69785500</v>
       </c>
       <c r="H61" s="3">
-        <v>86235000</v>
+        <v>69725500</v>
       </c>
       <c r="I61" s="3">
-        <v>92563600</v>
+        <v>83318300</v>
       </c>
       <c r="J61" s="3">
-        <v>81510900</v>
+        <v>89432800</v>
       </c>
       <c r="K61" s="3">
         <v>89327400</v>
@@ -2453,26 +2453,26 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>8977500</v>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E62" s="3">
-        <v>9560100</v>
+        <v>8673800</v>
       </c>
       <c r="F62" s="3">
-        <v>9956400</v>
+        <v>9236700</v>
       </c>
       <c r="G62" s="3">
-        <v>10908200</v>
+        <v>9619600</v>
       </c>
       <c r="H62" s="3">
-        <v>14072000</v>
+        <v>10539300</v>
       </c>
       <c r="I62" s="3">
-        <v>13854100</v>
+        <v>13596000</v>
       </c>
       <c r="J62" s="3">
-        <v>11992200</v>
+        <v>13385500</v>
       </c>
       <c r="K62" s="3">
         <v>10036100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>780917000</v>
+        <v>675249000</v>
       </c>
       <c r="E66" s="3">
-        <v>732801000</v>
+        <v>751908000</v>
       </c>
       <c r="F66" s="3">
-        <v>710858000</v>
+        <v>708015000</v>
       </c>
       <c r="G66" s="3">
-        <v>726819000</v>
+        <v>686814000</v>
       </c>
       <c r="H66" s="3">
-        <v>772860000</v>
+        <v>702235000</v>
       </c>
       <c r="I66" s="3">
-        <v>793266000</v>
+        <v>746719000</v>
       </c>
       <c r="J66" s="3">
-        <v>658088000</v>
+        <v>766435000</v>
       </c>
       <c r="K66" s="3">
         <v>646550000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35734900</v>
+        <v>65872400</v>
       </c>
       <c r="E72" s="3">
-        <v>37013000</v>
+        <v>98785200</v>
       </c>
       <c r="F72" s="3">
-        <v>31935500</v>
+        <v>35761100</v>
       </c>
       <c r="G72" s="3">
-        <v>30594100</v>
+        <v>30855300</v>
       </c>
       <c r="H72" s="3">
-        <v>30594100</v>
+        <v>29559300</v>
       </c>
       <c r="I72" s="3">
-        <v>28376500</v>
+        <v>29559300</v>
       </c>
       <c r="J72" s="3">
-        <v>26596000</v>
+        <v>27416800</v>
       </c>
       <c r="K72" s="3">
         <v>26138200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50299100</v>
+        <v>47898600</v>
       </c>
       <c r="E76" s="3">
-        <v>55014300</v>
+        <v>48598900</v>
       </c>
       <c r="F76" s="3">
-        <v>53191900</v>
+        <v>53153500</v>
       </c>
       <c r="G76" s="3">
-        <v>52327000</v>
+        <v>51392800</v>
       </c>
       <c r="H76" s="3">
-        <v>53478700</v>
+        <v>50557100</v>
       </c>
       <c r="I76" s="3">
-        <v>53395100</v>
+        <v>51669900</v>
       </c>
       <c r="J76" s="3">
-        <v>55437700</v>
+        <v>51589100</v>
       </c>
       <c r="K76" s="3">
         <v>50472500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1473500</v>
+        <v>1423600</v>
       </c>
       <c r="E81" s="3">
-        <v>3965400</v>
+        <v>3831300</v>
       </c>
       <c r="F81" s="3">
-        <v>5741500</v>
+        <v>5547300</v>
       </c>
       <c r="G81" s="3">
-        <v>3633400</v>
+        <v>3510500</v>
       </c>
       <c r="H81" s="3">
-        <v>3630100</v>
+        <v>3507300</v>
       </c>
       <c r="I81" s="3">
-        <v>2743700</v>
+        <v>2650900</v>
       </c>
       <c r="J81" s="3">
-        <v>2956000</v>
+        <v>2856000</v>
       </c>
       <c r="K81" s="3">
         <v>2492900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1454300</v>
+        <v>1405100</v>
       </c>
       <c r="E83" s="3">
-        <v>1564900</v>
+        <v>1512000</v>
       </c>
       <c r="F83" s="3">
-        <v>1364000</v>
+        <v>1317800</v>
       </c>
       <c r="G83" s="3">
-        <v>1566100</v>
+        <v>1513100</v>
       </c>
       <c r="H83" s="3">
-        <v>1610100</v>
+        <v>1555600</v>
       </c>
       <c r="I83" s="3">
-        <v>1436200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1292800</v>
+        <v>1387600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>1314600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>44429000</v>
+        <v>42926200</v>
       </c>
       <c r="E89" s="3">
-        <v>-12029400</v>
+        <v>-11622600</v>
       </c>
       <c r="F89" s="3">
-        <v>10443000</v>
+        <v>10089800</v>
       </c>
       <c r="G89" s="3">
-        <v>2321400</v>
+        <v>2242900</v>
       </c>
       <c r="H89" s="3">
-        <v>7478000</v>
+        <v>7225100</v>
       </c>
       <c r="I89" s="3">
-        <v>26083300</v>
+        <v>25201100</v>
       </c>
       <c r="J89" s="3">
-        <v>-6986900</v>
+        <v>-6750600</v>
       </c>
       <c r="K89" s="3">
         <v>-598100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-713600</v>
+        <v>-689500</v>
       </c>
       <c r="E91" s="3">
-        <v>-962000</v>
+        <v>-929500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1064700</v>
+        <v>-1028700</v>
       </c>
       <c r="G91" s="3">
-        <v>-877300</v>
+        <v>-847600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1481400</v>
+        <v>-1431300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2451300</v>
+        <v>-2368400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1602200</v>
+        <v>-1548000</v>
       </c>
       <c r="K91" s="3">
         <v>-1497600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-41800</v>
+        <v>-40400</v>
       </c>
       <c r="E94" s="3">
-        <v>109500</v>
+        <v>105800</v>
       </c>
       <c r="F94" s="3">
-        <v>8486300</v>
+        <v>8199300</v>
       </c>
       <c r="G94" s="3">
-        <v>3276600</v>
+        <v>3165800</v>
       </c>
       <c r="H94" s="3">
-        <v>-632300</v>
+        <v>-610900</v>
       </c>
       <c r="I94" s="3">
-        <v>-4980500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1299600</v>
+        <v>-4812000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>3613700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1202500</v>
+        <v>-1161800</v>
       </c>
       <c r="E96" s="3">
-        <v>-2424200</v>
+        <v>-2342200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2379000</v>
+        <v>-2298500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1917200</v>
+        <v>-1852400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1805400</v>
+        <v>-1744400</v>
       </c>
       <c r="I96" s="3">
-        <v>-992500</v>
+        <v>-958900</v>
       </c>
       <c r="J96" s="3">
-        <v>-932600</v>
+        <v>-901100</v>
       </c>
       <c r="K96" s="3">
         <v>-1525200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2336100</v>
+        <v>-2257100</v>
       </c>
       <c r="E100" s="3">
-        <v>-3050800</v>
+        <v>-2947600</v>
       </c>
       <c r="F100" s="3">
-        <v>-5749400</v>
+        <v>-5554900</v>
       </c>
       <c r="G100" s="3">
-        <v>-110700</v>
+        <v>-106900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1256700</v>
+        <v>-1214200</v>
       </c>
       <c r="I100" s="3">
-        <v>143400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>3564600</v>
+        <v>138500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>-1586200</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5259300</v>
+        <v>-5081500</v>
       </c>
       <c r="E101" s="3">
-        <v>-715800</v>
+        <v>-691600</v>
       </c>
       <c r="F101" s="3">
-        <v>-2820500</v>
+        <v>-2725100</v>
       </c>
       <c r="G101" s="3">
-        <v>-4816700</v>
+        <v>-4653800</v>
       </c>
       <c r="H101" s="3">
-        <v>-3910100</v>
+        <v>-3777800</v>
       </c>
       <c r="I101" s="3">
-        <v>-7656400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>818600</v>
+        <v>-7397500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>-2134000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>36791700</v>
+        <v>35547300</v>
       </c>
       <c r="E102" s="3">
-        <v>-15686600</v>
+        <v>-15156000</v>
       </c>
       <c r="F102" s="3">
-        <v>10359500</v>
+        <v>10009100</v>
       </c>
       <c r="G102" s="3">
-        <v>670700</v>
+        <v>648000</v>
       </c>
       <c r="H102" s="3">
-        <v>1681200</v>
+        <v>1624400</v>
       </c>
       <c r="I102" s="3">
-        <v>13589800</v>
+        <v>13130200</v>
       </c>
       <c r="J102" s="3">
-        <v>-3903300</v>
+        <v>-3771300</v>
       </c>
       <c r="K102" s="3">
         <v>-704600</v>

--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>BBVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24424400</v>
+        <v>23886200</v>
       </c>
       <c r="E8" s="3">
-        <v>30284800</v>
+        <v>23237500</v>
       </c>
       <c r="F8" s="3">
-        <v>32540800</v>
+        <v>28813100</v>
       </c>
       <c r="G8" s="3">
-        <v>31959300</v>
+        <v>30959500</v>
       </c>
       <c r="H8" s="3">
-        <v>30226900</v>
+        <v>30406300</v>
       </c>
       <c r="I8" s="3">
-        <v>27036000</v>
+        <v>28758100</v>
       </c>
       <c r="J8" s="3">
+        <v>25722300</v>
+      </c>
+      <c r="K8" s="3">
         <v>24914200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28125100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27675100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27926100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1406200</v>
+        <v>-1280800</v>
       </c>
       <c r="E15" s="3">
-        <v>-1510900</v>
+        <v>-1337900</v>
       </c>
       <c r="F15" s="3">
-        <v>-1317800</v>
+        <v>-1437500</v>
       </c>
       <c r="G15" s="3">
-        <v>-1513100</v>
+        <v>-1253800</v>
       </c>
       <c r="H15" s="3">
-        <v>-1555600</v>
+        <v>-1439600</v>
       </c>
       <c r="I15" s="3">
-        <v>-1387600</v>
+        <v>-1480000</v>
       </c>
       <c r="J15" s="3">
+        <v>-1320200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-1249100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-1309800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-1073800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-950800</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14134900</v>
+        <v>11776000</v>
       </c>
       <c r="E17" s="3">
-        <v>16845800</v>
+        <v>13448100</v>
       </c>
       <c r="F17" s="3">
-        <v>17693500</v>
+        <v>16027300</v>
       </c>
       <c r="G17" s="3">
-        <v>16597100</v>
+        <v>16833700</v>
       </c>
       <c r="H17" s="3">
-        <v>15541100</v>
+        <v>15790600</v>
       </c>
       <c r="I17" s="3">
-        <v>14192700</v>
+        <v>14785900</v>
       </c>
       <c r="J17" s="3">
+        <v>13503100</v>
+      </c>
+      <c r="K17" s="3">
         <v>13959300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18210900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19983600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17243300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10289500</v>
+        <v>12110200</v>
       </c>
       <c r="E18" s="3">
-        <v>13438900</v>
+        <v>9789500</v>
       </c>
       <c r="F18" s="3">
-        <v>14847300</v>
+        <v>12785900</v>
       </c>
       <c r="G18" s="3">
-        <v>15362200</v>
+        <v>14125800</v>
       </c>
       <c r="H18" s="3">
-        <v>14685800</v>
+        <v>14615700</v>
       </c>
       <c r="I18" s="3">
-        <v>12843300</v>
+        <v>13972200</v>
       </c>
       <c r="J18" s="3">
+        <v>12219200</v>
+      </c>
+      <c r="K18" s="3">
         <v>10954900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9914100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7691500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10682800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4564400</v>
+        <v>-4588600</v>
       </c>
       <c r="E20" s="3">
-        <v>-5752400</v>
+        <v>-4342600</v>
       </c>
       <c r="F20" s="3">
-        <v>-5635600</v>
+        <v>-5472800</v>
       </c>
       <c r="G20" s="3">
-        <v>-7801100</v>
+        <v>-5361800</v>
       </c>
       <c r="H20" s="3">
-        <v>-7712700</v>
+        <v>-7422000</v>
       </c>
       <c r="I20" s="3">
-        <v>-7821800</v>
+        <v>-7338000</v>
       </c>
       <c r="J20" s="3">
+        <v>-7441700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6613100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8772900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5954500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6694200</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7151600</v>
+        <v>8818700</v>
       </c>
       <c r="E21" s="3">
-        <v>9221600</v>
+        <v>6800700</v>
       </c>
       <c r="F21" s="3">
-        <v>10549500</v>
+        <v>8769900</v>
       </c>
       <c r="G21" s="3">
-        <v>9097200</v>
+        <v>10033800</v>
       </c>
       <c r="H21" s="3">
-        <v>8552400</v>
+        <v>8651600</v>
       </c>
       <c r="I21" s="3">
-        <v>6430200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+        <v>8133100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6114500</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>2450400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>12367100</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5725100</v>
+        <v>7521700</v>
       </c>
       <c r="E23" s="3">
-        <v>7686600</v>
+        <v>5446900</v>
       </c>
       <c r="F23" s="3">
-        <v>9211600</v>
+        <v>7313000</v>
       </c>
       <c r="G23" s="3">
-        <v>7561100</v>
+        <v>8764000</v>
       </c>
       <c r="H23" s="3">
-        <v>6973100</v>
+        <v>7193700</v>
       </c>
       <c r="I23" s="3">
-        <v>5021500</v>
+        <v>6634300</v>
       </c>
       <c r="J23" s="3">
+        <v>4777500</v>
+      </c>
+      <c r="K23" s="3">
         <v>4341800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1141200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1737000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3988600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1591600</v>
+        <v>1981400</v>
       </c>
       <c r="E24" s="3">
-        <v>2119600</v>
+        <v>1514300</v>
       </c>
       <c r="F24" s="3">
-        <v>2420700</v>
+        <v>2016600</v>
       </c>
       <c r="G24" s="3">
-        <v>2366200</v>
+        <v>2303100</v>
       </c>
       <c r="H24" s="3">
-        <v>1853500</v>
+        <v>2251200</v>
       </c>
       <c r="I24" s="3">
-        <v>1389800</v>
+        <v>1763400</v>
       </c>
       <c r="J24" s="3">
+        <v>1322300</v>
+      </c>
+      <c r="K24" s="3">
         <v>979600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-19100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-386500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>185500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4133500</v>
+        <v>5540300</v>
       </c>
       <c r="E26" s="3">
-        <v>5566900</v>
+        <v>3932600</v>
       </c>
       <c r="F26" s="3">
-        <v>6790900</v>
+        <v>5296400</v>
       </c>
       <c r="G26" s="3">
-        <v>5194900</v>
+        <v>6460900</v>
       </c>
       <c r="H26" s="3">
-        <v>5119600</v>
+        <v>4942500</v>
       </c>
       <c r="I26" s="3">
-        <v>3631600</v>
+        <v>4870900</v>
       </c>
       <c r="J26" s="3">
+        <v>3455200</v>
+      </c>
+      <c r="K26" s="3">
         <v>3362200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1160300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2123500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3803100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3309800</v>
+        <v>4165100</v>
       </c>
       <c r="E27" s="3">
-        <v>4658200</v>
+        <v>3149000</v>
       </c>
       <c r="F27" s="3">
-        <v>5547300</v>
+        <v>4431800</v>
       </c>
       <c r="G27" s="3">
-        <v>3510500</v>
+        <v>5277700</v>
       </c>
       <c r="H27" s="3">
-        <v>3507300</v>
+        <v>3340000</v>
       </c>
       <c r="I27" s="3">
-        <v>2650900</v>
+        <v>3336800</v>
       </c>
       <c r="J27" s="3">
+        <v>2522100</v>
+      </c>
+      <c r="K27" s="3">
         <v>2856000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>260800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1513000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3283100</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-1886200</v>
+        <v>290600</v>
       </c>
       <c r="E29" s="3">
-        <v>-826900</v>
+        <v>-1794500</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+        <v>-786700</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>2232100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>512800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>343900</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4564400</v>
+        <v>4588600</v>
       </c>
       <c r="E32" s="3">
-        <v>5752400</v>
+        <v>4342600</v>
       </c>
       <c r="F32" s="3">
-        <v>5635600</v>
+        <v>5472800</v>
       </c>
       <c r="G32" s="3">
-        <v>7801100</v>
+        <v>5361800</v>
       </c>
       <c r="H32" s="3">
-        <v>7712700</v>
+        <v>7422000</v>
       </c>
       <c r="I32" s="3">
-        <v>7821800</v>
+        <v>7338000</v>
       </c>
       <c r="J32" s="3">
+        <v>7441700</v>
+      </c>
+      <c r="K32" s="3">
         <v>6613100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8772900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5954500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6694200</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1423600</v>
+        <v>4455700</v>
       </c>
       <c r="E33" s="3">
-        <v>3831300</v>
+        <v>1354500</v>
       </c>
       <c r="F33" s="3">
-        <v>5547300</v>
+        <v>3645100</v>
       </c>
       <c r="G33" s="3">
-        <v>3510500</v>
+        <v>5277700</v>
       </c>
       <c r="H33" s="3">
-        <v>3507300</v>
+        <v>3340000</v>
       </c>
       <c r="I33" s="3">
-        <v>2650900</v>
+        <v>3336800</v>
       </c>
       <c r="J33" s="3">
+        <v>2522100</v>
+      </c>
+      <c r="K33" s="3">
         <v>2856000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2492900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2025800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3627100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1423600</v>
+        <v>4455700</v>
       </c>
       <c r="E35" s="3">
-        <v>3831300</v>
+        <v>1354500</v>
       </c>
       <c r="F35" s="3">
-        <v>5547300</v>
+        <v>3645100</v>
       </c>
       <c r="G35" s="3">
-        <v>3510500</v>
+        <v>5277700</v>
       </c>
       <c r="H35" s="3">
-        <v>3507300</v>
+        <v>3340000</v>
       </c>
       <c r="I35" s="3">
-        <v>2650900</v>
+        <v>3336800</v>
       </c>
       <c r="J35" s="3">
+        <v>2522100</v>
+      </c>
+      <c r="K35" s="3">
         <v>2856000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2492900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2025800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3627100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>94643000</v>
+        <v>90044100</v>
       </c>
       <c r="E41" s="3">
-        <v>172400000</v>
+        <v>89574900</v>
       </c>
       <c r="F41" s="3">
-        <v>67884100</v>
+        <v>64584400</v>
       </c>
       <c r="G41" s="3">
-        <v>77783000</v>
+        <v>74003300</v>
       </c>
       <c r="H41" s="3">
-        <v>83172100</v>
+        <v>79130500</v>
       </c>
       <c r="I41" s="3">
-        <v>87606600</v>
+        <v>83349600</v>
       </c>
       <c r="J41" s="3">
+        <v>94284900</v>
+      </c>
+      <c r="K41" s="3">
         <v>99100400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>53576600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9040900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10566600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>142550000</v>
+        <v>200208000</v>
       </c>
       <c r="E42" s="3">
-        <v>319634000</v>
+        <v>190584000</v>
       </c>
       <c r="F42" s="3">
-        <v>187002000</v>
+        <v>175564000</v>
       </c>
       <c r="G42" s="3">
-        <v>169957000</v>
+        <v>161699000</v>
       </c>
       <c r="H42" s="3">
-        <v>152034000</v>
+        <v>144646000</v>
       </c>
       <c r="I42" s="3">
-        <v>182801000</v>
+        <v>173918000</v>
       </c>
       <c r="J42" s="3">
+        <v>230898000</v>
+      </c>
+      <c r="K42" s="3">
         <v>242690000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>206910000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>49903000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>45849000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>981800</v>
+        <v>935100</v>
       </c>
       <c r="E47" s="3">
-        <v>3134200</v>
+        <v>1491500</v>
       </c>
       <c r="F47" s="3">
-        <v>1623300</v>
+        <v>1544400</v>
       </c>
       <c r="G47" s="3">
-        <v>1721500</v>
+        <v>1637800</v>
       </c>
       <c r="H47" s="3">
-        <v>1732400</v>
+        <v>1648200</v>
       </c>
       <c r="I47" s="3">
-        <v>834500</v>
+        <v>794000</v>
       </c>
       <c r="J47" s="3">
+        <v>912300</v>
+      </c>
+      <c r="K47" s="3">
         <v>958900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5672400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11838600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10915300</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7961500</v>
+        <v>7574600</v>
       </c>
       <c r="E48" s="3">
-        <v>17068400</v>
+        <v>8119500</v>
       </c>
       <c r="F48" s="3">
-        <v>10983300</v>
+        <v>10449600</v>
       </c>
       <c r="G48" s="3">
-        <v>7886200</v>
+        <v>7503000</v>
       </c>
       <c r="H48" s="3">
-        <v>7844700</v>
+        <v>7463500</v>
       </c>
       <c r="I48" s="3">
-        <v>9754900</v>
+        <v>9280900</v>
       </c>
       <c r="J48" s="3">
+        <v>10320900</v>
+      </c>
+      <c r="K48" s="3">
         <v>10848000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9012200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8314100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8365700</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2396700</v>
+        <v>2280300</v>
       </c>
       <c r="E49" s="3">
-        <v>5116400</v>
+        <v>2433900</v>
       </c>
       <c r="F49" s="3">
-        <v>7600400</v>
+        <v>7230000</v>
       </c>
       <c r="G49" s="3">
-        <v>9069800</v>
+        <v>8629100</v>
       </c>
       <c r="H49" s="3">
-        <v>9233500</v>
+        <v>8784800</v>
       </c>
       <c r="I49" s="3">
-        <v>10675600</v>
+        <v>10156900</v>
       </c>
       <c r="J49" s="3">
+        <v>10433000</v>
+      </c>
+      <c r="K49" s="3">
         <v>10965800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8085100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7830900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8075800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>16583600</v>
       </c>
       <c r="E52" s="3">
-        <v>110523000</v>
+        <v>105154000</v>
       </c>
       <c r="F52" s="3">
-        <v>20069500</v>
+        <v>19094200</v>
       </c>
       <c r="G52" s="3">
-        <v>18891300</v>
+        <v>17973300</v>
       </c>
       <c r="H52" s="3">
-        <v>42085100</v>
+        <v>40040100</v>
       </c>
       <c r="I52" s="3">
-        <v>21811700</v>
+        <v>20751800</v>
       </c>
       <c r="J52" s="3">
+        <v>19976500</v>
+      </c>
+      <c r="K52" s="3">
         <v>20996700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11007400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>723148000</v>
+        <v>688008000</v>
       </c>
       <c r="E54" s="3">
-        <v>800507000</v>
+        <v>761608000</v>
       </c>
       <c r="F54" s="3">
-        <v>761168000</v>
+        <v>721829000</v>
       </c>
       <c r="G54" s="3">
-        <v>738207000</v>
+        <v>702336000</v>
       </c>
       <c r="H54" s="3">
-        <v>752792000</v>
+        <v>716212000</v>
       </c>
       <c r="I54" s="3">
-        <v>798389000</v>
+        <v>759593000</v>
       </c>
       <c r="J54" s="3">
+        <v>778275000</v>
+      </c>
+      <c r="K54" s="3">
         <v>818024000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>697022000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>681937000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>684141000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,44 +2397,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>6359200</v>
       </c>
       <c r="E57" s="3">
-        <v>5454600</v>
+        <v>5189500</v>
       </c>
       <c r="F57" s="3">
-        <v>4902500</v>
+        <v>4664300</v>
       </c>
       <c r="G57" s="3">
-        <v>6161500</v>
+        <v>5862100</v>
       </c>
       <c r="H57" s="3">
-        <v>6068700</v>
+        <v>5773800</v>
       </c>
       <c r="I57" s="3">
-        <v>7123600</v>
+        <v>6777500</v>
       </c>
       <c r="J57" s="3">
+        <v>7240400</v>
+      </c>
+      <c r="K57" s="3">
         <v>7610200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2555100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8333800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8697900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2330,54 +2463,60 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>668400</v>
       </c>
       <c r="E59" s="3">
-        <v>594500</v>
+        <v>566700</v>
       </c>
       <c r="F59" s="3">
-        <v>960000</v>
+        <v>913400</v>
       </c>
       <c r="G59" s="3">
-        <v>1341800</v>
+        <v>1276600</v>
       </c>
       <c r="H59" s="3">
-        <v>1215300</v>
+        <v>1156200</v>
       </c>
       <c r="I59" s="3">
-        <v>1964700</v>
+        <v>1869300</v>
       </c>
       <c r="J59" s="3">
+        <v>1813200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1905800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1424700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6722000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5113100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>60832400</v>
+        <v>64058200</v>
       </c>
       <c r="E61" s="3">
-        <v>67396400</v>
+        <v>71599500</v>
       </c>
       <c r="F61" s="3">
-        <v>78495300</v>
+        <v>74681100</v>
       </c>
       <c r="G61" s="3">
-        <v>69785500</v>
+        <v>66394500</v>
       </c>
       <c r="H61" s="3">
-        <v>69725500</v>
+        <v>66337400</v>
       </c>
       <c r="I61" s="3">
-        <v>83318300</v>
+        <v>79269600</v>
       </c>
       <c r="J61" s="3">
+        <v>85087000</v>
+      </c>
+      <c r="K61" s="3">
         <v>89432800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>89327400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>98141400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>126617000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>7948200</v>
       </c>
       <c r="E62" s="3">
-        <v>8673800</v>
+        <v>8251300</v>
       </c>
       <c r="F62" s="3">
-        <v>9236700</v>
+        <v>8786900</v>
       </c>
       <c r="G62" s="3">
-        <v>9619600</v>
+        <v>9152200</v>
       </c>
       <c r="H62" s="3">
-        <v>10539300</v>
+        <v>10027200</v>
       </c>
       <c r="I62" s="3">
-        <v>13596000</v>
+        <v>12935300</v>
       </c>
       <c r="J62" s="3">
+        <v>12735000</v>
+      </c>
+      <c r="K62" s="3">
         <v>13385500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10036100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6343100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6546300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>675249000</v>
+        <v>642437000</v>
       </c>
       <c r="E66" s="3">
-        <v>751908000</v>
+        <v>715371000</v>
       </c>
       <c r="F66" s="3">
-        <v>708015000</v>
+        <v>671259000</v>
       </c>
       <c r="G66" s="3">
-        <v>686814000</v>
+        <v>653440000</v>
       </c>
       <c r="H66" s="3">
-        <v>702235000</v>
+        <v>668112000</v>
       </c>
       <c r="I66" s="3">
-        <v>746719000</v>
+        <v>710434000</v>
       </c>
       <c r="J66" s="3">
+        <v>729192000</v>
+      </c>
+      <c r="K66" s="3">
         <v>766435000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>646550000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>636447000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>639341000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>65872400</v>
+        <v>36206100</v>
       </c>
       <c r="E72" s="3">
-        <v>98785200</v>
+        <v>33018700</v>
       </c>
       <c r="F72" s="3">
-        <v>35761100</v>
+        <v>34023400</v>
       </c>
       <c r="G72" s="3">
-        <v>30855300</v>
+        <v>29356000</v>
       </c>
       <c r="H72" s="3">
-        <v>29559300</v>
+        <v>28122900</v>
       </c>
       <c r="I72" s="3">
-        <v>29559300</v>
+        <v>28122900</v>
       </c>
       <c r="J72" s="3">
+        <v>26084500</v>
+      </c>
+      <c r="K72" s="3">
         <v>27416800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26138200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21110100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21373900</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47898600</v>
+        <v>45571100</v>
       </c>
       <c r="E76" s="3">
-        <v>48598900</v>
+        <v>46237400</v>
       </c>
       <c r="F76" s="3">
-        <v>53153500</v>
+        <v>50570600</v>
       </c>
       <c r="G76" s="3">
-        <v>51392800</v>
+        <v>48895500</v>
       </c>
       <c r="H76" s="3">
-        <v>50557100</v>
+        <v>48100400</v>
       </c>
       <c r="I76" s="3">
-        <v>51669900</v>
+        <v>49159100</v>
       </c>
       <c r="J76" s="3">
+        <v>49082300</v>
+      </c>
+      <c r="K76" s="3">
         <v>51589100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50472500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>45490100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>44799600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1423600</v>
+        <v>4455700</v>
       </c>
       <c r="E81" s="3">
-        <v>3831300</v>
+        <v>1354500</v>
       </c>
       <c r="F81" s="3">
-        <v>5547300</v>
+        <v>3645100</v>
       </c>
       <c r="G81" s="3">
-        <v>3510500</v>
+        <v>5277700</v>
       </c>
       <c r="H81" s="3">
-        <v>3507300</v>
+        <v>3340000</v>
       </c>
       <c r="I81" s="3">
-        <v>2650900</v>
+        <v>3336800</v>
       </c>
       <c r="J81" s="3">
+        <v>2522100</v>
+      </c>
+      <c r="K81" s="3">
         <v>2856000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2492900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2025800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3627100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1405100</v>
+        <v>1280800</v>
       </c>
       <c r="E83" s="3">
-        <v>1512000</v>
+        <v>1336800</v>
       </c>
       <c r="F83" s="3">
-        <v>1317800</v>
+        <v>1438500</v>
       </c>
       <c r="G83" s="3">
-        <v>1513100</v>
+        <v>1253800</v>
       </c>
       <c r="H83" s="3">
-        <v>1555600</v>
+        <v>1439600</v>
       </c>
       <c r="I83" s="3">
-        <v>1387600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+        <v>1480000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1320200</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>1314600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>8372800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>42926200</v>
+        <v>-1289100</v>
       </c>
       <c r="E89" s="3">
-        <v>-11622600</v>
+        <v>40840300</v>
       </c>
       <c r="F89" s="3">
-        <v>10089800</v>
+        <v>-11057800</v>
       </c>
       <c r="G89" s="3">
-        <v>2242900</v>
+        <v>9599500</v>
       </c>
       <c r="H89" s="3">
-        <v>7225100</v>
+        <v>2133900</v>
       </c>
       <c r="I89" s="3">
-        <v>25201100</v>
+        <v>6874000</v>
       </c>
       <c r="J89" s="3">
+        <v>23976500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-6750600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-598100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10681300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20168400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-689500</v>
+        <v>-411000</v>
       </c>
       <c r="E91" s="3">
-        <v>-929500</v>
+        <v>-656000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1028700</v>
+        <v>-884300</v>
       </c>
       <c r="G91" s="3">
-        <v>-847600</v>
+        <v>-978700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1431300</v>
+        <v>-806400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2368400</v>
+        <v>-1361700</v>
       </c>
       <c r="J91" s="3">
+        <v>-2253300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1548000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1497600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1850100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2244300</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-40400</v>
+        <v>-1695900</v>
       </c>
       <c r="E94" s="3">
-        <v>105800</v>
+        <v>-38400</v>
       </c>
       <c r="F94" s="3">
-        <v>8199300</v>
+        <v>100700</v>
       </c>
       <c r="G94" s="3">
-        <v>3165800</v>
+        <v>7800900</v>
       </c>
       <c r="H94" s="3">
-        <v>-610900</v>
+        <v>3012000</v>
       </c>
       <c r="I94" s="3">
-        <v>-4812000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+        <v>-581200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-4578200</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>3613700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-5977000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1161800</v>
+        <v>-961100</v>
       </c>
       <c r="E96" s="3">
-        <v>-2342200</v>
+        <v>-1105400</v>
       </c>
       <c r="F96" s="3">
-        <v>-2298500</v>
+        <v>-2228400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1852400</v>
+        <v>-2186900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1744400</v>
+        <v>-1762400</v>
       </c>
       <c r="I96" s="3">
-        <v>-958900</v>
+        <v>-1659600</v>
       </c>
       <c r="J96" s="3">
+        <v>-912300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-901100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1525200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1393400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1210200</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2257100</v>
+        <v>-4513800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2947600</v>
+        <v>-2147400</v>
       </c>
       <c r="F100" s="3">
-        <v>-5554900</v>
+        <v>-2804400</v>
       </c>
       <c r="G100" s="3">
-        <v>-106900</v>
+        <v>-5285000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1214200</v>
+        <v>-101700</v>
       </c>
       <c r="I100" s="3">
-        <v>138500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+        <v>-1155200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>131800</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1586200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1489600</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5081500</v>
+        <v>-1934600</v>
       </c>
       <c r="E101" s="3">
-        <v>-691600</v>
+        <v>-4834500</v>
       </c>
       <c r="F101" s="3">
-        <v>-2725100</v>
+        <v>-658000</v>
       </c>
       <c r="G101" s="3">
-        <v>-4653800</v>
+        <v>-2592700</v>
       </c>
       <c r="H101" s="3">
-        <v>-3777800</v>
+        <v>-4427700</v>
       </c>
       <c r="I101" s="3">
-        <v>-7397500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+        <v>-3594200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-7038000</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-2134000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1125700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>35547300</v>
+        <v>-9433500</v>
       </c>
       <c r="E102" s="3">
-        <v>-15156000</v>
+        <v>33820000</v>
       </c>
       <c r="F102" s="3">
-        <v>10009100</v>
+        <v>-14419500</v>
       </c>
       <c r="G102" s="3">
-        <v>648000</v>
+        <v>9522700</v>
       </c>
       <c r="H102" s="3">
-        <v>1624400</v>
+        <v>616500</v>
       </c>
       <c r="I102" s="3">
-        <v>13130200</v>
+        <v>1545400</v>
       </c>
       <c r="J102" s="3">
+        <v>12492200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3771300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-704600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6200400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11576100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23886200</v>
+        <v>22954200</v>
       </c>
       <c r="E8" s="3">
-        <v>23237500</v>
+        <v>22330800</v>
       </c>
       <c r="F8" s="3">
-        <v>28813100</v>
+        <v>27688800</v>
       </c>
       <c r="G8" s="3">
-        <v>30959500</v>
+        <v>29751400</v>
       </c>
       <c r="H8" s="3">
-        <v>30406300</v>
+        <v>29219800</v>
       </c>
       <c r="I8" s="3">
-        <v>28758100</v>
+        <v>27636000</v>
       </c>
       <c r="J8" s="3">
-        <v>25722300</v>
+        <v>24718600</v>
       </c>
       <c r="K8" s="3">
         <v>24914200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1280800</v>
+        <v>-1230800</v>
       </c>
       <c r="E15" s="3">
-        <v>-1337900</v>
+        <v>-1285600</v>
       </c>
       <c r="F15" s="3">
-        <v>-1437500</v>
+        <v>-1381400</v>
       </c>
       <c r="G15" s="3">
-        <v>-1253800</v>
+        <v>-1204900</v>
       </c>
       <c r="H15" s="3">
-        <v>-1439600</v>
+        <v>-1383400</v>
       </c>
       <c r="I15" s="3">
-        <v>-1480000</v>
+        <v>-1422300</v>
       </c>
       <c r="J15" s="3">
-        <v>-1320200</v>
+        <v>-1268700</v>
       </c>
       <c r="K15" s="3">
         <v>-1249100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11776000</v>
+        <v>11316500</v>
       </c>
       <c r="E17" s="3">
-        <v>13448100</v>
+        <v>12923300</v>
       </c>
       <c r="F17" s="3">
-        <v>16027300</v>
+        <v>15401900</v>
       </c>
       <c r="G17" s="3">
-        <v>16833700</v>
+        <v>16176800</v>
       </c>
       <c r="H17" s="3">
-        <v>15790600</v>
+        <v>15174400</v>
       </c>
       <c r="I17" s="3">
-        <v>14785900</v>
+        <v>14209000</v>
       </c>
       <c r="J17" s="3">
-        <v>13503100</v>
+        <v>12976200</v>
       </c>
       <c r="K17" s="3">
         <v>13959300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12110200</v>
+        <v>11637700</v>
       </c>
       <c r="E18" s="3">
-        <v>9789500</v>
+        <v>9407500</v>
       </c>
       <c r="F18" s="3">
-        <v>12785900</v>
+        <v>12287000</v>
       </c>
       <c r="G18" s="3">
-        <v>14125800</v>
+        <v>13574600</v>
       </c>
       <c r="H18" s="3">
-        <v>14615700</v>
+        <v>14045400</v>
       </c>
       <c r="I18" s="3">
-        <v>13972200</v>
+        <v>13427000</v>
       </c>
       <c r="J18" s="3">
-        <v>12219200</v>
+        <v>11742400</v>
       </c>
       <c r="K18" s="3">
         <v>10954900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4588600</v>
+        <v>-4409500</v>
       </c>
       <c r="E20" s="3">
-        <v>-4342600</v>
+        <v>-4173100</v>
       </c>
       <c r="F20" s="3">
-        <v>-5472800</v>
+        <v>-5259300</v>
       </c>
       <c r="G20" s="3">
-        <v>-5361800</v>
+        <v>-5152600</v>
       </c>
       <c r="H20" s="3">
-        <v>-7422000</v>
+        <v>-7132400</v>
       </c>
       <c r="I20" s="3">
-        <v>-7338000</v>
+        <v>-7051600</v>
       </c>
       <c r="J20" s="3">
-        <v>-7441700</v>
+        <v>-7151400</v>
       </c>
       <c r="K20" s="3">
         <v>-6613100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8818700</v>
+        <v>8457800</v>
       </c>
       <c r="E21" s="3">
-        <v>6800700</v>
+        <v>6517800</v>
       </c>
       <c r="F21" s="3">
-        <v>8769900</v>
+        <v>8408800</v>
       </c>
       <c r="G21" s="3">
-        <v>10033800</v>
+        <v>9625800</v>
       </c>
       <c r="H21" s="3">
-        <v>8651600</v>
+        <v>8295100</v>
       </c>
       <c r="I21" s="3">
-        <v>8133100</v>
+        <v>7796400</v>
       </c>
       <c r="J21" s="3">
-        <v>6114500</v>
+        <v>5858600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7521700</v>
+        <v>7228200</v>
       </c>
       <c r="E23" s="3">
-        <v>5446900</v>
+        <v>5234400</v>
       </c>
       <c r="F23" s="3">
-        <v>7313000</v>
+        <v>7027700</v>
       </c>
       <c r="G23" s="3">
-        <v>8764000</v>
+        <v>8422000</v>
       </c>
       <c r="H23" s="3">
-        <v>7193700</v>
+        <v>6913000</v>
       </c>
       <c r="I23" s="3">
-        <v>6634300</v>
+        <v>6375400</v>
       </c>
       <c r="J23" s="3">
-        <v>4777500</v>
+        <v>4591000</v>
       </c>
       <c r="K23" s="3">
         <v>4341800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1981400</v>
+        <v>1904000</v>
       </c>
       <c r="E24" s="3">
-        <v>1514300</v>
+        <v>1455200</v>
       </c>
       <c r="F24" s="3">
-        <v>2016600</v>
+        <v>1937900</v>
       </c>
       <c r="G24" s="3">
-        <v>2303100</v>
+        <v>2213200</v>
       </c>
       <c r="H24" s="3">
-        <v>2251200</v>
+        <v>2163400</v>
       </c>
       <c r="I24" s="3">
-        <v>1763400</v>
+        <v>1694600</v>
       </c>
       <c r="J24" s="3">
-        <v>1322300</v>
+        <v>1270700</v>
       </c>
       <c r="K24" s="3">
         <v>979600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5540300</v>
+        <v>5324100</v>
       </c>
       <c r="E26" s="3">
-        <v>3932600</v>
+        <v>3779100</v>
       </c>
       <c r="F26" s="3">
-        <v>5296400</v>
+        <v>5089700</v>
       </c>
       <c r="G26" s="3">
-        <v>6460900</v>
+        <v>6208800</v>
       </c>
       <c r="H26" s="3">
-        <v>4942500</v>
+        <v>4749600</v>
       </c>
       <c r="I26" s="3">
-        <v>4870900</v>
+        <v>4680800</v>
       </c>
       <c r="J26" s="3">
-        <v>3455200</v>
+        <v>3320300</v>
       </c>
       <c r="K26" s="3">
         <v>3362200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4165100</v>
+        <v>4002600</v>
       </c>
       <c r="E27" s="3">
-        <v>3149000</v>
+        <v>3026100</v>
       </c>
       <c r="F27" s="3">
-        <v>4431800</v>
+        <v>4258900</v>
       </c>
       <c r="G27" s="3">
-        <v>5277700</v>
+        <v>5071800</v>
       </c>
       <c r="H27" s="3">
-        <v>3340000</v>
+        <v>3209600</v>
       </c>
       <c r="I27" s="3">
-        <v>3336800</v>
+        <v>3206600</v>
       </c>
       <c r="J27" s="3">
-        <v>2522100</v>
+        <v>2423700</v>
       </c>
       <c r="K27" s="3">
         <v>2856000</v>
@@ -1473,13 +1473,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>290600</v>
+        <v>279300</v>
       </c>
       <c r="E29" s="3">
-        <v>-1794500</v>
+        <v>-1724500</v>
       </c>
       <c r="F29" s="3">
-        <v>-786700</v>
+        <v>-756000</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4588600</v>
+        <v>4409500</v>
       </c>
       <c r="E32" s="3">
-        <v>4342600</v>
+        <v>4173100</v>
       </c>
       <c r="F32" s="3">
-        <v>5472800</v>
+        <v>5259300</v>
       </c>
       <c r="G32" s="3">
-        <v>5361800</v>
+        <v>5152600</v>
       </c>
       <c r="H32" s="3">
-        <v>7422000</v>
+        <v>7132400</v>
       </c>
       <c r="I32" s="3">
-        <v>7338000</v>
+        <v>7051600</v>
       </c>
       <c r="J32" s="3">
-        <v>7441700</v>
+        <v>7151400</v>
       </c>
       <c r="K32" s="3">
         <v>6613100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4455700</v>
+        <v>4281800</v>
       </c>
       <c r="E33" s="3">
-        <v>1354500</v>
+        <v>1301600</v>
       </c>
       <c r="F33" s="3">
-        <v>3645100</v>
+        <v>3502900</v>
       </c>
       <c r="G33" s="3">
-        <v>5277700</v>
+        <v>5071800</v>
       </c>
       <c r="H33" s="3">
-        <v>3340000</v>
+        <v>3209600</v>
       </c>
       <c r="I33" s="3">
-        <v>3336800</v>
+        <v>3206600</v>
       </c>
       <c r="J33" s="3">
-        <v>2522100</v>
+        <v>2423700</v>
       </c>
       <c r="K33" s="3">
         <v>2856000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4455700</v>
+        <v>4281800</v>
       </c>
       <c r="E35" s="3">
-        <v>1354500</v>
+        <v>1301600</v>
       </c>
       <c r="F35" s="3">
-        <v>3645100</v>
+        <v>3502900</v>
       </c>
       <c r="G35" s="3">
-        <v>5277700</v>
+        <v>5071800</v>
       </c>
       <c r="H35" s="3">
-        <v>3340000</v>
+        <v>3209600</v>
       </c>
       <c r="I35" s="3">
-        <v>3336800</v>
+        <v>3206600</v>
       </c>
       <c r="J35" s="3">
-        <v>2522100</v>
+        <v>2423700</v>
       </c>
       <c r="K35" s="3">
         <v>2856000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>90044100</v>
+        <v>86530400</v>
       </c>
       <c r="E41" s="3">
-        <v>89574900</v>
+        <v>86079600</v>
       </c>
       <c r="F41" s="3">
-        <v>64584400</v>
+        <v>62064200</v>
       </c>
       <c r="G41" s="3">
-        <v>74003300</v>
+        <v>71115600</v>
       </c>
       <c r="H41" s="3">
-        <v>79130500</v>
+        <v>76042800</v>
       </c>
       <c r="I41" s="3">
-        <v>83349600</v>
+        <v>80097200</v>
       </c>
       <c r="J41" s="3">
-        <v>94284900</v>
+        <v>90605800</v>
       </c>
       <c r="K41" s="3">
         <v>99100400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>200208000</v>
+        <v>192396000</v>
       </c>
       <c r="E42" s="3">
-        <v>190584000</v>
+        <v>183148000</v>
       </c>
       <c r="F42" s="3">
-        <v>175564000</v>
+        <v>168713000</v>
       </c>
       <c r="G42" s="3">
-        <v>161699000</v>
+        <v>155389000</v>
       </c>
       <c r="H42" s="3">
-        <v>144646000</v>
+        <v>139002000</v>
       </c>
       <c r="I42" s="3">
-        <v>173918000</v>
+        <v>167131000</v>
       </c>
       <c r="J42" s="3">
-        <v>230898000</v>
+        <v>221888000</v>
       </c>
       <c r="K42" s="3">
         <v>242690000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>935100</v>
+        <v>898700</v>
       </c>
       <c r="E47" s="3">
-        <v>1491500</v>
+        <v>1433300</v>
       </c>
       <c r="F47" s="3">
-        <v>1544400</v>
+        <v>1484100</v>
       </c>
       <c r="G47" s="3">
-        <v>1637800</v>
+        <v>1573900</v>
       </c>
       <c r="H47" s="3">
-        <v>1648200</v>
+        <v>1583900</v>
       </c>
       <c r="I47" s="3">
-        <v>794000</v>
+        <v>763000</v>
       </c>
       <c r="J47" s="3">
-        <v>912300</v>
+        <v>876700</v>
       </c>
       <c r="K47" s="3">
         <v>958900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7574600</v>
+        <v>7279000</v>
       </c>
       <c r="E48" s="3">
-        <v>8119500</v>
+        <v>7802700</v>
       </c>
       <c r="F48" s="3">
-        <v>10449600</v>
+        <v>10041800</v>
       </c>
       <c r="G48" s="3">
-        <v>7503000</v>
+        <v>7210200</v>
       </c>
       <c r="H48" s="3">
-        <v>7463500</v>
+        <v>7172300</v>
       </c>
       <c r="I48" s="3">
-        <v>9280900</v>
+        <v>8918800</v>
       </c>
       <c r="J48" s="3">
-        <v>10320900</v>
+        <v>9918100</v>
       </c>
       <c r="K48" s="3">
         <v>10848000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2280300</v>
+        <v>2191300</v>
       </c>
       <c r="E49" s="3">
-        <v>2433900</v>
+        <v>2338900</v>
       </c>
       <c r="F49" s="3">
-        <v>7230000</v>
+        <v>6947900</v>
       </c>
       <c r="G49" s="3">
-        <v>8629100</v>
+        <v>8292400</v>
       </c>
       <c r="H49" s="3">
-        <v>8784800</v>
+        <v>8442000</v>
       </c>
       <c r="I49" s="3">
-        <v>10156900</v>
+        <v>9760600</v>
       </c>
       <c r="J49" s="3">
-        <v>10433000</v>
+        <v>10025900</v>
       </c>
       <c r="K49" s="3">
         <v>10965800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16583600</v>
+        <v>15936500</v>
       </c>
       <c r="E52" s="3">
-        <v>105154000</v>
+        <v>101051000</v>
       </c>
       <c r="F52" s="3">
-        <v>19094200</v>
+        <v>18349200</v>
       </c>
       <c r="G52" s="3">
-        <v>17973300</v>
+        <v>17272000</v>
       </c>
       <c r="H52" s="3">
-        <v>40040100</v>
+        <v>38477700</v>
       </c>
       <c r="I52" s="3">
-        <v>20751800</v>
+        <v>19942000</v>
       </c>
       <c r="J52" s="3">
-        <v>19976500</v>
+        <v>19197000</v>
       </c>
       <c r="K52" s="3">
         <v>20996700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>688008000</v>
+        <v>661162000</v>
       </c>
       <c r="E54" s="3">
-        <v>761608000</v>
+        <v>731889000</v>
       </c>
       <c r="F54" s="3">
-        <v>721829000</v>
+        <v>693663000</v>
       </c>
       <c r="G54" s="3">
-        <v>702336000</v>
+        <v>674930000</v>
       </c>
       <c r="H54" s="3">
-        <v>716212000</v>
+        <v>688265000</v>
       </c>
       <c r="I54" s="3">
-        <v>759593000</v>
+        <v>729953000</v>
       </c>
       <c r="J54" s="3">
-        <v>778275000</v>
+        <v>747905000</v>
       </c>
       <c r="K54" s="3">
         <v>818024000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6359200</v>
+        <v>6111100</v>
       </c>
       <c r="E57" s="3">
-        <v>5189500</v>
+        <v>4987000</v>
       </c>
       <c r="F57" s="3">
-        <v>4664300</v>
+        <v>4482300</v>
       </c>
       <c r="G57" s="3">
-        <v>5862100</v>
+        <v>5633300</v>
       </c>
       <c r="H57" s="3">
-        <v>5773800</v>
+        <v>5548500</v>
       </c>
       <c r="I57" s="3">
-        <v>6777500</v>
+        <v>6513000</v>
       </c>
       <c r="J57" s="3">
-        <v>7240400</v>
+        <v>6957900</v>
       </c>
       <c r="K57" s="3">
         <v>7610200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>668400</v>
+        <v>642300</v>
       </c>
       <c r="E59" s="3">
-        <v>566700</v>
+        <v>544600</v>
       </c>
       <c r="F59" s="3">
-        <v>913400</v>
+        <v>877700</v>
       </c>
       <c r="G59" s="3">
-        <v>1276600</v>
+        <v>1226800</v>
       </c>
       <c r="H59" s="3">
-        <v>1156200</v>
+        <v>1111100</v>
       </c>
       <c r="I59" s="3">
-        <v>1869300</v>
+        <v>1796300</v>
       </c>
       <c r="J59" s="3">
-        <v>1813200</v>
+        <v>1742500</v>
       </c>
       <c r="K59" s="3">
         <v>1905800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>64058200</v>
+        <v>61558500</v>
       </c>
       <c r="E61" s="3">
-        <v>71599500</v>
+        <v>68805600</v>
       </c>
       <c r="F61" s="3">
-        <v>74681100</v>
+        <v>71766900</v>
       </c>
       <c r="G61" s="3">
-        <v>66394500</v>
+        <v>63803700</v>
       </c>
       <c r="H61" s="3">
-        <v>66337400</v>
+        <v>63748800</v>
       </c>
       <c r="I61" s="3">
-        <v>79269600</v>
+        <v>76176400</v>
       </c>
       <c r="J61" s="3">
-        <v>85087000</v>
+        <v>81766900</v>
       </c>
       <c r="K61" s="3">
         <v>89432800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7948200</v>
+        <v>7638100</v>
       </c>
       <c r="E62" s="3">
-        <v>8251300</v>
+        <v>7929300</v>
       </c>
       <c r="F62" s="3">
-        <v>8786900</v>
+        <v>8444000</v>
       </c>
       <c r="G62" s="3">
-        <v>9152200</v>
+        <v>8795100</v>
       </c>
       <c r="H62" s="3">
-        <v>10027200</v>
+        <v>9635900</v>
       </c>
       <c r="I62" s="3">
-        <v>12935300</v>
+        <v>12430600</v>
       </c>
       <c r="J62" s="3">
-        <v>12735000</v>
+        <v>12238100</v>
       </c>
       <c r="K62" s="3">
         <v>13385500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>642437000</v>
+        <v>617369000</v>
       </c>
       <c r="E66" s="3">
-        <v>715371000</v>
+        <v>687456000</v>
       </c>
       <c r="F66" s="3">
-        <v>671259000</v>
+        <v>645066000</v>
       </c>
       <c r="G66" s="3">
-        <v>653440000</v>
+        <v>627942000</v>
       </c>
       <c r="H66" s="3">
-        <v>668112000</v>
+        <v>642041000</v>
       </c>
       <c r="I66" s="3">
-        <v>710434000</v>
+        <v>682712000</v>
       </c>
       <c r="J66" s="3">
-        <v>729192000</v>
+        <v>700738000</v>
       </c>
       <c r="K66" s="3">
         <v>766435000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36206100</v>
+        <v>34793300</v>
       </c>
       <c r="E72" s="3">
-        <v>33018700</v>
+        <v>31730300</v>
       </c>
       <c r="F72" s="3">
-        <v>34023400</v>
+        <v>32695800</v>
       </c>
       <c r="G72" s="3">
-        <v>29356000</v>
+        <v>28210500</v>
       </c>
       <c r="H72" s="3">
-        <v>28122900</v>
+        <v>27025600</v>
       </c>
       <c r="I72" s="3">
-        <v>28122900</v>
+        <v>27025600</v>
       </c>
       <c r="J72" s="3">
-        <v>26084500</v>
+        <v>25066700</v>
       </c>
       <c r="K72" s="3">
         <v>27416800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45571100</v>
+        <v>43792800</v>
       </c>
       <c r="E76" s="3">
-        <v>46237400</v>
+        <v>44433200</v>
       </c>
       <c r="F76" s="3">
-        <v>50570600</v>
+        <v>48597300</v>
       </c>
       <c r="G76" s="3">
-        <v>48895500</v>
+        <v>46987500</v>
       </c>
       <c r="H76" s="3">
-        <v>48100400</v>
+        <v>46223500</v>
       </c>
       <c r="I76" s="3">
-        <v>49159100</v>
+        <v>47240900</v>
       </c>
       <c r="J76" s="3">
-        <v>49082300</v>
+        <v>47167000</v>
       </c>
       <c r="K76" s="3">
         <v>51589100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4455700</v>
+        <v>4281800</v>
       </c>
       <c r="E81" s="3">
-        <v>1354500</v>
+        <v>1301600</v>
       </c>
       <c r="F81" s="3">
-        <v>3645100</v>
+        <v>3502900</v>
       </c>
       <c r="G81" s="3">
-        <v>5277700</v>
+        <v>5071800</v>
       </c>
       <c r="H81" s="3">
-        <v>3340000</v>
+        <v>3209600</v>
       </c>
       <c r="I81" s="3">
-        <v>3336800</v>
+        <v>3206600</v>
       </c>
       <c r="J81" s="3">
-        <v>2522100</v>
+        <v>2423700</v>
       </c>
       <c r="K81" s="3">
         <v>2856000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1280800</v>
+        <v>1230800</v>
       </c>
       <c r="E83" s="3">
-        <v>1336800</v>
+        <v>1284700</v>
       </c>
       <c r="F83" s="3">
-        <v>1438500</v>
+        <v>1382400</v>
       </c>
       <c r="G83" s="3">
-        <v>1253800</v>
+        <v>1204900</v>
       </c>
       <c r="H83" s="3">
-        <v>1439600</v>
+        <v>1383400</v>
       </c>
       <c r="I83" s="3">
-        <v>1480000</v>
+        <v>1422300</v>
       </c>
       <c r="J83" s="3">
-        <v>1320200</v>
+        <v>1268700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1289100</v>
+        <v>-1238800</v>
       </c>
       <c r="E89" s="3">
-        <v>40840300</v>
+        <v>39246700</v>
       </c>
       <c r="F89" s="3">
-        <v>-11057800</v>
+        <v>-10626300</v>
       </c>
       <c r="G89" s="3">
-        <v>9599500</v>
+        <v>9225000</v>
       </c>
       <c r="H89" s="3">
-        <v>2133900</v>
+        <v>2050700</v>
       </c>
       <c r="I89" s="3">
-        <v>6874000</v>
+        <v>6605800</v>
       </c>
       <c r="J89" s="3">
-        <v>23976500</v>
+        <v>23040900</v>
       </c>
       <c r="K89" s="3">
         <v>-6750600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-411000</v>
+        <v>-395000</v>
       </c>
       <c r="E91" s="3">
-        <v>-656000</v>
+        <v>-630400</v>
       </c>
       <c r="F91" s="3">
-        <v>-884300</v>
+        <v>-849800</v>
       </c>
       <c r="G91" s="3">
-        <v>-978700</v>
+        <v>-940500</v>
       </c>
       <c r="H91" s="3">
-        <v>-806400</v>
+        <v>-775000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1361700</v>
+        <v>-1308600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2253300</v>
+        <v>-2165400</v>
       </c>
       <c r="K91" s="3">
         <v>-1548000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1695900</v>
+        <v>-1629800</v>
       </c>
       <c r="E94" s="3">
-        <v>-38400</v>
+        <v>-36900</v>
       </c>
       <c r="F94" s="3">
-        <v>100700</v>
+        <v>96700</v>
       </c>
       <c r="G94" s="3">
-        <v>7800900</v>
+        <v>7496500</v>
       </c>
       <c r="H94" s="3">
-        <v>3012000</v>
+        <v>2894500</v>
       </c>
       <c r="I94" s="3">
-        <v>-581200</v>
+        <v>-558500</v>
       </c>
       <c r="J94" s="3">
-        <v>-4578200</v>
+        <v>-4399500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-961100</v>
+        <v>-923600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1105400</v>
+        <v>-1062200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2228400</v>
+        <v>-2141400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2186900</v>
+        <v>-2101500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1762400</v>
+        <v>-1693600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1659600</v>
+        <v>-1594800</v>
       </c>
       <c r="J96" s="3">
-        <v>-912300</v>
+        <v>-876700</v>
       </c>
       <c r="K96" s="3">
         <v>-901100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4513800</v>
+        <v>-4337700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2147400</v>
+        <v>-2063600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2804400</v>
+        <v>-2695000</v>
       </c>
       <c r="G100" s="3">
-        <v>-5285000</v>
+        <v>-5078800</v>
       </c>
       <c r="H100" s="3">
-        <v>-101700</v>
+        <v>-97700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1155200</v>
+        <v>-1110100</v>
       </c>
       <c r="J100" s="3">
-        <v>131800</v>
+        <v>126700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1934600</v>
+        <v>-1859200</v>
       </c>
       <c r="E101" s="3">
-        <v>-4834500</v>
+        <v>-4645900</v>
       </c>
       <c r="F101" s="3">
-        <v>-658000</v>
+        <v>-632400</v>
       </c>
       <c r="G101" s="3">
-        <v>-2592700</v>
+        <v>-2491500</v>
       </c>
       <c r="H101" s="3">
-        <v>-4427700</v>
+        <v>-4254900</v>
       </c>
       <c r="I101" s="3">
-        <v>-3594200</v>
+        <v>-3454000</v>
       </c>
       <c r="J101" s="3">
-        <v>-7038000</v>
+        <v>-6763400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9433500</v>
+        <v>-9065400</v>
       </c>
       <c r="E102" s="3">
-        <v>33820000</v>
+        <v>32500300</v>
       </c>
       <c r="F102" s="3">
-        <v>-14419500</v>
+        <v>-13856900</v>
       </c>
       <c r="G102" s="3">
-        <v>9522700</v>
+        <v>9151100</v>
       </c>
       <c r="H102" s="3">
-        <v>616500</v>
+        <v>592500</v>
       </c>
       <c r="I102" s="3">
-        <v>1545400</v>
+        <v>1485100</v>
       </c>
       <c r="J102" s="3">
-        <v>12492200</v>
+        <v>12004700</v>
       </c>
       <c r="K102" s="3">
         <v>-3771300</v>

--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22954200</v>
+        <v>23492700</v>
       </c>
       <c r="E8" s="3">
-        <v>22330800</v>
+        <v>22854700</v>
       </c>
       <c r="F8" s="3">
-        <v>27688800</v>
+        <v>28338400</v>
       </c>
       <c r="G8" s="3">
-        <v>29751400</v>
+        <v>30449400</v>
       </c>
       <c r="H8" s="3">
-        <v>29219800</v>
+        <v>29905400</v>
       </c>
       <c r="I8" s="3">
-        <v>27636000</v>
+        <v>28284300</v>
       </c>
       <c r="J8" s="3">
-        <v>24718600</v>
+        <v>25298500</v>
       </c>
       <c r="K8" s="3">
         <v>24914200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1230800</v>
+        <v>-1259700</v>
       </c>
       <c r="E15" s="3">
-        <v>-1285600</v>
+        <v>-1315800</v>
       </c>
       <c r="F15" s="3">
-        <v>-1381400</v>
+        <v>-1413800</v>
       </c>
       <c r="G15" s="3">
-        <v>-1204900</v>
+        <v>-1233100</v>
       </c>
       <c r="H15" s="3">
-        <v>-1383400</v>
+        <v>-1415800</v>
       </c>
       <c r="I15" s="3">
-        <v>-1422300</v>
+        <v>-1455700</v>
       </c>
       <c r="J15" s="3">
-        <v>-1268700</v>
+        <v>-1298500</v>
       </c>
       <c r="K15" s="3">
         <v>-1249100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11316500</v>
+        <v>11582000</v>
       </c>
       <c r="E17" s="3">
-        <v>12923300</v>
+        <v>13226500</v>
       </c>
       <c r="F17" s="3">
-        <v>15401900</v>
+        <v>15763200</v>
       </c>
       <c r="G17" s="3">
-        <v>16176800</v>
+        <v>16556400</v>
       </c>
       <c r="H17" s="3">
-        <v>15174400</v>
+        <v>15530500</v>
       </c>
       <c r="I17" s="3">
-        <v>14209000</v>
+        <v>14542300</v>
       </c>
       <c r="J17" s="3">
-        <v>12976200</v>
+        <v>13280600</v>
       </c>
       <c r="K17" s="3">
         <v>13959300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11637700</v>
+        <v>11910700</v>
       </c>
       <c r="E18" s="3">
-        <v>9407500</v>
+        <v>9628200</v>
       </c>
       <c r="F18" s="3">
-        <v>12287000</v>
+        <v>12575200</v>
       </c>
       <c r="G18" s="3">
-        <v>13574600</v>
+        <v>13893100</v>
       </c>
       <c r="H18" s="3">
-        <v>14045400</v>
+        <v>14374900</v>
       </c>
       <c r="I18" s="3">
-        <v>13427000</v>
+        <v>13742000</v>
       </c>
       <c r="J18" s="3">
-        <v>11742400</v>
+        <v>12017900</v>
       </c>
       <c r="K18" s="3">
         <v>10954900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4409500</v>
+        <v>-4513000</v>
       </c>
       <c r="E20" s="3">
-        <v>-4173100</v>
+        <v>-4271000</v>
       </c>
       <c r="F20" s="3">
-        <v>-5259300</v>
+        <v>-5382700</v>
       </c>
       <c r="G20" s="3">
-        <v>-5152600</v>
+        <v>-5273500</v>
       </c>
       <c r="H20" s="3">
-        <v>-7132400</v>
+        <v>-7299700</v>
       </c>
       <c r="I20" s="3">
-        <v>-7051600</v>
+        <v>-7217100</v>
       </c>
       <c r="J20" s="3">
-        <v>-7151400</v>
+        <v>-7319100</v>
       </c>
       <c r="K20" s="3">
         <v>-6613100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8457800</v>
+        <v>8633100</v>
       </c>
       <c r="E21" s="3">
-        <v>6517800</v>
+        <v>6646600</v>
       </c>
       <c r="F21" s="3">
-        <v>8408800</v>
+        <v>8580100</v>
       </c>
       <c r="G21" s="3">
-        <v>9625800</v>
+        <v>9829000</v>
       </c>
       <c r="H21" s="3">
-        <v>8295100</v>
+        <v>8463700</v>
       </c>
       <c r="I21" s="3">
-        <v>7796400</v>
+        <v>7952500</v>
       </c>
       <c r="J21" s="3">
-        <v>5858600</v>
+        <v>5972100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7228200</v>
+        <v>7397700</v>
       </c>
       <c r="E23" s="3">
-        <v>5234400</v>
+        <v>5357200</v>
       </c>
       <c r="F23" s="3">
-        <v>7027700</v>
+        <v>7192600</v>
       </c>
       <c r="G23" s="3">
-        <v>8422000</v>
+        <v>8619600</v>
       </c>
       <c r="H23" s="3">
-        <v>6913000</v>
+        <v>7075200</v>
       </c>
       <c r="I23" s="3">
-        <v>6375400</v>
+        <v>6525000</v>
       </c>
       <c r="J23" s="3">
-        <v>4591000</v>
+        <v>4698700</v>
       </c>
       <c r="K23" s="3">
         <v>4341800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1904000</v>
+        <v>1948700</v>
       </c>
       <c r="E24" s="3">
-        <v>1455200</v>
+        <v>1489300</v>
       </c>
       <c r="F24" s="3">
-        <v>1937900</v>
+        <v>1983400</v>
       </c>
       <c r="G24" s="3">
-        <v>2213200</v>
+        <v>2265200</v>
       </c>
       <c r="H24" s="3">
-        <v>2163400</v>
+        <v>2214100</v>
       </c>
       <c r="I24" s="3">
-        <v>1694600</v>
+        <v>1734300</v>
       </c>
       <c r="J24" s="3">
-        <v>1270700</v>
+        <v>1300500</v>
       </c>
       <c r="K24" s="3">
         <v>979600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5324100</v>
+        <v>5449000</v>
       </c>
       <c r="E26" s="3">
-        <v>3779100</v>
+        <v>3867800</v>
       </c>
       <c r="F26" s="3">
-        <v>5089700</v>
+        <v>5209100</v>
       </c>
       <c r="G26" s="3">
-        <v>6208800</v>
+        <v>6354500</v>
       </c>
       <c r="H26" s="3">
-        <v>4749600</v>
+        <v>4861000</v>
       </c>
       <c r="I26" s="3">
-        <v>4680800</v>
+        <v>4790600</v>
       </c>
       <c r="J26" s="3">
-        <v>3320300</v>
+        <v>3398200</v>
       </c>
       <c r="K26" s="3">
         <v>3362200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4002600</v>
+        <v>4096500</v>
       </c>
       <c r="E27" s="3">
-        <v>3026100</v>
+        <v>3097100</v>
       </c>
       <c r="F27" s="3">
-        <v>4258900</v>
+        <v>4358800</v>
       </c>
       <c r="G27" s="3">
-        <v>5071800</v>
+        <v>5190800</v>
       </c>
       <c r="H27" s="3">
-        <v>3209600</v>
+        <v>3284900</v>
       </c>
       <c r="I27" s="3">
-        <v>3206600</v>
+        <v>3281900</v>
       </c>
       <c r="J27" s="3">
-        <v>2423700</v>
+        <v>2480500</v>
       </c>
       <c r="K27" s="3">
         <v>2856000</v>
@@ -1473,13 +1473,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>279300</v>
+        <v>285800</v>
       </c>
       <c r="E29" s="3">
-        <v>-1724500</v>
+        <v>-1765000</v>
       </c>
       <c r="F29" s="3">
-        <v>-756000</v>
+        <v>-773800</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4409500</v>
+        <v>4513000</v>
       </c>
       <c r="E32" s="3">
-        <v>4173100</v>
+        <v>4271000</v>
       </c>
       <c r="F32" s="3">
-        <v>5259300</v>
+        <v>5382700</v>
       </c>
       <c r="G32" s="3">
-        <v>5152600</v>
+        <v>5273500</v>
       </c>
       <c r="H32" s="3">
-        <v>7132400</v>
+        <v>7299700</v>
       </c>
       <c r="I32" s="3">
-        <v>7051600</v>
+        <v>7217100</v>
       </c>
       <c r="J32" s="3">
-        <v>7151400</v>
+        <v>7319100</v>
       </c>
       <c r="K32" s="3">
         <v>6613100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4281800</v>
+        <v>4382300</v>
       </c>
       <c r="E33" s="3">
-        <v>1301600</v>
+        <v>1332100</v>
       </c>
       <c r="F33" s="3">
-        <v>3502900</v>
+        <v>3585000</v>
       </c>
       <c r="G33" s="3">
-        <v>5071800</v>
+        <v>5190800</v>
       </c>
       <c r="H33" s="3">
-        <v>3209600</v>
+        <v>3284900</v>
       </c>
       <c r="I33" s="3">
-        <v>3206600</v>
+        <v>3281900</v>
       </c>
       <c r="J33" s="3">
-        <v>2423700</v>
+        <v>2480500</v>
       </c>
       <c r="K33" s="3">
         <v>2856000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4281800</v>
+        <v>4382300</v>
       </c>
       <c r="E35" s="3">
-        <v>1301600</v>
+        <v>1332100</v>
       </c>
       <c r="F35" s="3">
-        <v>3502900</v>
+        <v>3585000</v>
       </c>
       <c r="G35" s="3">
-        <v>5071800</v>
+        <v>5190800</v>
       </c>
       <c r="H35" s="3">
-        <v>3209600</v>
+        <v>3284900</v>
       </c>
       <c r="I35" s="3">
-        <v>3206600</v>
+        <v>3281900</v>
       </c>
       <c r="J35" s="3">
-        <v>2423700</v>
+        <v>2480500</v>
       </c>
       <c r="K35" s="3">
         <v>2856000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>86530400</v>
+        <v>88560500</v>
       </c>
       <c r="E41" s="3">
-        <v>86079600</v>
+        <v>88099100</v>
       </c>
       <c r="F41" s="3">
-        <v>62064200</v>
+        <v>63520300</v>
       </c>
       <c r="G41" s="3">
-        <v>71115600</v>
+        <v>72784100</v>
       </c>
       <c r="H41" s="3">
-        <v>76042800</v>
+        <v>77826800</v>
       </c>
       <c r="I41" s="3">
-        <v>80097200</v>
+        <v>81976400</v>
       </c>
       <c r="J41" s="3">
-        <v>90605800</v>
+        <v>92731500</v>
       </c>
       <c r="K41" s="3">
         <v>99100400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>192396000</v>
+        <v>196909000</v>
       </c>
       <c r="E42" s="3">
-        <v>183148000</v>
+        <v>187444000</v>
       </c>
       <c r="F42" s="3">
-        <v>168713000</v>
+        <v>172671000</v>
       </c>
       <c r="G42" s="3">
-        <v>155389000</v>
+        <v>159035000</v>
       </c>
       <c r="H42" s="3">
-        <v>139002000</v>
+        <v>142263000</v>
       </c>
       <c r="I42" s="3">
-        <v>167131000</v>
+        <v>171052000</v>
       </c>
       <c r="J42" s="3">
-        <v>221888000</v>
+        <v>227093000</v>
       </c>
       <c r="K42" s="3">
         <v>242690000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>898700</v>
+        <v>919700</v>
       </c>
       <c r="E47" s="3">
-        <v>1433300</v>
+        <v>1466900</v>
       </c>
       <c r="F47" s="3">
-        <v>1484100</v>
+        <v>1519000</v>
       </c>
       <c r="G47" s="3">
-        <v>1573900</v>
+        <v>1610800</v>
       </c>
       <c r="H47" s="3">
-        <v>1583900</v>
+        <v>1621000</v>
       </c>
       <c r="I47" s="3">
-        <v>763000</v>
+        <v>780900</v>
       </c>
       <c r="J47" s="3">
-        <v>876700</v>
+        <v>897300</v>
       </c>
       <c r="K47" s="3">
         <v>958900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7279000</v>
+        <v>7449800</v>
       </c>
       <c r="E48" s="3">
-        <v>7802700</v>
+        <v>7985700</v>
       </c>
       <c r="F48" s="3">
-        <v>10041800</v>
+        <v>10277400</v>
       </c>
       <c r="G48" s="3">
-        <v>7210200</v>
+        <v>7379400</v>
       </c>
       <c r="H48" s="3">
-        <v>7172300</v>
+        <v>7340600</v>
       </c>
       <c r="I48" s="3">
-        <v>8918800</v>
+        <v>9128000</v>
       </c>
       <c r="J48" s="3">
-        <v>9918100</v>
+        <v>10150800</v>
       </c>
       <c r="K48" s="3">
         <v>10848000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2191300</v>
+        <v>2242700</v>
       </c>
       <c r="E49" s="3">
-        <v>2338900</v>
+        <v>2393800</v>
       </c>
       <c r="F49" s="3">
-        <v>6947900</v>
+        <v>7110900</v>
       </c>
       <c r="G49" s="3">
-        <v>8292400</v>
+        <v>8486900</v>
       </c>
       <c r="H49" s="3">
-        <v>8442000</v>
+        <v>8640100</v>
       </c>
       <c r="I49" s="3">
-        <v>9760600</v>
+        <v>9989500</v>
       </c>
       <c r="J49" s="3">
-        <v>10025900</v>
+        <v>10261100</v>
       </c>
       <c r="K49" s="3">
         <v>10965800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15936500</v>
+        <v>16310300</v>
       </c>
       <c r="E52" s="3">
-        <v>101051000</v>
+        <v>103421000</v>
       </c>
       <c r="F52" s="3">
-        <v>18349200</v>
+        <v>18779700</v>
       </c>
       <c r="G52" s="3">
-        <v>17272000</v>
+        <v>17677200</v>
       </c>
       <c r="H52" s="3">
-        <v>38477700</v>
+        <v>39380400</v>
       </c>
       <c r="I52" s="3">
-        <v>19942000</v>
+        <v>20409900</v>
       </c>
       <c r="J52" s="3">
-        <v>19197000</v>
+        <v>19647300</v>
       </c>
       <c r="K52" s="3">
         <v>20996700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>661162000</v>
+        <v>676673000</v>
       </c>
       <c r="E54" s="3">
-        <v>731889000</v>
+        <v>749060000</v>
       </c>
       <c r="F54" s="3">
-        <v>693663000</v>
+        <v>709937000</v>
       </c>
       <c r="G54" s="3">
-        <v>674930000</v>
+        <v>690764000</v>
       </c>
       <c r="H54" s="3">
-        <v>688265000</v>
+        <v>704412000</v>
       </c>
       <c r="I54" s="3">
-        <v>729953000</v>
+        <v>747079000</v>
       </c>
       <c r="J54" s="3">
-        <v>747905000</v>
+        <v>765452000</v>
       </c>
       <c r="K54" s="3">
         <v>818024000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6111100</v>
+        <v>6254400</v>
       </c>
       <c r="E57" s="3">
-        <v>4987000</v>
+        <v>5104000</v>
       </c>
       <c r="F57" s="3">
-        <v>4482300</v>
+        <v>4587500</v>
       </c>
       <c r="G57" s="3">
-        <v>5633300</v>
+        <v>5765500</v>
       </c>
       <c r="H57" s="3">
-        <v>5548500</v>
+        <v>5678700</v>
       </c>
       <c r="I57" s="3">
-        <v>6513000</v>
+        <v>6665800</v>
       </c>
       <c r="J57" s="3">
-        <v>6957900</v>
+        <v>7121100</v>
       </c>
       <c r="K57" s="3">
         <v>7610200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>642300</v>
+        <v>657400</v>
       </c>
       <c r="E59" s="3">
-        <v>544600</v>
+        <v>557400</v>
       </c>
       <c r="F59" s="3">
-        <v>877700</v>
+        <v>898300</v>
       </c>
       <c r="G59" s="3">
-        <v>1226800</v>
+        <v>1255600</v>
       </c>
       <c r="H59" s="3">
-        <v>1111100</v>
+        <v>1137200</v>
       </c>
       <c r="I59" s="3">
-        <v>1796300</v>
+        <v>1838500</v>
       </c>
       <c r="J59" s="3">
-        <v>1742500</v>
+        <v>1783300</v>
       </c>
       <c r="K59" s="3">
         <v>1905800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61558500</v>
+        <v>63002800</v>
       </c>
       <c r="E61" s="3">
-        <v>68805600</v>
+        <v>70419900</v>
       </c>
       <c r="F61" s="3">
-        <v>71766900</v>
+        <v>73450600</v>
       </c>
       <c r="G61" s="3">
-        <v>63803700</v>
+        <v>65300600</v>
       </c>
       <c r="H61" s="3">
-        <v>63748800</v>
+        <v>65244400</v>
       </c>
       <c r="I61" s="3">
-        <v>76176400</v>
+        <v>77963600</v>
       </c>
       <c r="J61" s="3">
-        <v>81766900</v>
+        <v>83685200</v>
       </c>
       <c r="K61" s="3">
         <v>89432800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7638100</v>
+        <v>7817300</v>
       </c>
       <c r="E62" s="3">
-        <v>7929300</v>
+        <v>8115400</v>
       </c>
       <c r="F62" s="3">
-        <v>8444000</v>
+        <v>8642100</v>
       </c>
       <c r="G62" s="3">
-        <v>8795100</v>
+        <v>9001400</v>
       </c>
       <c r="H62" s="3">
-        <v>9635900</v>
+        <v>9861900</v>
       </c>
       <c r="I62" s="3">
-        <v>12430600</v>
+        <v>12722200</v>
       </c>
       <c r="J62" s="3">
-        <v>12238100</v>
+        <v>12525200</v>
       </c>
       <c r="K62" s="3">
         <v>13385500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>617369000</v>
+        <v>631853000</v>
       </c>
       <c r="E66" s="3">
-        <v>687456000</v>
+        <v>703584000</v>
       </c>
       <c r="F66" s="3">
-        <v>645066000</v>
+        <v>660199000</v>
       </c>
       <c r="G66" s="3">
-        <v>627942000</v>
+        <v>642674000</v>
       </c>
       <c r="H66" s="3">
-        <v>642041000</v>
+        <v>657104000</v>
       </c>
       <c r="I66" s="3">
-        <v>682712000</v>
+        <v>698729000</v>
       </c>
       <c r="J66" s="3">
-        <v>700738000</v>
+        <v>717178000</v>
       </c>
       <c r="K66" s="3">
         <v>766435000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>34793300</v>
+        <v>35609600</v>
       </c>
       <c r="E72" s="3">
-        <v>31730300</v>
+        <v>32474700</v>
       </c>
       <c r="F72" s="3">
-        <v>32695800</v>
+        <v>33462800</v>
       </c>
       <c r="G72" s="3">
-        <v>28210500</v>
+        <v>28872300</v>
       </c>
       <c r="H72" s="3">
-        <v>27025600</v>
+        <v>27659600</v>
       </c>
       <c r="I72" s="3">
-        <v>27025600</v>
+        <v>27659600</v>
       </c>
       <c r="J72" s="3">
-        <v>25066700</v>
+        <v>25654700</v>
       </c>
       <c r="K72" s="3">
         <v>27416800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43792800</v>
+        <v>44820300</v>
       </c>
       <c r="E76" s="3">
-        <v>44433200</v>
+        <v>45475600</v>
       </c>
       <c r="F76" s="3">
-        <v>48597300</v>
+        <v>49737500</v>
       </c>
       <c r="G76" s="3">
-        <v>46987500</v>
+        <v>48089900</v>
       </c>
       <c r="H76" s="3">
-        <v>46223500</v>
+        <v>47308000</v>
       </c>
       <c r="I76" s="3">
-        <v>47240900</v>
+        <v>48349200</v>
       </c>
       <c r="J76" s="3">
-        <v>47167000</v>
+        <v>48273600</v>
       </c>
       <c r="K76" s="3">
         <v>51589100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4281800</v>
+        <v>4382300</v>
       </c>
       <c r="E81" s="3">
-        <v>1301600</v>
+        <v>1332100</v>
       </c>
       <c r="F81" s="3">
-        <v>3502900</v>
+        <v>3585000</v>
       </c>
       <c r="G81" s="3">
-        <v>5071800</v>
+        <v>5190800</v>
       </c>
       <c r="H81" s="3">
-        <v>3209600</v>
+        <v>3284900</v>
       </c>
       <c r="I81" s="3">
-        <v>3206600</v>
+        <v>3281900</v>
       </c>
       <c r="J81" s="3">
-        <v>2423700</v>
+        <v>2480500</v>
       </c>
       <c r="K81" s="3">
         <v>2856000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1230800</v>
+        <v>1259700</v>
       </c>
       <c r="E83" s="3">
-        <v>1284700</v>
+        <v>1314800</v>
       </c>
       <c r="F83" s="3">
-        <v>1382400</v>
+        <v>1414800</v>
       </c>
       <c r="G83" s="3">
-        <v>1204900</v>
+        <v>1233100</v>
       </c>
       <c r="H83" s="3">
-        <v>1383400</v>
+        <v>1415800</v>
       </c>
       <c r="I83" s="3">
-        <v>1422300</v>
+        <v>1455700</v>
       </c>
       <c r="J83" s="3">
-        <v>1268700</v>
+        <v>1298500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1238800</v>
+        <v>-1267800</v>
       </c>
       <c r="E89" s="3">
-        <v>39246700</v>
+        <v>40167500</v>
       </c>
       <c r="F89" s="3">
-        <v>-10626300</v>
+        <v>-10875600</v>
       </c>
       <c r="G89" s="3">
-        <v>9225000</v>
+        <v>9441400</v>
       </c>
       <c r="H89" s="3">
-        <v>2050700</v>
+        <v>2098800</v>
       </c>
       <c r="I89" s="3">
-        <v>6605800</v>
+        <v>6760800</v>
       </c>
       <c r="J89" s="3">
-        <v>23040900</v>
+        <v>23581500</v>
       </c>
       <c r="K89" s="3">
         <v>-6750600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-395000</v>
+        <v>-404200</v>
       </c>
       <c r="E91" s="3">
-        <v>-630400</v>
+        <v>-645100</v>
       </c>
       <c r="F91" s="3">
-        <v>-849800</v>
+        <v>-869700</v>
       </c>
       <c r="G91" s="3">
-        <v>-940500</v>
+        <v>-962600</v>
       </c>
       <c r="H91" s="3">
-        <v>-775000</v>
+        <v>-793200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1308600</v>
+        <v>-1339300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2165400</v>
+        <v>-2216200</v>
       </c>
       <c r="K91" s="3">
         <v>-1548000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1629800</v>
+        <v>-1668000</v>
       </c>
       <c r="E94" s="3">
-        <v>-36900</v>
+        <v>-37800</v>
       </c>
       <c r="F94" s="3">
-        <v>96700</v>
+        <v>99000</v>
       </c>
       <c r="G94" s="3">
-        <v>7496500</v>
+        <v>7672300</v>
       </c>
       <c r="H94" s="3">
-        <v>2894500</v>
+        <v>2962400</v>
       </c>
       <c r="I94" s="3">
-        <v>-558500</v>
+        <v>-571600</v>
       </c>
       <c r="J94" s="3">
-        <v>-4399500</v>
+        <v>-4502700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-923600</v>
+        <v>-945300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1062200</v>
+        <v>-1087200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2141400</v>
+        <v>-2191700</v>
       </c>
       <c r="G96" s="3">
-        <v>-2101500</v>
+        <v>-2150800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1693600</v>
+        <v>-1733300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1594800</v>
+        <v>-1632300</v>
       </c>
       <c r="J96" s="3">
-        <v>-876700</v>
+        <v>-897300</v>
       </c>
       <c r="K96" s="3">
         <v>-901100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4337700</v>
+        <v>-4439500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2063600</v>
+        <v>-2112000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2695000</v>
+        <v>-2758200</v>
       </c>
       <c r="G100" s="3">
-        <v>-5078800</v>
+        <v>-5197900</v>
       </c>
       <c r="H100" s="3">
-        <v>-97700</v>
+        <v>-100000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1110100</v>
+        <v>-1136200</v>
       </c>
       <c r="J100" s="3">
-        <v>126700</v>
+        <v>129600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1859200</v>
+        <v>-1902800</v>
       </c>
       <c r="E101" s="3">
-        <v>-4645900</v>
+        <v>-4754900</v>
       </c>
       <c r="F101" s="3">
-        <v>-632400</v>
+        <v>-647200</v>
       </c>
       <c r="G101" s="3">
-        <v>-2491500</v>
+        <v>-2550000</v>
       </c>
       <c r="H101" s="3">
-        <v>-4254900</v>
+        <v>-4354700</v>
       </c>
       <c r="I101" s="3">
-        <v>-3454000</v>
+        <v>-3535000</v>
       </c>
       <c r="J101" s="3">
-        <v>-6763400</v>
+        <v>-6922000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9065400</v>
+        <v>-9278100</v>
       </c>
       <c r="E102" s="3">
-        <v>32500300</v>
+        <v>33262800</v>
       </c>
       <c r="F102" s="3">
-        <v>-13856900</v>
+        <v>-14182000</v>
       </c>
       <c r="G102" s="3">
-        <v>9151100</v>
+        <v>9365800</v>
       </c>
       <c r="H102" s="3">
-        <v>592500</v>
+        <v>606400</v>
       </c>
       <c r="I102" s="3">
-        <v>1485100</v>
+        <v>1520000</v>
       </c>
       <c r="J102" s="3">
-        <v>12004700</v>
+        <v>12286300</v>
       </c>
       <c r="K102" s="3">
         <v>-3771300</v>

--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>BBVA</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23492700</v>
+        <v>24348800</v>
       </c>
       <c r="E8" s="3">
-        <v>22854700</v>
+        <v>23687600</v>
       </c>
       <c r="F8" s="3">
-        <v>28338400</v>
+        <v>29371100</v>
       </c>
       <c r="G8" s="3">
-        <v>30449400</v>
+        <v>31559100</v>
       </c>
       <c r="H8" s="3">
-        <v>29905400</v>
+        <v>30995200</v>
       </c>
       <c r="I8" s="3">
-        <v>28284300</v>
+        <v>29315100</v>
       </c>
       <c r="J8" s="3">
-        <v>25298500</v>
+        <v>26220400</v>
       </c>
       <c r="K8" s="3">
         <v>24914200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1259700</v>
+        <v>-1305600</v>
       </c>
       <c r="E15" s="3">
-        <v>-1315800</v>
+        <v>-1363800</v>
       </c>
       <c r="F15" s="3">
-        <v>-1413800</v>
+        <v>-1465300</v>
       </c>
       <c r="G15" s="3">
-        <v>-1233100</v>
+        <v>-1278100</v>
       </c>
       <c r="H15" s="3">
-        <v>-1415800</v>
+        <v>-1467400</v>
       </c>
       <c r="I15" s="3">
-        <v>-1455700</v>
+        <v>-1508700</v>
       </c>
       <c r="J15" s="3">
-        <v>-1298500</v>
+        <v>-1345800</v>
       </c>
       <c r="K15" s="3">
         <v>-1249100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11582000</v>
+        <v>12004100</v>
       </c>
       <c r="E17" s="3">
-        <v>13226500</v>
+        <v>13708500</v>
       </c>
       <c r="F17" s="3">
-        <v>15763200</v>
+        <v>16337600</v>
       </c>
       <c r="G17" s="3">
-        <v>16556400</v>
+        <v>17159700</v>
       </c>
       <c r="H17" s="3">
-        <v>15530500</v>
+        <v>16096400</v>
       </c>
       <c r="I17" s="3">
-        <v>14542300</v>
+        <v>15072300</v>
       </c>
       <c r="J17" s="3">
-        <v>13280600</v>
+        <v>13764600</v>
       </c>
       <c r="K17" s="3">
         <v>13959300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11910700</v>
+        <v>12344700</v>
       </c>
       <c r="E18" s="3">
-        <v>9628200</v>
+        <v>9979100</v>
       </c>
       <c r="F18" s="3">
-        <v>12575200</v>
+        <v>13033500</v>
       </c>
       <c r="G18" s="3">
-        <v>13893100</v>
+        <v>14399400</v>
       </c>
       <c r="H18" s="3">
-        <v>14374900</v>
+        <v>14898800</v>
       </c>
       <c r="I18" s="3">
-        <v>13742000</v>
+        <v>14242800</v>
       </c>
       <c r="J18" s="3">
-        <v>12017900</v>
+        <v>12455800</v>
       </c>
       <c r="K18" s="3">
         <v>10954900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4513000</v>
+        <v>-4677400</v>
       </c>
       <c r="E20" s="3">
-        <v>-4271000</v>
+        <v>-4426700</v>
       </c>
       <c r="F20" s="3">
-        <v>-5382700</v>
+        <v>-5578800</v>
       </c>
       <c r="G20" s="3">
-        <v>-5273500</v>
+        <v>-5465600</v>
       </c>
       <c r="H20" s="3">
-        <v>-7299700</v>
+        <v>-7565800</v>
       </c>
       <c r="I20" s="3">
-        <v>-7217100</v>
+        <v>-7480100</v>
       </c>
       <c r="J20" s="3">
-        <v>-7319100</v>
+        <v>-7585900</v>
       </c>
       <c r="K20" s="3">
         <v>-6613100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8633100</v>
+        <v>9025400</v>
       </c>
       <c r="E21" s="3">
-        <v>6646600</v>
+        <v>7013800</v>
       </c>
       <c r="F21" s="3">
-        <v>8580100</v>
+        <v>8728400</v>
       </c>
       <c r="G21" s="3">
-        <v>9829000</v>
+        <v>10396200</v>
       </c>
       <c r="H21" s="3">
-        <v>8463700</v>
+        <v>8836600</v>
       </c>
       <c r="I21" s="3">
-        <v>7952500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>5972100</v>
+        <v>8103900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7397700</v>
+        <v>7667300</v>
       </c>
       <c r="E23" s="3">
-        <v>5357200</v>
+        <v>5552400</v>
       </c>
       <c r="F23" s="3">
-        <v>7192600</v>
+        <v>7454700</v>
       </c>
       <c r="G23" s="3">
-        <v>8619600</v>
+        <v>8933800</v>
       </c>
       <c r="H23" s="3">
-        <v>7075200</v>
+        <v>7333000</v>
       </c>
       <c r="I23" s="3">
-        <v>6525000</v>
+        <v>6762700</v>
       </c>
       <c r="J23" s="3">
-        <v>4698700</v>
+        <v>4870000</v>
       </c>
       <c r="K23" s="3">
         <v>4341800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1948700</v>
+        <v>2019700</v>
       </c>
       <c r="E24" s="3">
-        <v>1489300</v>
+        <v>1543600</v>
       </c>
       <c r="F24" s="3">
-        <v>1983400</v>
+        <v>2055700</v>
       </c>
       <c r="G24" s="3">
-        <v>2265200</v>
+        <v>2347700</v>
       </c>
       <c r="H24" s="3">
-        <v>2214100</v>
+        <v>2294800</v>
       </c>
       <c r="I24" s="3">
-        <v>1734300</v>
+        <v>1797500</v>
       </c>
       <c r="J24" s="3">
-        <v>1300500</v>
+        <v>1347900</v>
       </c>
       <c r="K24" s="3">
         <v>979600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5449000</v>
+        <v>5647600</v>
       </c>
       <c r="E26" s="3">
-        <v>3867800</v>
+        <v>4008800</v>
       </c>
       <c r="F26" s="3">
-        <v>5209100</v>
+        <v>5399000</v>
       </c>
       <c r="G26" s="3">
-        <v>6354500</v>
+        <v>6586100</v>
       </c>
       <c r="H26" s="3">
-        <v>4861000</v>
+        <v>5038200</v>
       </c>
       <c r="I26" s="3">
-        <v>4790600</v>
+        <v>4965200</v>
       </c>
       <c r="J26" s="3">
-        <v>3398200</v>
+        <v>3522100</v>
       </c>
       <c r="K26" s="3">
         <v>3362200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4096500</v>
+        <v>4245800</v>
       </c>
       <c r="E27" s="3">
-        <v>3097100</v>
+        <v>3210000</v>
       </c>
       <c r="F27" s="3">
-        <v>4358800</v>
+        <v>4517700</v>
       </c>
       <c r="G27" s="3">
-        <v>5190800</v>
+        <v>5379900</v>
       </c>
       <c r="H27" s="3">
-        <v>3284900</v>
+        <v>3404600</v>
       </c>
       <c r="I27" s="3">
-        <v>3281900</v>
+        <v>3401500</v>
       </c>
       <c r="J27" s="3">
-        <v>2480500</v>
+        <v>2570900</v>
       </c>
       <c r="K27" s="3">
         <v>2856000</v>
@@ -1473,13 +1473,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>285800</v>
+        <v>296200</v>
       </c>
       <c r="E29" s="3">
-        <v>-1765000</v>
+        <v>-1829300</v>
       </c>
       <c r="F29" s="3">
-        <v>-773800</v>
+        <v>-802000</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4513000</v>
+        <v>4677400</v>
       </c>
       <c r="E32" s="3">
-        <v>4271000</v>
+        <v>4426700</v>
       </c>
       <c r="F32" s="3">
-        <v>5382700</v>
+        <v>5578800</v>
       </c>
       <c r="G32" s="3">
-        <v>5273500</v>
+        <v>5465600</v>
       </c>
       <c r="H32" s="3">
-        <v>7299700</v>
+        <v>7565800</v>
       </c>
       <c r="I32" s="3">
-        <v>7217100</v>
+        <v>7480100</v>
       </c>
       <c r="J32" s="3">
-        <v>7319100</v>
+        <v>7585900</v>
       </c>
       <c r="K32" s="3">
         <v>6613100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4382300</v>
+        <v>4542000</v>
       </c>
       <c r="E33" s="3">
-        <v>1332100</v>
+        <v>1380700</v>
       </c>
       <c r="F33" s="3">
-        <v>3585000</v>
+        <v>3715700</v>
       </c>
       <c r="G33" s="3">
-        <v>5190800</v>
+        <v>5379900</v>
       </c>
       <c r="H33" s="3">
-        <v>3284900</v>
+        <v>3404600</v>
       </c>
       <c r="I33" s="3">
-        <v>3281900</v>
+        <v>3401500</v>
       </c>
       <c r="J33" s="3">
-        <v>2480500</v>
+        <v>2570900</v>
       </c>
       <c r="K33" s="3">
         <v>2856000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4382300</v>
+        <v>4542000</v>
       </c>
       <c r="E35" s="3">
-        <v>1332100</v>
+        <v>1380700</v>
       </c>
       <c r="F35" s="3">
-        <v>3585000</v>
+        <v>3715700</v>
       </c>
       <c r="G35" s="3">
-        <v>5190800</v>
+        <v>5379900</v>
       </c>
       <c r="H35" s="3">
-        <v>3284900</v>
+        <v>3404600</v>
       </c>
       <c r="I35" s="3">
-        <v>3281900</v>
+        <v>3401500</v>
       </c>
       <c r="J35" s="3">
-        <v>2480500</v>
+        <v>2570900</v>
       </c>
       <c r="K35" s="3">
         <v>2856000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>88560500</v>
+        <v>91787800</v>
       </c>
       <c r="E41" s="3">
-        <v>88099100</v>
+        <v>91309600</v>
       </c>
       <c r="F41" s="3">
-        <v>63520300</v>
+        <v>65835100</v>
       </c>
       <c r="G41" s="3">
-        <v>72784100</v>
+        <v>75436500</v>
       </c>
       <c r="H41" s="3">
-        <v>77826800</v>
+        <v>80663000</v>
       </c>
       <c r="I41" s="3">
-        <v>81976400</v>
+        <v>84963700</v>
       </c>
       <c r="J41" s="3">
-        <v>92731500</v>
+        <v>96110800</v>
       </c>
       <c r="K41" s="3">
         <v>99100400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>196909000</v>
+        <v>204085000</v>
       </c>
       <c r="E42" s="3">
-        <v>187444000</v>
+        <v>194275000</v>
       </c>
       <c r="F42" s="3">
-        <v>172671000</v>
+        <v>178964000</v>
       </c>
       <c r="G42" s="3">
-        <v>159035000</v>
+        <v>164830000</v>
       </c>
       <c r="H42" s="3">
-        <v>142263000</v>
+        <v>147447000</v>
       </c>
       <c r="I42" s="3">
-        <v>171052000</v>
+        <v>177286000</v>
       </c>
       <c r="J42" s="3">
-        <v>227093000</v>
+        <v>235369000</v>
       </c>
       <c r="K42" s="3">
         <v>242690000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>919700</v>
+        <v>953300</v>
       </c>
       <c r="E47" s="3">
-        <v>1466900</v>
+        <v>1520300</v>
       </c>
       <c r="F47" s="3">
-        <v>1519000</v>
+        <v>1574300</v>
       </c>
       <c r="G47" s="3">
-        <v>1610800</v>
+        <v>1669500</v>
       </c>
       <c r="H47" s="3">
-        <v>1621000</v>
+        <v>1680100</v>
       </c>
       <c r="I47" s="3">
-        <v>780900</v>
+        <v>809400</v>
       </c>
       <c r="J47" s="3">
-        <v>897300</v>
+        <v>930000</v>
       </c>
       <c r="K47" s="3">
         <v>958900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7449800</v>
+        <v>7721300</v>
       </c>
       <c r="E48" s="3">
-        <v>7985700</v>
+        <v>8276700</v>
       </c>
       <c r="F48" s="3">
-        <v>10277400</v>
+        <v>10651900</v>
       </c>
       <c r="G48" s="3">
-        <v>7379400</v>
+        <v>7648300</v>
       </c>
       <c r="H48" s="3">
-        <v>7340600</v>
+        <v>7608100</v>
       </c>
       <c r="I48" s="3">
-        <v>9128000</v>
+        <v>9460600</v>
       </c>
       <c r="J48" s="3">
-        <v>10150800</v>
+        <v>10520800</v>
       </c>
       <c r="K48" s="3">
         <v>10848000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2242700</v>
+        <v>2324400</v>
       </c>
       <c r="E49" s="3">
-        <v>2393800</v>
+        <v>2481000</v>
       </c>
       <c r="F49" s="3">
-        <v>7110900</v>
+        <v>7370000</v>
       </c>
       <c r="G49" s="3">
-        <v>8486900</v>
+        <v>8796200</v>
       </c>
       <c r="H49" s="3">
-        <v>8640100</v>
+        <v>8954900</v>
       </c>
       <c r="I49" s="3">
-        <v>9989500</v>
+        <v>10353600</v>
       </c>
       <c r="J49" s="3">
-        <v>10261100</v>
+        <v>10635000</v>
       </c>
       <c r="K49" s="3">
         <v>10965800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16310300</v>
+        <v>16904700</v>
       </c>
       <c r="E52" s="3">
-        <v>103421000</v>
+        <v>107190000</v>
       </c>
       <c r="F52" s="3">
-        <v>18779700</v>
+        <v>19464000</v>
       </c>
       <c r="G52" s="3">
-        <v>17677200</v>
+        <v>18321400</v>
       </c>
       <c r="H52" s="3">
-        <v>39380400</v>
+        <v>40815500</v>
       </c>
       <c r="I52" s="3">
-        <v>20409900</v>
+        <v>21153700</v>
       </c>
       <c r="J52" s="3">
-        <v>19647300</v>
+        <v>20363300</v>
       </c>
       <c r="K52" s="3">
         <v>20996700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>676673000</v>
+        <v>701332000</v>
       </c>
       <c r="E54" s="3">
-        <v>749060000</v>
+        <v>776357000</v>
       </c>
       <c r="F54" s="3">
-        <v>709937000</v>
+        <v>735808000</v>
       </c>
       <c r="G54" s="3">
-        <v>690764000</v>
+        <v>715937000</v>
       </c>
       <c r="H54" s="3">
-        <v>704412000</v>
+        <v>730082000</v>
       </c>
       <c r="I54" s="3">
-        <v>747079000</v>
+        <v>774304000</v>
       </c>
       <c r="J54" s="3">
-        <v>765452000</v>
+        <v>793347000</v>
       </c>
       <c r="K54" s="3">
         <v>818024000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6254400</v>
+        <v>6482400</v>
       </c>
       <c r="E57" s="3">
-        <v>5104000</v>
+        <v>5290000</v>
       </c>
       <c r="F57" s="3">
-        <v>4587500</v>
+        <v>4754700</v>
       </c>
       <c r="G57" s="3">
-        <v>5765500</v>
+        <v>5975600</v>
       </c>
       <c r="H57" s="3">
-        <v>5678700</v>
+        <v>5885700</v>
       </c>
       <c r="I57" s="3">
-        <v>6665800</v>
+        <v>6908700</v>
       </c>
       <c r="J57" s="3">
-        <v>7121100</v>
+        <v>7380600</v>
       </c>
       <c r="K57" s="3">
         <v>7610200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>657400</v>
+        <v>681400</v>
       </c>
       <c r="E59" s="3">
-        <v>557400</v>
+        <v>577700</v>
       </c>
       <c r="F59" s="3">
-        <v>898300</v>
+        <v>931000</v>
       </c>
       <c r="G59" s="3">
-        <v>1255600</v>
+        <v>1301300</v>
       </c>
       <c r="H59" s="3">
-        <v>1137200</v>
+        <v>1178600</v>
       </c>
       <c r="I59" s="3">
-        <v>1838500</v>
+        <v>1905500</v>
       </c>
       <c r="J59" s="3">
-        <v>1783300</v>
+        <v>1848300</v>
       </c>
       <c r="K59" s="3">
         <v>1905800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>63002800</v>
+        <v>65298700</v>
       </c>
       <c r="E61" s="3">
-        <v>70419900</v>
+        <v>72986100</v>
       </c>
       <c r="F61" s="3">
-        <v>73450600</v>
+        <v>76127300</v>
       </c>
       <c r="G61" s="3">
-        <v>65300600</v>
+        <v>67680300</v>
       </c>
       <c r="H61" s="3">
-        <v>65244400</v>
+        <v>67622100</v>
       </c>
       <c r="I61" s="3">
-        <v>77963600</v>
+        <v>80804800</v>
       </c>
       <c r="J61" s="3">
-        <v>83685200</v>
+        <v>86734800</v>
       </c>
       <c r="K61" s="3">
         <v>89432800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7817300</v>
+        <v>8102200</v>
       </c>
       <c r="E62" s="3">
-        <v>8115400</v>
+        <v>8411100</v>
       </c>
       <c r="F62" s="3">
-        <v>8642100</v>
+        <v>8957000</v>
       </c>
       <c r="G62" s="3">
-        <v>9001400</v>
+        <v>9329400</v>
       </c>
       <c r="H62" s="3">
-        <v>9861900</v>
+        <v>10221300</v>
       </c>
       <c r="I62" s="3">
-        <v>12722200</v>
+        <v>13185900</v>
       </c>
       <c r="J62" s="3">
-        <v>12525200</v>
+        <v>12981700</v>
       </c>
       <c r="K62" s="3">
         <v>13385500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>631853000</v>
+        <v>654879000</v>
       </c>
       <c r="E66" s="3">
-        <v>703584000</v>
+        <v>729224000</v>
       </c>
       <c r="F66" s="3">
-        <v>660199000</v>
+        <v>684258000</v>
       </c>
       <c r="G66" s="3">
-        <v>642674000</v>
+        <v>666095000</v>
       </c>
       <c r="H66" s="3">
-        <v>657104000</v>
+        <v>681051000</v>
       </c>
       <c r="I66" s="3">
-        <v>698729000</v>
+        <v>724193000</v>
       </c>
       <c r="J66" s="3">
-        <v>717178000</v>
+        <v>743314000</v>
       </c>
       <c r="K66" s="3">
         <v>766435000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35609600</v>
+        <v>36907300</v>
       </c>
       <c r="E72" s="3">
-        <v>32474700</v>
+        <v>33658200</v>
       </c>
       <c r="F72" s="3">
-        <v>33462800</v>
+        <v>34682300</v>
       </c>
       <c r="G72" s="3">
-        <v>28872300</v>
+        <v>29924500</v>
       </c>
       <c r="H72" s="3">
-        <v>27659600</v>
+        <v>28667600</v>
       </c>
       <c r="I72" s="3">
-        <v>27659600</v>
+        <v>28667600</v>
       </c>
       <c r="J72" s="3">
-        <v>25654700</v>
+        <v>26589700</v>
       </c>
       <c r="K72" s="3">
         <v>27416800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44820300</v>
+        <v>46453600</v>
       </c>
       <c r="E76" s="3">
-        <v>45475600</v>
+        <v>47132800</v>
       </c>
       <c r="F76" s="3">
-        <v>49737500</v>
+        <v>51550000</v>
       </c>
       <c r="G76" s="3">
-        <v>48089900</v>
+        <v>49842400</v>
       </c>
       <c r="H76" s="3">
-        <v>47308000</v>
+        <v>49032000</v>
       </c>
       <c r="I76" s="3">
-        <v>48349200</v>
+        <v>50111100</v>
       </c>
       <c r="J76" s="3">
-        <v>48273600</v>
+        <v>50032800</v>
       </c>
       <c r="K76" s="3">
         <v>51589100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4382300</v>
+        <v>4542000</v>
       </c>
       <c r="E81" s="3">
-        <v>1332100</v>
+        <v>1380700</v>
       </c>
       <c r="F81" s="3">
-        <v>3585000</v>
+        <v>3715700</v>
       </c>
       <c r="G81" s="3">
-        <v>5190800</v>
+        <v>5379900</v>
       </c>
       <c r="H81" s="3">
-        <v>3284900</v>
+        <v>3404600</v>
       </c>
       <c r="I81" s="3">
-        <v>3281900</v>
+        <v>3401500</v>
       </c>
       <c r="J81" s="3">
-        <v>2480500</v>
+        <v>2570900</v>
       </c>
       <c r="K81" s="3">
         <v>2856000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1259700</v>
+        <v>1362700</v>
       </c>
       <c r="E83" s="3">
-        <v>1314800</v>
+        <v>1466400</v>
       </c>
       <c r="F83" s="3">
-        <v>1414800</v>
+        <v>1278100</v>
       </c>
       <c r="G83" s="3">
-        <v>1233100</v>
+        <v>1467400</v>
       </c>
       <c r="H83" s="3">
-        <v>1415800</v>
+        <v>1508700</v>
       </c>
       <c r="I83" s="3">
-        <v>1455700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1298500</v>
+        <v>1345800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1267800</v>
+        <v>41631200</v>
       </c>
       <c r="E89" s="3">
-        <v>40167500</v>
+        <v>-11271900</v>
       </c>
       <c r="F89" s="3">
-        <v>-10875600</v>
+        <v>9785400</v>
       </c>
       <c r="G89" s="3">
-        <v>9441400</v>
+        <v>2175200</v>
       </c>
       <c r="H89" s="3">
-        <v>2098800</v>
+        <v>7007100</v>
       </c>
       <c r="I89" s="3">
-        <v>6760800</v>
+        <v>24440900</v>
       </c>
       <c r="J89" s="3">
-        <v>23581500</v>
+        <v>-6546900</v>
       </c>
       <c r="K89" s="3">
         <v>-6750600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-404200</v>
+        <v>-668700</v>
       </c>
       <c r="E91" s="3">
-        <v>-645100</v>
+        <v>-901400</v>
       </c>
       <c r="F91" s="3">
-        <v>-869700</v>
+        <v>-997700</v>
       </c>
       <c r="G91" s="3">
-        <v>-962600</v>
+        <v>-822100</v>
       </c>
       <c r="H91" s="3">
-        <v>-793200</v>
+        <v>-1388100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1339300</v>
+        <v>-2296900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2216200</v>
+        <v>-1501300</v>
       </c>
       <c r="K91" s="3">
         <v>-1548000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1668000</v>
+        <v>-39100</v>
       </c>
       <c r="E94" s="3">
-        <v>-37800</v>
+        <v>102600</v>
       </c>
       <c r="F94" s="3">
-        <v>99000</v>
+        <v>7951900</v>
       </c>
       <c r="G94" s="3">
-        <v>7672300</v>
+        <v>3070300</v>
       </c>
       <c r="H94" s="3">
-        <v>2962400</v>
+        <v>-592500</v>
       </c>
       <c r="I94" s="3">
-        <v>-571600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-4502700</v>
+        <v>-4666800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-945300</v>
+        <v>-1126800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1087200</v>
+        <v>-2271500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2191700</v>
+        <v>-2229200</v>
       </c>
       <c r="G96" s="3">
-        <v>-2150800</v>
+        <v>-1796500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1733300</v>
+        <v>-1691700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1632300</v>
+        <v>-930000</v>
       </c>
       <c r="J96" s="3">
-        <v>-897300</v>
+        <v>-873900</v>
       </c>
       <c r="K96" s="3">
         <v>-901100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4439500</v>
+        <v>-2189000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2112000</v>
+        <v>-2858700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2758200</v>
+        <v>-5387300</v>
       </c>
       <c r="G100" s="3">
-        <v>-5197900</v>
+        <v>-103700</v>
       </c>
       <c r="H100" s="3">
-        <v>-100000</v>
+        <v>-1177600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1136200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>129600</v>
+        <v>134400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1902800</v>
+        <v>-4928200</v>
       </c>
       <c r="E101" s="3">
-        <v>-4754900</v>
+        <v>-670800</v>
       </c>
       <c r="F101" s="3">
-        <v>-647200</v>
+        <v>-2642900</v>
       </c>
       <c r="G101" s="3">
-        <v>-2550000</v>
+        <v>-4513400</v>
       </c>
       <c r="H101" s="3">
-        <v>-4354700</v>
+        <v>-3663900</v>
       </c>
       <c r="I101" s="3">
-        <v>-3535000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-6922000</v>
+        <v>-7174300</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9278100</v>
+        <v>34474900</v>
       </c>
       <c r="E102" s="3">
-        <v>33262800</v>
+        <v>-14698800</v>
       </c>
       <c r="F102" s="3">
-        <v>-14182000</v>
+        <v>9707200</v>
       </c>
       <c r="G102" s="3">
-        <v>9365800</v>
+        <v>628500</v>
       </c>
       <c r="H102" s="3">
-        <v>606400</v>
+        <v>1575400</v>
       </c>
       <c r="I102" s="3">
-        <v>1520000</v>
+        <v>12734100</v>
       </c>
       <c r="J102" s="3">
-        <v>12286300</v>
+        <v>-3657500</v>
       </c>
       <c r="K102" s="3">
         <v>-3771300</v>

--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>BBVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24348800</v>
+        <v>33848000</v>
       </c>
       <c r="E8" s="3">
-        <v>23687600</v>
+        <v>24783800</v>
       </c>
       <c r="F8" s="3">
-        <v>29371100</v>
+        <v>24110700</v>
       </c>
       <c r="G8" s="3">
-        <v>31559100</v>
+        <v>29895800</v>
       </c>
       <c r="H8" s="3">
-        <v>30995200</v>
+        <v>32122900</v>
       </c>
       <c r="I8" s="3">
-        <v>29315100</v>
+        <v>31548900</v>
       </c>
       <c r="J8" s="3">
+        <v>29838700</v>
+      </c>
+      <c r="K8" s="3">
         <v>26220400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24914200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28125100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27675100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27926100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,48 +986,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1305600</v>
+        <v>-1430100</v>
       </c>
       <c r="E15" s="3">
-        <v>-1363800</v>
+        <v>-1328900</v>
       </c>
       <c r="F15" s="3">
-        <v>-1465300</v>
+        <v>-1388100</v>
       </c>
       <c r="G15" s="3">
-        <v>-1278100</v>
+        <v>-1491500</v>
       </c>
       <c r="H15" s="3">
-        <v>-1467400</v>
+        <v>-1300900</v>
       </c>
       <c r="I15" s="3">
-        <v>-1508700</v>
+        <v>-1493700</v>
       </c>
       <c r="J15" s="3">
+        <v>-1535700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-1345800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-1249100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-1309800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-1073800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-950800</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12004100</v>
+        <v>16780300</v>
       </c>
       <c r="E17" s="3">
-        <v>13708500</v>
+        <v>12218500</v>
       </c>
       <c r="F17" s="3">
-        <v>16337600</v>
+        <v>13953400</v>
       </c>
       <c r="G17" s="3">
-        <v>17159700</v>
+        <v>16629500</v>
       </c>
       <c r="H17" s="3">
-        <v>16096400</v>
+        <v>17466200</v>
       </c>
       <c r="I17" s="3">
-        <v>15072300</v>
+        <v>16384000</v>
       </c>
       <c r="J17" s="3">
+        <v>15341500</v>
+      </c>
+      <c r="K17" s="3">
         <v>13764600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13959300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18210900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19983600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17243300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12344700</v>
+        <v>17067800</v>
       </c>
       <c r="E18" s="3">
-        <v>9979100</v>
+        <v>12565300</v>
       </c>
       <c r="F18" s="3">
-        <v>13033500</v>
+        <v>10157300</v>
       </c>
       <c r="G18" s="3">
-        <v>14399400</v>
+        <v>13266300</v>
       </c>
       <c r="H18" s="3">
-        <v>14898800</v>
+        <v>14656600</v>
       </c>
       <c r="I18" s="3">
-        <v>14242800</v>
+        <v>15164900</v>
       </c>
       <c r="J18" s="3">
+        <v>14497200</v>
+      </c>
+      <c r="K18" s="3">
         <v>12455800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10954900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9914100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7691500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10682800</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4677400</v>
+        <v>-5915400</v>
       </c>
       <c r="E20" s="3">
-        <v>-4426700</v>
+        <v>-4761000</v>
       </c>
       <c r="F20" s="3">
-        <v>-5578800</v>
+        <v>-4505700</v>
       </c>
       <c r="G20" s="3">
-        <v>-5465600</v>
+        <v>-5678500</v>
       </c>
       <c r="H20" s="3">
-        <v>-7565800</v>
+        <v>-5563300</v>
       </c>
       <c r="I20" s="3">
-        <v>-7480100</v>
+        <v>-7700900</v>
       </c>
       <c r="J20" s="3">
+        <v>-7613700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7585900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6613100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8772900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5954500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6694200</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9025400</v>
+        <v>12591800</v>
       </c>
       <c r="E21" s="3">
-        <v>7013800</v>
+        <v>9141800</v>
       </c>
       <c r="F21" s="3">
-        <v>8728400</v>
+        <v>7047600</v>
       </c>
       <c r="G21" s="3">
-        <v>10396200</v>
+        <v>9090100</v>
       </c>
       <c r="H21" s="3">
-        <v>8836600</v>
+        <v>10402700</v>
       </c>
       <c r="I21" s="3">
-        <v>8103900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>8967400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>8429200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>2450400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>12367100</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7667300</v>
+        <v>11152400</v>
       </c>
       <c r="E23" s="3">
-        <v>5552400</v>
+        <v>7804300</v>
       </c>
       <c r="F23" s="3">
-        <v>7454700</v>
+        <v>5651600</v>
       </c>
       <c r="G23" s="3">
-        <v>8933800</v>
+        <v>7587800</v>
       </c>
       <c r="H23" s="3">
-        <v>7333000</v>
+        <v>9093300</v>
       </c>
       <c r="I23" s="3">
-        <v>6762700</v>
+        <v>7464000</v>
       </c>
       <c r="J23" s="3">
+        <v>6883500</v>
+      </c>
+      <c r="K23" s="3">
         <v>4870000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4341800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1141200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1737000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3988600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2019700</v>
+        <v>3800400</v>
       </c>
       <c r="E24" s="3">
-        <v>1543600</v>
+        <v>2055800</v>
       </c>
       <c r="F24" s="3">
-        <v>2055700</v>
+        <v>1571200</v>
       </c>
       <c r="G24" s="3">
-        <v>2347700</v>
+        <v>2092400</v>
       </c>
       <c r="H24" s="3">
-        <v>2294800</v>
+        <v>2389600</v>
       </c>
       <c r="I24" s="3">
-        <v>1797500</v>
+        <v>2335800</v>
       </c>
       <c r="J24" s="3">
+        <v>1829700</v>
+      </c>
+      <c r="K24" s="3">
         <v>1347900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>979600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-19100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-386500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>185500</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5647600</v>
+        <v>7352000</v>
       </c>
       <c r="E26" s="3">
-        <v>4008800</v>
+        <v>5748500</v>
       </c>
       <c r="F26" s="3">
-        <v>5399000</v>
+        <v>4080400</v>
       </c>
       <c r="G26" s="3">
-        <v>6586100</v>
+        <v>5495400</v>
       </c>
       <c r="H26" s="3">
-        <v>5038200</v>
+        <v>6703700</v>
       </c>
       <c r="I26" s="3">
-        <v>4965200</v>
+        <v>5128200</v>
       </c>
       <c r="J26" s="3">
+        <v>5053900</v>
+      </c>
+      <c r="K26" s="3">
         <v>3522100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3362200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1160300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2123500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3803100</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4245800</v>
+        <v>6576600</v>
       </c>
       <c r="E27" s="3">
-        <v>3210000</v>
+        <v>4321600</v>
       </c>
       <c r="F27" s="3">
-        <v>4517700</v>
+        <v>3267300</v>
       </c>
       <c r="G27" s="3">
-        <v>5379900</v>
+        <v>4598400</v>
       </c>
       <c r="H27" s="3">
-        <v>3404600</v>
+        <v>5476000</v>
       </c>
       <c r="I27" s="3">
-        <v>3401500</v>
+        <v>3465500</v>
       </c>
       <c r="J27" s="3">
+        <v>3462200</v>
+      </c>
+      <c r="K27" s="3">
         <v>2570900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2856000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>260800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1513000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3283100</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,48 +1523,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>296200</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-1829300</v>
+        <v>301500</v>
       </c>
       <c r="F29" s="3">
-        <v>-802000</v>
+        <v>-1862000</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+        <v>-816300</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>2232100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>512800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>343900</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4677400</v>
+        <v>5915400</v>
       </c>
       <c r="E32" s="3">
-        <v>4426700</v>
+        <v>4761000</v>
       </c>
       <c r="F32" s="3">
-        <v>5578800</v>
+        <v>4505700</v>
       </c>
       <c r="G32" s="3">
-        <v>5465600</v>
+        <v>5678500</v>
       </c>
       <c r="H32" s="3">
-        <v>7565800</v>
+        <v>5563300</v>
       </c>
       <c r="I32" s="3">
-        <v>7480100</v>
+        <v>7700900</v>
       </c>
       <c r="J32" s="3">
+        <v>7613700</v>
+      </c>
+      <c r="K32" s="3">
         <v>7585900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6613100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8772900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5954500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6694200</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4542000</v>
+        <v>6576600</v>
       </c>
       <c r="E33" s="3">
-        <v>1380700</v>
+        <v>4623100</v>
       </c>
       <c r="F33" s="3">
-        <v>3715700</v>
+        <v>1405400</v>
       </c>
       <c r="G33" s="3">
-        <v>5379900</v>
+        <v>3782100</v>
       </c>
       <c r="H33" s="3">
-        <v>3404600</v>
+        <v>5476000</v>
       </c>
       <c r="I33" s="3">
-        <v>3401500</v>
+        <v>3465500</v>
       </c>
       <c r="J33" s="3">
+        <v>3462200</v>
+      </c>
+      <c r="K33" s="3">
         <v>2570900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2856000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2492900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2025800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3627100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4542000</v>
+        <v>6576600</v>
       </c>
       <c r="E35" s="3">
-        <v>1380700</v>
+        <v>4623100</v>
       </c>
       <c r="F35" s="3">
-        <v>3715700</v>
+        <v>1405400</v>
       </c>
       <c r="G35" s="3">
-        <v>5379900</v>
+        <v>3782100</v>
       </c>
       <c r="H35" s="3">
-        <v>3404600</v>
+        <v>5476000</v>
       </c>
       <c r="I35" s="3">
-        <v>3401500</v>
+        <v>3465500</v>
       </c>
       <c r="J35" s="3">
+        <v>3462200</v>
+      </c>
+      <c r="K35" s="3">
         <v>2570900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2856000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2492900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2025800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3627100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>91787800</v>
+        <v>107893000</v>
       </c>
       <c r="E41" s="3">
-        <v>91309600</v>
+        <v>93427500</v>
       </c>
       <c r="F41" s="3">
-        <v>65835100</v>
+        <v>92940800</v>
       </c>
       <c r="G41" s="3">
-        <v>75436500</v>
+        <v>67011200</v>
       </c>
       <c r="H41" s="3">
-        <v>80663000</v>
+        <v>76784000</v>
       </c>
       <c r="I41" s="3">
-        <v>84963700</v>
+        <v>82103900</v>
       </c>
       <c r="J41" s="3">
+        <v>86481500</v>
+      </c>
+      <c r="K41" s="3">
         <v>96110800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>99100400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>53576600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9040900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10566600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>204085000</v>
+        <v>237581000</v>
       </c>
       <c r="E42" s="3">
-        <v>194275000</v>
+        <v>207731000</v>
       </c>
       <c r="F42" s="3">
-        <v>178964000</v>
+        <v>197746000</v>
       </c>
       <c r="G42" s="3">
-        <v>164830000</v>
+        <v>182161000</v>
       </c>
       <c r="H42" s="3">
-        <v>147447000</v>
+        <v>167775000</v>
       </c>
       <c r="I42" s="3">
-        <v>177286000</v>
+        <v>150081000</v>
       </c>
       <c r="J42" s="3">
+        <v>180453000</v>
+      </c>
+      <c r="K42" s="3">
         <v>235369000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>242690000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>206910000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>49903000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>45849000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,126 +2152,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>953300</v>
+        <v>1972900</v>
       </c>
       <c r="E47" s="3">
-        <v>1520300</v>
+        <v>970300</v>
       </c>
       <c r="F47" s="3">
-        <v>1574300</v>
+        <v>1547500</v>
       </c>
       <c r="G47" s="3">
-        <v>1669500</v>
+        <v>1602400</v>
       </c>
       <c r="H47" s="3">
-        <v>1680100</v>
+        <v>1699300</v>
       </c>
       <c r="I47" s="3">
-        <v>809400</v>
+        <v>1710100</v>
       </c>
       <c r="J47" s="3">
+        <v>823800</v>
+      </c>
+      <c r="K47" s="3">
         <v>930000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>958900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5672400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11838600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10915300</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7721300</v>
+        <v>9408900</v>
       </c>
       <c r="E48" s="3">
-        <v>8276700</v>
+        <v>7859200</v>
       </c>
       <c r="F48" s="3">
-        <v>10651900</v>
+        <v>8424600</v>
       </c>
       <c r="G48" s="3">
-        <v>7648300</v>
+        <v>10842200</v>
       </c>
       <c r="H48" s="3">
-        <v>7608100</v>
+        <v>7784900</v>
       </c>
       <c r="I48" s="3">
-        <v>9460600</v>
+        <v>7744000</v>
       </c>
       <c r="J48" s="3">
+        <v>9629600</v>
+      </c>
+      <c r="K48" s="3">
         <v>10520800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10848000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9012200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8314100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8365700</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2324400</v>
+        <v>2321800</v>
       </c>
       <c r="E49" s="3">
-        <v>2481000</v>
+        <v>2365900</v>
       </c>
       <c r="F49" s="3">
-        <v>7370000</v>
+        <v>2525300</v>
       </c>
       <c r="G49" s="3">
-        <v>8796200</v>
+        <v>7501700</v>
       </c>
       <c r="H49" s="3">
-        <v>8954900</v>
+        <v>8953300</v>
       </c>
       <c r="I49" s="3">
-        <v>10353600</v>
+        <v>9114900</v>
       </c>
       <c r="J49" s="3">
+        <v>10538500</v>
+      </c>
+      <c r="K49" s="3">
         <v>10635000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10965800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8085100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7830900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8075800</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16904700</v>
+        <v>16981600</v>
       </c>
       <c r="E52" s="3">
-        <v>107190000</v>
+        <v>17206700</v>
       </c>
       <c r="F52" s="3">
-        <v>19464000</v>
+        <v>109105000</v>
       </c>
       <c r="G52" s="3">
-        <v>18321400</v>
+        <v>19811700</v>
       </c>
       <c r="H52" s="3">
-        <v>40815500</v>
+        <v>18648700</v>
       </c>
       <c r="I52" s="3">
-        <v>21153700</v>
+        <v>41544600</v>
       </c>
       <c r="J52" s="3">
+        <v>21531500</v>
+      </c>
+      <c r="K52" s="3">
         <v>20363300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20996700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11007400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>701332000</v>
+        <v>766852000</v>
       </c>
       <c r="E54" s="3">
-        <v>776357000</v>
+        <v>713861000</v>
       </c>
       <c r="F54" s="3">
-        <v>735808000</v>
+        <v>790226000</v>
       </c>
       <c r="G54" s="3">
-        <v>715937000</v>
+        <v>748953000</v>
       </c>
       <c r="H54" s="3">
-        <v>730082000</v>
+        <v>728726000</v>
       </c>
       <c r="I54" s="3">
-        <v>774304000</v>
+        <v>743125000</v>
       </c>
       <c r="J54" s="3">
+        <v>788136000</v>
+      </c>
+      <c r="K54" s="3">
         <v>793347000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>818024000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>697022000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>681937000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>684141000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,47 +2527,51 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6482400</v>
+        <v>6109300</v>
       </c>
       <c r="E57" s="3">
-        <v>5290000</v>
+        <v>6598200</v>
       </c>
       <c r="F57" s="3">
-        <v>4754700</v>
+        <v>5384500</v>
       </c>
       <c r="G57" s="3">
-        <v>5975600</v>
+        <v>4839600</v>
       </c>
       <c r="H57" s="3">
-        <v>5885700</v>
+        <v>6082300</v>
       </c>
       <c r="I57" s="3">
-        <v>6908700</v>
+        <v>5990800</v>
       </c>
       <c r="J57" s="3">
+        <v>7032200</v>
+      </c>
+      <c r="K57" s="3">
         <v>7380600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7610200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2555100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8333800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8697900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2466,57 +2599,63 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>681400</v>
+        <v>4319400</v>
       </c>
       <c r="E59" s="3">
-        <v>577700</v>
+        <v>2994900</v>
       </c>
       <c r="F59" s="3">
-        <v>931000</v>
+        <v>588000</v>
       </c>
       <c r="G59" s="3">
-        <v>1301300</v>
+        <v>947700</v>
       </c>
       <c r="H59" s="3">
-        <v>1178600</v>
+        <v>1324600</v>
       </c>
       <c r="I59" s="3">
-        <v>1905500</v>
+        <v>1199700</v>
       </c>
       <c r="J59" s="3">
+        <v>1939500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1848300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1905800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1424700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6722000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5113100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>65298700</v>
+        <v>61197000</v>
       </c>
       <c r="E61" s="3">
-        <v>72986100</v>
+        <v>66465200</v>
       </c>
       <c r="F61" s="3">
-        <v>76127300</v>
+        <v>74289900</v>
       </c>
       <c r="G61" s="3">
-        <v>67680300</v>
+        <v>77487300</v>
       </c>
       <c r="H61" s="3">
-        <v>67622100</v>
+        <v>68889300</v>
       </c>
       <c r="I61" s="3">
-        <v>80804800</v>
+        <v>68830100</v>
       </c>
       <c r="J61" s="3">
+        <v>82248200</v>
+      </c>
+      <c r="K61" s="3">
         <v>86734800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>89432800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>89327400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>98141400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>126617000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8102200</v>
+        <v>6949200</v>
       </c>
       <c r="E62" s="3">
-        <v>8411100</v>
+        <v>8246900</v>
       </c>
       <c r="F62" s="3">
-        <v>8957000</v>
+        <v>8561400</v>
       </c>
       <c r="G62" s="3">
-        <v>9329400</v>
+        <v>9117000</v>
       </c>
       <c r="H62" s="3">
-        <v>10221300</v>
+        <v>9496100</v>
       </c>
       <c r="I62" s="3">
-        <v>13185900</v>
+        <v>10403900</v>
       </c>
       <c r="J62" s="3">
+        <v>13421400</v>
+      </c>
+      <c r="K62" s="3">
         <v>12981700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13385500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10036100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6343100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6546300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>654879000</v>
+        <v>716352000</v>
       </c>
       <c r="E66" s="3">
-        <v>729224000</v>
+        <v>666577000</v>
       </c>
       <c r="F66" s="3">
-        <v>684258000</v>
+        <v>742251000</v>
       </c>
       <c r="G66" s="3">
-        <v>666095000</v>
+        <v>696482000</v>
       </c>
       <c r="H66" s="3">
-        <v>681051000</v>
+        <v>677994000</v>
       </c>
       <c r="I66" s="3">
-        <v>724193000</v>
+        <v>693217000</v>
       </c>
       <c r="J66" s="3">
+        <v>737129000</v>
+      </c>
+      <c r="K66" s="3">
         <v>743314000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>766435000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>646550000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>636447000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>639341000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36907300</v>
+        <v>43821200</v>
       </c>
       <c r="E72" s="3">
-        <v>33658200</v>
+        <v>36993700</v>
       </c>
       <c r="F72" s="3">
-        <v>34682300</v>
+        <v>34259400</v>
       </c>
       <c r="G72" s="3">
-        <v>29924500</v>
+        <v>34134500</v>
       </c>
       <c r="H72" s="3">
-        <v>28667600</v>
+        <v>29409100</v>
       </c>
       <c r="I72" s="3">
-        <v>28667600</v>
+        <v>28056500</v>
       </c>
       <c r="J72" s="3">
+        <v>27553600</v>
+      </c>
+      <c r="K72" s="3">
         <v>26589700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>27416800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26138200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21110100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21373900</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46453600</v>
+        <v>50500100</v>
       </c>
       <c r="E76" s="3">
-        <v>47132800</v>
+        <v>47283400</v>
       </c>
       <c r="F76" s="3">
-        <v>51550000</v>
+        <v>47974800</v>
       </c>
       <c r="G76" s="3">
-        <v>49842400</v>
+        <v>52470900</v>
       </c>
       <c r="H76" s="3">
-        <v>49032000</v>
+        <v>50732800</v>
       </c>
       <c r="I76" s="3">
-        <v>50111100</v>
+        <v>49907900</v>
       </c>
       <c r="J76" s="3">
+        <v>51006300</v>
+      </c>
+      <c r="K76" s="3">
         <v>50032800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51589100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50472500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>45490100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>44799600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4542000</v>
+        <v>6576600</v>
       </c>
       <c r="E81" s="3">
-        <v>1380700</v>
+        <v>4623100</v>
       </c>
       <c r="F81" s="3">
-        <v>3715700</v>
+        <v>1405400</v>
       </c>
       <c r="G81" s="3">
-        <v>5379900</v>
+        <v>3782100</v>
       </c>
       <c r="H81" s="3">
-        <v>3404600</v>
+        <v>5476000</v>
       </c>
       <c r="I81" s="3">
-        <v>3401500</v>
+        <v>3465500</v>
       </c>
       <c r="J81" s="3">
+        <v>3462200</v>
+      </c>
+      <c r="K81" s="3">
         <v>2570900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2856000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2492900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2025800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3627100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1362700</v>
+        <v>1430100</v>
       </c>
       <c r="E83" s="3">
-        <v>1466400</v>
+        <v>1328900</v>
       </c>
       <c r="F83" s="3">
-        <v>1278100</v>
+        <v>1387000</v>
       </c>
       <c r="G83" s="3">
-        <v>1467400</v>
+        <v>1492600</v>
       </c>
       <c r="H83" s="3">
-        <v>1508700</v>
+        <v>1300900</v>
       </c>
       <c r="I83" s="3">
-        <v>1345800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+        <v>1493700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1535700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>1314600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>8372800</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>41631200</v>
+        <v>25543000</v>
       </c>
       <c r="E89" s="3">
-        <v>-11271900</v>
+        <v>-1337500</v>
       </c>
       <c r="F89" s="3">
-        <v>9785400</v>
+        <v>42374900</v>
       </c>
       <c r="G89" s="3">
-        <v>2175200</v>
+        <v>-11473300</v>
       </c>
       <c r="H89" s="3">
-        <v>7007100</v>
+        <v>9960200</v>
       </c>
       <c r="I89" s="3">
-        <v>24440900</v>
+        <v>2214100</v>
       </c>
       <c r="J89" s="3">
+        <v>7132300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-6546900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6750600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-598100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10681300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20168400</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-668700</v>
+        <v>-1951300</v>
       </c>
       <c r="E91" s="3">
-        <v>-901400</v>
+        <v>-426500</v>
       </c>
       <c r="F91" s="3">
-        <v>-997700</v>
+        <v>-680600</v>
       </c>
       <c r="G91" s="3">
-        <v>-822100</v>
+        <v>-917500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1388100</v>
+        <v>-1015500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2296900</v>
+        <v>-836800</v>
       </c>
       <c r="J91" s="3">
+        <v>-1412900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1501300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1548000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1497600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1850100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2244300</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-39100</v>
+        <v>-4211800</v>
       </c>
       <c r="E94" s="3">
-        <v>102600</v>
+        <v>-1759700</v>
       </c>
       <c r="F94" s="3">
-        <v>7951900</v>
+        <v>-39800</v>
       </c>
       <c r="G94" s="3">
-        <v>3070300</v>
+        <v>104500</v>
       </c>
       <c r="H94" s="3">
-        <v>-592500</v>
+        <v>8094000</v>
       </c>
       <c r="I94" s="3">
-        <v>-4666800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+        <v>3125200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-603100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>3613700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-5977000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1126800</v>
+        <v>-2353000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2271500</v>
+        <v>-997200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2229200</v>
+        <v>-1146900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1796500</v>
+        <v>-2312100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1691700</v>
+        <v>-2269000</v>
       </c>
       <c r="I96" s="3">
-        <v>-930000</v>
+        <v>-1828600</v>
       </c>
       <c r="J96" s="3">
+        <v>-1722000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-873900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-901100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1525200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1393400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1210200</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2189000</v>
+        <v>-8144600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2858700</v>
+        <v>-4683400</v>
       </c>
       <c r="F100" s="3">
-        <v>-5387300</v>
+        <v>-2228100</v>
       </c>
       <c r="G100" s="3">
-        <v>-103700</v>
+        <v>-2909800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1177600</v>
+        <v>-5483600</v>
       </c>
       <c r="I100" s="3">
-        <v>134400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+        <v>-105500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1198600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1586200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1489600</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4928200</v>
+        <v>-310100</v>
       </c>
       <c r="E101" s="3">
-        <v>-670800</v>
+        <v>-2007300</v>
       </c>
       <c r="F101" s="3">
-        <v>-2642900</v>
+        <v>-5016200</v>
       </c>
       <c r="G101" s="3">
-        <v>-4513400</v>
+        <v>-682800</v>
       </c>
       <c r="H101" s="3">
-        <v>-3663900</v>
+        <v>-2690100</v>
       </c>
       <c r="I101" s="3">
-        <v>-7174300</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+        <v>-4594100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-3729300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-2134000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1125700</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>34474900</v>
+        <v>12876500</v>
       </c>
       <c r="E102" s="3">
-        <v>-14698800</v>
+        <v>-9787900</v>
       </c>
       <c r="F102" s="3">
-        <v>9707200</v>
+        <v>35090800</v>
       </c>
       <c r="G102" s="3">
-        <v>628500</v>
+        <v>-14961400</v>
       </c>
       <c r="H102" s="3">
-        <v>1575400</v>
+        <v>9880600</v>
       </c>
       <c r="I102" s="3">
-        <v>12734100</v>
+        <v>639700</v>
       </c>
       <c r="J102" s="3">
+        <v>1603500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3657500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3771300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-704600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6200400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11576100</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>33848000</v>
+        <v>34074300</v>
       </c>
       <c r="E8" s="3">
-        <v>24783800</v>
+        <v>24949500</v>
       </c>
       <c r="F8" s="3">
-        <v>24110700</v>
+        <v>24271900</v>
       </c>
       <c r="G8" s="3">
-        <v>29895800</v>
+        <v>30095700</v>
       </c>
       <c r="H8" s="3">
-        <v>32122900</v>
+        <v>32337600</v>
       </c>
       <c r="I8" s="3">
-        <v>31548900</v>
+        <v>31759800</v>
       </c>
       <c r="J8" s="3">
-        <v>29838700</v>
+        <v>30038200</v>
       </c>
       <c r="K8" s="3">
         <v>26220400</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1430100</v>
+        <v>-1439700</v>
       </c>
       <c r="E15" s="3">
-        <v>-1328900</v>
+        <v>-1337800</v>
       </c>
       <c r="F15" s="3">
-        <v>-1388100</v>
+        <v>-1397400</v>
       </c>
       <c r="G15" s="3">
-        <v>-1491500</v>
+        <v>-1501500</v>
       </c>
       <c r="H15" s="3">
-        <v>-1300900</v>
+        <v>-1309600</v>
       </c>
       <c r="I15" s="3">
-        <v>-1493700</v>
+        <v>-1503600</v>
       </c>
       <c r="J15" s="3">
-        <v>-1535700</v>
+        <v>-1545900</v>
       </c>
       <c r="K15" s="3">
         <v>-1345800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16780300</v>
+        <v>16892400</v>
       </c>
       <c r="E17" s="3">
-        <v>12218500</v>
+        <v>12300200</v>
       </c>
       <c r="F17" s="3">
-        <v>13953400</v>
+        <v>14046700</v>
       </c>
       <c r="G17" s="3">
-        <v>16629500</v>
+        <v>16740700</v>
       </c>
       <c r="H17" s="3">
-        <v>17466200</v>
+        <v>17583000</v>
       </c>
       <c r="I17" s="3">
-        <v>16384000</v>
+        <v>16493500</v>
       </c>
       <c r="J17" s="3">
-        <v>15341500</v>
+        <v>15444100</v>
       </c>
       <c r="K17" s="3">
         <v>13764600</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17067800</v>
+        <v>17181900</v>
       </c>
       <c r="E18" s="3">
-        <v>12565300</v>
+        <v>12649300</v>
       </c>
       <c r="F18" s="3">
-        <v>10157300</v>
+        <v>10225200</v>
       </c>
       <c r="G18" s="3">
-        <v>13266300</v>
+        <v>13355000</v>
       </c>
       <c r="H18" s="3">
-        <v>14656600</v>
+        <v>14754600</v>
       </c>
       <c r="I18" s="3">
-        <v>15164900</v>
+        <v>15266300</v>
       </c>
       <c r="J18" s="3">
-        <v>14497200</v>
+        <v>14594200</v>
       </c>
       <c r="K18" s="3">
         <v>12455800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5915400</v>
+        <v>-5955000</v>
       </c>
       <c r="E20" s="3">
-        <v>-4761000</v>
+        <v>-4792800</v>
       </c>
       <c r="F20" s="3">
-        <v>-4505700</v>
+        <v>-4535900</v>
       </c>
       <c r="G20" s="3">
-        <v>-5678500</v>
+        <v>-5716500</v>
       </c>
       <c r="H20" s="3">
-        <v>-5563300</v>
+        <v>-5600500</v>
       </c>
       <c r="I20" s="3">
-        <v>-7700900</v>
+        <v>-7752400</v>
       </c>
       <c r="J20" s="3">
-        <v>-7613700</v>
+        <v>-7664600</v>
       </c>
       <c r="K20" s="3">
         <v>-7585900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12591800</v>
+        <v>12666600</v>
       </c>
       <c r="E21" s="3">
-        <v>9141800</v>
+        <v>9194300</v>
       </c>
       <c r="F21" s="3">
-        <v>7047600</v>
+        <v>7085700</v>
       </c>
       <c r="G21" s="3">
-        <v>9090100</v>
+        <v>9141100</v>
       </c>
       <c r="H21" s="3">
-        <v>10402700</v>
+        <v>10463700</v>
       </c>
       <c r="I21" s="3">
-        <v>8967400</v>
+        <v>9017500</v>
       </c>
       <c r="J21" s="3">
-        <v>8429200</v>
+        <v>8475500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11152400</v>
+        <v>11226900</v>
       </c>
       <c r="E23" s="3">
-        <v>7804300</v>
+        <v>7856500</v>
       </c>
       <c r="F23" s="3">
-        <v>5651600</v>
+        <v>5689400</v>
       </c>
       <c r="G23" s="3">
-        <v>7587800</v>
+        <v>7638600</v>
       </c>
       <c r="H23" s="3">
-        <v>9093300</v>
+        <v>9154100</v>
       </c>
       <c r="I23" s="3">
-        <v>7464000</v>
+        <v>7513900</v>
       </c>
       <c r="J23" s="3">
-        <v>6883500</v>
+        <v>6929600</v>
       </c>
       <c r="K23" s="3">
         <v>4870000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3800400</v>
+        <v>3825800</v>
       </c>
       <c r="E24" s="3">
-        <v>2055800</v>
+        <v>2069500</v>
       </c>
       <c r="F24" s="3">
-        <v>1571200</v>
+        <v>1581700</v>
       </c>
       <c r="G24" s="3">
-        <v>2092400</v>
+        <v>2106400</v>
       </c>
       <c r="H24" s="3">
-        <v>2389600</v>
+        <v>2405600</v>
       </c>
       <c r="I24" s="3">
-        <v>2335800</v>
+        <v>2351400</v>
       </c>
       <c r="J24" s="3">
-        <v>1829700</v>
+        <v>1841900</v>
       </c>
       <c r="K24" s="3">
         <v>1347900</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7352000</v>
+        <v>7401200</v>
       </c>
       <c r="E26" s="3">
-        <v>5748500</v>
+        <v>5786900</v>
       </c>
       <c r="F26" s="3">
-        <v>4080400</v>
+        <v>4107700</v>
       </c>
       <c r="G26" s="3">
-        <v>5495400</v>
+        <v>5532200</v>
       </c>
       <c r="H26" s="3">
-        <v>6703700</v>
+        <v>6748500</v>
       </c>
       <c r="I26" s="3">
-        <v>5128200</v>
+        <v>5162500</v>
       </c>
       <c r="J26" s="3">
-        <v>5053900</v>
+        <v>5087700</v>
       </c>
       <c r="K26" s="3">
         <v>3522100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6576600</v>
+        <v>6620600</v>
       </c>
       <c r="E27" s="3">
-        <v>4321600</v>
+        <v>4350500</v>
       </c>
       <c r="F27" s="3">
-        <v>3267300</v>
+        <v>3289200</v>
       </c>
       <c r="G27" s="3">
-        <v>4598400</v>
+        <v>4629100</v>
       </c>
       <c r="H27" s="3">
-        <v>5476000</v>
+        <v>5512600</v>
       </c>
       <c r="I27" s="3">
-        <v>3465500</v>
+        <v>3488600</v>
       </c>
       <c r="J27" s="3">
-        <v>3462200</v>
+        <v>3485400</v>
       </c>
       <c r="K27" s="3">
         <v>2570900</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>301500</v>
+        <v>303500</v>
       </c>
       <c r="F29" s="3">
-        <v>-1862000</v>
+        <v>-1874400</v>
       </c>
       <c r="G29" s="3">
-        <v>-816300</v>
+        <v>-821700</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5915400</v>
+        <v>5955000</v>
       </c>
       <c r="E32" s="3">
-        <v>4761000</v>
+        <v>4792800</v>
       </c>
       <c r="F32" s="3">
-        <v>4505700</v>
+        <v>4535900</v>
       </c>
       <c r="G32" s="3">
-        <v>5678500</v>
+        <v>5716500</v>
       </c>
       <c r="H32" s="3">
-        <v>5563300</v>
+        <v>5600500</v>
       </c>
       <c r="I32" s="3">
-        <v>7700900</v>
+        <v>7752400</v>
       </c>
       <c r="J32" s="3">
-        <v>7613700</v>
+        <v>7664600</v>
       </c>
       <c r="K32" s="3">
         <v>7585900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6576600</v>
+        <v>6620600</v>
       </c>
       <c r="E33" s="3">
-        <v>4623100</v>
+        <v>4654000</v>
       </c>
       <c r="F33" s="3">
-        <v>1405400</v>
+        <v>1414800</v>
       </c>
       <c r="G33" s="3">
-        <v>3782100</v>
+        <v>3807400</v>
       </c>
       <c r="H33" s="3">
-        <v>5476000</v>
+        <v>5512600</v>
       </c>
       <c r="I33" s="3">
-        <v>3465500</v>
+        <v>3488600</v>
       </c>
       <c r="J33" s="3">
-        <v>3462200</v>
+        <v>3485400</v>
       </c>
       <c r="K33" s="3">
         <v>2570900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6576600</v>
+        <v>6620600</v>
       </c>
       <c r="E35" s="3">
-        <v>4623100</v>
+        <v>4654000</v>
       </c>
       <c r="F35" s="3">
-        <v>1405400</v>
+        <v>1414800</v>
       </c>
       <c r="G35" s="3">
-        <v>3782100</v>
+        <v>3807400</v>
       </c>
       <c r="H35" s="3">
-        <v>5476000</v>
+        <v>5512600</v>
       </c>
       <c r="I35" s="3">
-        <v>3465500</v>
+        <v>3488600</v>
       </c>
       <c r="J35" s="3">
-        <v>3462200</v>
+        <v>3485400</v>
       </c>
       <c r="K35" s="3">
         <v>2570900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>107893000</v>
+        <v>108614000</v>
       </c>
       <c r="E41" s="3">
-        <v>93427500</v>
+        <v>94052200</v>
       </c>
       <c r="F41" s="3">
-        <v>92940800</v>
+        <v>93562200</v>
       </c>
       <c r="G41" s="3">
-        <v>67011200</v>
+        <v>67459200</v>
       </c>
       <c r="H41" s="3">
-        <v>76784000</v>
+        <v>77297400</v>
       </c>
       <c r="I41" s="3">
-        <v>82103900</v>
+        <v>82652900</v>
       </c>
       <c r="J41" s="3">
-        <v>86481500</v>
+        <v>87059700</v>
       </c>
       <c r="K41" s="3">
         <v>96110800</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>237581000</v>
+        <v>239170000</v>
       </c>
       <c r="E42" s="3">
-        <v>207731000</v>
+        <v>209120000</v>
       </c>
       <c r="F42" s="3">
-        <v>197746000</v>
+        <v>199068000</v>
       </c>
       <c r="G42" s="3">
-        <v>182161000</v>
+        <v>183379000</v>
       </c>
       <c r="H42" s="3">
-        <v>167775000</v>
+        <v>168896000</v>
       </c>
       <c r="I42" s="3">
-        <v>150081000</v>
+        <v>151085000</v>
       </c>
       <c r="J42" s="3">
-        <v>180453000</v>
+        <v>181659000</v>
       </c>
       <c r="K42" s="3">
         <v>235369000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1972900</v>
+        <v>1986100</v>
       </c>
       <c r="E47" s="3">
-        <v>970300</v>
+        <v>976800</v>
       </c>
       <c r="F47" s="3">
-        <v>1547500</v>
+        <v>1557900</v>
       </c>
       <c r="G47" s="3">
-        <v>1602400</v>
+        <v>1613100</v>
       </c>
       <c r="H47" s="3">
-        <v>1699300</v>
+        <v>1710700</v>
       </c>
       <c r="I47" s="3">
-        <v>1710100</v>
+        <v>1721600</v>
       </c>
       <c r="J47" s="3">
-        <v>823800</v>
+        <v>829300</v>
       </c>
       <c r="K47" s="3">
         <v>930000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9408900</v>
+        <v>9471800</v>
       </c>
       <c r="E48" s="3">
-        <v>7859200</v>
+        <v>7911800</v>
       </c>
       <c r="F48" s="3">
-        <v>8424600</v>
+        <v>8480900</v>
       </c>
       <c r="G48" s="3">
-        <v>10842200</v>
+        <v>10914700</v>
       </c>
       <c r="H48" s="3">
-        <v>7784900</v>
+        <v>7837000</v>
       </c>
       <c r="I48" s="3">
-        <v>7744000</v>
+        <v>7795800</v>
       </c>
       <c r="J48" s="3">
-        <v>9629600</v>
+        <v>9694000</v>
       </c>
       <c r="K48" s="3">
         <v>10520800</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2321800</v>
+        <v>2337300</v>
       </c>
       <c r="E49" s="3">
-        <v>2365900</v>
+        <v>2381800</v>
       </c>
       <c r="F49" s="3">
-        <v>2525300</v>
+        <v>2542200</v>
       </c>
       <c r="G49" s="3">
-        <v>7501700</v>
+        <v>7551800</v>
       </c>
       <c r="H49" s="3">
-        <v>8953300</v>
+        <v>9013200</v>
       </c>
       <c r="I49" s="3">
-        <v>9114900</v>
+        <v>9175800</v>
       </c>
       <c r="J49" s="3">
-        <v>10538500</v>
+        <v>10609000</v>
       </c>
       <c r="K49" s="3">
         <v>10635000</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16981600</v>
+        <v>17095200</v>
       </c>
       <c r="E52" s="3">
-        <v>17206700</v>
+        <v>17321700</v>
       </c>
       <c r="F52" s="3">
-        <v>109105000</v>
+        <v>109835000</v>
       </c>
       <c r="G52" s="3">
-        <v>19811700</v>
+        <v>19944200</v>
       </c>
       <c r="H52" s="3">
-        <v>18648700</v>
+        <v>18773400</v>
       </c>
       <c r="I52" s="3">
-        <v>41544600</v>
+        <v>41822400</v>
       </c>
       <c r="J52" s="3">
-        <v>21531500</v>
+        <v>21675500</v>
       </c>
       <c r="K52" s="3">
         <v>20363300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>766852000</v>
+        <v>771979000</v>
       </c>
       <c r="E54" s="3">
-        <v>713861000</v>
+        <v>718634000</v>
       </c>
       <c r="F54" s="3">
-        <v>790226000</v>
+        <v>795509000</v>
       </c>
       <c r="G54" s="3">
-        <v>748953000</v>
+        <v>753960000</v>
       </c>
       <c r="H54" s="3">
-        <v>728726000</v>
+        <v>733599000</v>
       </c>
       <c r="I54" s="3">
-        <v>743125000</v>
+        <v>748093000</v>
       </c>
       <c r="J54" s="3">
-        <v>788136000</v>
+        <v>793405000</v>
       </c>
       <c r="K54" s="3">
         <v>793347000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6109300</v>
+        <v>6150100</v>
       </c>
       <c r="E57" s="3">
-        <v>6598200</v>
+        <v>6642300</v>
       </c>
       <c r="F57" s="3">
-        <v>5384500</v>
+        <v>5420500</v>
       </c>
       <c r="G57" s="3">
-        <v>4839600</v>
+        <v>4871900</v>
       </c>
       <c r="H57" s="3">
-        <v>6082300</v>
+        <v>6123000</v>
       </c>
       <c r="I57" s="3">
-        <v>5990800</v>
+        <v>6030800</v>
       </c>
       <c r="J57" s="3">
-        <v>7032200</v>
+        <v>7079200</v>
       </c>
       <c r="K57" s="3">
         <v>7380600</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4319400</v>
+        <v>4348300</v>
       </c>
       <c r="E59" s="3">
-        <v>2994900</v>
+        <v>3014900</v>
       </c>
       <c r="F59" s="3">
-        <v>588000</v>
+        <v>591900</v>
       </c>
       <c r="G59" s="3">
-        <v>947700</v>
+        <v>954000</v>
       </c>
       <c r="H59" s="3">
-        <v>1324600</v>
+        <v>1333400</v>
       </c>
       <c r="I59" s="3">
-        <v>1199700</v>
+        <v>1207700</v>
       </c>
       <c r="J59" s="3">
-        <v>1939500</v>
+        <v>1952500</v>
       </c>
       <c r="K59" s="3">
         <v>1848300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61197000</v>
+        <v>61606200</v>
       </c>
       <c r="E61" s="3">
-        <v>66465200</v>
+        <v>66909600</v>
       </c>
       <c r="F61" s="3">
-        <v>74289900</v>
+        <v>74786600</v>
       </c>
       <c r="G61" s="3">
-        <v>77487300</v>
+        <v>78005300</v>
       </c>
       <c r="H61" s="3">
-        <v>68889300</v>
+        <v>69349900</v>
       </c>
       <c r="I61" s="3">
-        <v>68830100</v>
+        <v>69290300</v>
       </c>
       <c r="J61" s="3">
-        <v>82248200</v>
+        <v>82798100</v>
       </c>
       <c r="K61" s="3">
         <v>86734800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6949200</v>
+        <v>6995700</v>
       </c>
       <c r="E62" s="3">
-        <v>8246900</v>
+        <v>8302000</v>
       </c>
       <c r="F62" s="3">
-        <v>8561400</v>
+        <v>8618600</v>
       </c>
       <c r="G62" s="3">
-        <v>9117000</v>
+        <v>9178000</v>
       </c>
       <c r="H62" s="3">
-        <v>9496100</v>
+        <v>9559600</v>
       </c>
       <c r="I62" s="3">
-        <v>10403900</v>
+        <v>10473500</v>
       </c>
       <c r="J62" s="3">
-        <v>13421400</v>
+        <v>13511100</v>
       </c>
       <c r="K62" s="3">
         <v>12981700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>716352000</v>
+        <v>721141000</v>
       </c>
       <c r="E66" s="3">
-        <v>666577000</v>
+        <v>671034000</v>
       </c>
       <c r="F66" s="3">
-        <v>742251000</v>
+        <v>747214000</v>
       </c>
       <c r="G66" s="3">
-        <v>696482000</v>
+        <v>701138000</v>
       </c>
       <c r="H66" s="3">
-        <v>677994000</v>
+        <v>682527000</v>
       </c>
       <c r="I66" s="3">
-        <v>693217000</v>
+        <v>697851000</v>
       </c>
       <c r="J66" s="3">
-        <v>737129000</v>
+        <v>742058000</v>
       </c>
       <c r="K66" s="3">
         <v>743314000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43821200</v>
+        <v>44114200</v>
       </c>
       <c r="E72" s="3">
-        <v>36993700</v>
+        <v>37241000</v>
       </c>
       <c r="F72" s="3">
-        <v>34259400</v>
+        <v>34488500</v>
       </c>
       <c r="G72" s="3">
-        <v>34134500</v>
+        <v>34362700</v>
       </c>
       <c r="H72" s="3">
-        <v>29409100</v>
+        <v>29605700</v>
       </c>
       <c r="I72" s="3">
-        <v>28056500</v>
+        <v>28244100</v>
       </c>
       <c r="J72" s="3">
-        <v>27553600</v>
+        <v>27737800</v>
       </c>
       <c r="K72" s="3">
         <v>26589700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50500100</v>
+        <v>50837800</v>
       </c>
       <c r="E76" s="3">
-        <v>47283400</v>
+        <v>47599600</v>
       </c>
       <c r="F76" s="3">
-        <v>47974800</v>
+        <v>48295600</v>
       </c>
       <c r="G76" s="3">
-        <v>52470900</v>
+        <v>52821700</v>
       </c>
       <c r="H76" s="3">
-        <v>50732800</v>
+        <v>51072000</v>
       </c>
       <c r="I76" s="3">
-        <v>49907900</v>
+        <v>50241500</v>
       </c>
       <c r="J76" s="3">
-        <v>51006300</v>
+        <v>51347300</v>
       </c>
       <c r="K76" s="3">
         <v>50032800</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6576600</v>
+        <v>6620600</v>
       </c>
       <c r="E81" s="3">
-        <v>4623100</v>
+        <v>4654000</v>
       </c>
       <c r="F81" s="3">
-        <v>1405400</v>
+        <v>1414800</v>
       </c>
       <c r="G81" s="3">
-        <v>3782100</v>
+        <v>3807400</v>
       </c>
       <c r="H81" s="3">
-        <v>5476000</v>
+        <v>5512600</v>
       </c>
       <c r="I81" s="3">
-        <v>3465500</v>
+        <v>3488600</v>
       </c>
       <c r="J81" s="3">
-        <v>3462200</v>
+        <v>3485400</v>
       </c>
       <c r="K81" s="3">
         <v>2570900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1430100</v>
+        <v>1439700</v>
       </c>
       <c r="E83" s="3">
-        <v>1328900</v>
+        <v>1337800</v>
       </c>
       <c r="F83" s="3">
-        <v>1387000</v>
+        <v>1396300</v>
       </c>
       <c r="G83" s="3">
-        <v>1492600</v>
+        <v>1502600</v>
       </c>
       <c r="H83" s="3">
-        <v>1300900</v>
+        <v>1309600</v>
       </c>
       <c r="I83" s="3">
-        <v>1493700</v>
+        <v>1503600</v>
       </c>
       <c r="J83" s="3">
-        <v>1535700</v>
+        <v>1545900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25543000</v>
+        <v>25713800</v>
       </c>
       <c r="E89" s="3">
-        <v>-1337500</v>
+        <v>-1346500</v>
       </c>
       <c r="F89" s="3">
-        <v>42374900</v>
+        <v>42658300</v>
       </c>
       <c r="G89" s="3">
-        <v>-11473300</v>
+        <v>-11550000</v>
       </c>
       <c r="H89" s="3">
-        <v>9960200</v>
+        <v>10026800</v>
       </c>
       <c r="I89" s="3">
-        <v>2214100</v>
+        <v>2228900</v>
       </c>
       <c r="J89" s="3">
-        <v>7132300</v>
+        <v>7180000</v>
       </c>
       <c r="K89" s="3">
         <v>-6546900</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1951300</v>
+        <v>-1964400</v>
       </c>
       <c r="E91" s="3">
-        <v>-426500</v>
+        <v>-429300</v>
       </c>
       <c r="F91" s="3">
-        <v>-680600</v>
+        <v>-685200</v>
       </c>
       <c r="G91" s="3">
-        <v>-917500</v>
+        <v>-923700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1015500</v>
+        <v>-1022300</v>
       </c>
       <c r="I91" s="3">
-        <v>-836800</v>
+        <v>-842300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1412900</v>
+        <v>-1422300</v>
       </c>
       <c r="K91" s="3">
         <v>-1501300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4211800</v>
+        <v>-4239900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1759700</v>
+        <v>-1771400</v>
       </c>
       <c r="F94" s="3">
-        <v>-39800</v>
+        <v>-40100</v>
       </c>
       <c r="G94" s="3">
-        <v>104500</v>
+        <v>105200</v>
       </c>
       <c r="H94" s="3">
-        <v>8094000</v>
+        <v>8148100</v>
       </c>
       <c r="I94" s="3">
-        <v>3125200</v>
+        <v>3146100</v>
       </c>
       <c r="J94" s="3">
-        <v>-603100</v>
+        <v>-607100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2353000</v>
+        <v>-2368800</v>
       </c>
       <c r="E96" s="3">
-        <v>-997200</v>
+        <v>-1003900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1146900</v>
+        <v>-1154600</v>
       </c>
       <c r="G96" s="3">
-        <v>-2312100</v>
+        <v>-2327600</v>
       </c>
       <c r="H96" s="3">
-        <v>-2269000</v>
+        <v>-2284200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1828600</v>
+        <v>-1840800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1722000</v>
+        <v>-1733500</v>
       </c>
       <c r="K96" s="3">
         <v>-873900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8144600</v>
+        <v>-8199000</v>
       </c>
       <c r="E100" s="3">
-        <v>-4683400</v>
+        <v>-4714800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2228100</v>
+        <v>-2243000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2909800</v>
+        <v>-2929200</v>
       </c>
       <c r="H100" s="3">
-        <v>-5483600</v>
+        <v>-5520200</v>
       </c>
       <c r="I100" s="3">
-        <v>-105500</v>
+        <v>-106200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1198600</v>
+        <v>-1206600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-310100</v>
+        <v>-312200</v>
       </c>
       <c r="E101" s="3">
-        <v>-2007300</v>
+        <v>-2020800</v>
       </c>
       <c r="F101" s="3">
-        <v>-5016200</v>
+        <v>-5049700</v>
       </c>
       <c r="G101" s="3">
-        <v>-682800</v>
+        <v>-687300</v>
       </c>
       <c r="H101" s="3">
-        <v>-2690100</v>
+        <v>-2708100</v>
       </c>
       <c r="I101" s="3">
-        <v>-4594100</v>
+        <v>-4624800</v>
       </c>
       <c r="J101" s="3">
-        <v>-3729300</v>
+        <v>-3754200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>12876500</v>
+        <v>12962600</v>
       </c>
       <c r="E102" s="3">
-        <v>-9787900</v>
+        <v>-9853400</v>
       </c>
       <c r="F102" s="3">
-        <v>35090800</v>
+        <v>35325400</v>
       </c>
       <c r="G102" s="3">
-        <v>-14961400</v>
+        <v>-15061400</v>
       </c>
       <c r="H102" s="3">
-        <v>9880600</v>
+        <v>9946600</v>
       </c>
       <c r="I102" s="3">
-        <v>639700</v>
+        <v>644000</v>
       </c>
       <c r="J102" s="3">
-        <v>1603500</v>
+        <v>1614200</v>
       </c>
       <c r="K102" s="3">
         <v>-3657500</v>

--- a/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BBVA_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34074300</v>
+        <v>34102600</v>
       </c>
       <c r="E8" s="3">
-        <v>24949500</v>
+        <v>24970200</v>
       </c>
       <c r="F8" s="3">
-        <v>24271900</v>
+        <v>24292100</v>
       </c>
       <c r="G8" s="3">
-        <v>30095700</v>
+        <v>30120700</v>
       </c>
       <c r="H8" s="3">
-        <v>32337600</v>
+        <v>32364500</v>
       </c>
       <c r="I8" s="3">
-        <v>31759800</v>
+        <v>31786200</v>
       </c>
       <c r="J8" s="3">
-        <v>30038200</v>
+        <v>30063200</v>
       </c>
       <c r="K8" s="3">
         <v>26220400</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1439700</v>
+        <v>-1440900</v>
       </c>
       <c r="E15" s="3">
-        <v>-1337800</v>
+        <v>-1338900</v>
       </c>
       <c r="F15" s="3">
-        <v>-1397400</v>
+        <v>-1398600</v>
       </c>
       <c r="G15" s="3">
-        <v>-1501500</v>
+        <v>-1502700</v>
       </c>
       <c r="H15" s="3">
-        <v>-1309600</v>
+        <v>-1310700</v>
       </c>
       <c r="I15" s="3">
-        <v>-1503600</v>
+        <v>-1504900</v>
       </c>
       <c r="J15" s="3">
-        <v>-1545900</v>
+        <v>-1547200</v>
       </c>
       <c r="K15" s="3">
         <v>-1345800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16892400</v>
+        <v>16906500</v>
       </c>
       <c r="E17" s="3">
-        <v>12300200</v>
+        <v>12310400</v>
       </c>
       <c r="F17" s="3">
-        <v>14046700</v>
+        <v>14058300</v>
       </c>
       <c r="G17" s="3">
-        <v>16740700</v>
+        <v>16754600</v>
       </c>
       <c r="H17" s="3">
-        <v>17583000</v>
+        <v>17597600</v>
       </c>
       <c r="I17" s="3">
-        <v>16493500</v>
+        <v>16507200</v>
       </c>
       <c r="J17" s="3">
-        <v>15444100</v>
+        <v>15456900</v>
       </c>
       <c r="K17" s="3">
         <v>13764600</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17181900</v>
+        <v>17196200</v>
       </c>
       <c r="E18" s="3">
-        <v>12649300</v>
+        <v>12659800</v>
       </c>
       <c r="F18" s="3">
-        <v>10225200</v>
+        <v>10233700</v>
       </c>
       <c r="G18" s="3">
-        <v>13355000</v>
+        <v>13366100</v>
       </c>
       <c r="H18" s="3">
-        <v>14754600</v>
+        <v>14766900</v>
       </c>
       <c r="I18" s="3">
-        <v>15266300</v>
+        <v>15279000</v>
       </c>
       <c r="J18" s="3">
-        <v>14594200</v>
+        <v>14606300</v>
       </c>
       <c r="K18" s="3">
         <v>12455800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5955000</v>
+        <v>-5959900</v>
       </c>
       <c r="E20" s="3">
-        <v>-4792800</v>
+        <v>-4796800</v>
       </c>
       <c r="F20" s="3">
-        <v>-4535900</v>
+        <v>-4539600</v>
       </c>
       <c r="G20" s="3">
-        <v>-5716500</v>
+        <v>-5721200</v>
       </c>
       <c r="H20" s="3">
-        <v>-5600500</v>
+        <v>-5605100</v>
       </c>
       <c r="I20" s="3">
-        <v>-7752400</v>
+        <v>-7758800</v>
       </c>
       <c r="J20" s="3">
-        <v>-7664600</v>
+        <v>-7671000</v>
       </c>
       <c r="K20" s="3">
         <v>-7585900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12666600</v>
+        <v>12676600</v>
       </c>
       <c r="E21" s="3">
-        <v>9194300</v>
+        <v>9201400</v>
       </c>
       <c r="F21" s="3">
-        <v>7085700</v>
+        <v>7091000</v>
       </c>
       <c r="G21" s="3">
-        <v>9141100</v>
+        <v>9148200</v>
       </c>
       <c r="H21" s="3">
-        <v>10463700</v>
+        <v>10471900</v>
       </c>
       <c r="I21" s="3">
-        <v>9017500</v>
+        <v>9024500</v>
       </c>
       <c r="J21" s="3">
-        <v>8475500</v>
+        <v>8482000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11226900</v>
+        <v>11236300</v>
       </c>
       <c r="E23" s="3">
-        <v>7856500</v>
+        <v>7863000</v>
       </c>
       <c r="F23" s="3">
-        <v>5689400</v>
+        <v>5694100</v>
       </c>
       <c r="G23" s="3">
-        <v>7638600</v>
+        <v>7644900</v>
       </c>
       <c r="H23" s="3">
-        <v>9154100</v>
+        <v>9161700</v>
       </c>
       <c r="I23" s="3">
-        <v>7513900</v>
+        <v>7520100</v>
       </c>
       <c r="J23" s="3">
-        <v>6929600</v>
+        <v>6935300</v>
       </c>
       <c r="K23" s="3">
         <v>4870000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3825800</v>
+        <v>3829000</v>
       </c>
       <c r="E24" s="3">
-        <v>2069500</v>
+        <v>2071300</v>
       </c>
       <c r="F24" s="3">
-        <v>1581700</v>
+        <v>1583000</v>
       </c>
       <c r="G24" s="3">
-        <v>2106400</v>
+        <v>2108200</v>
       </c>
       <c r="H24" s="3">
-        <v>2405600</v>
+        <v>2407600</v>
       </c>
       <c r="I24" s="3">
-        <v>2351400</v>
+        <v>2353400</v>
       </c>
       <c r="J24" s="3">
-        <v>1841900</v>
+        <v>1843400</v>
       </c>
       <c r="K24" s="3">
         <v>1347900</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7401200</v>
+        <v>7407300</v>
       </c>
       <c r="E26" s="3">
-        <v>5786900</v>
+        <v>5791700</v>
       </c>
       <c r="F26" s="3">
-        <v>4107700</v>
+        <v>4111100</v>
       </c>
       <c r="G26" s="3">
-        <v>5532200</v>
+        <v>5536800</v>
       </c>
       <c r="H26" s="3">
-        <v>6748500</v>
+        <v>6754100</v>
       </c>
       <c r="I26" s="3">
-        <v>5162500</v>
+        <v>5166800</v>
       </c>
       <c r="J26" s="3">
-        <v>5087700</v>
+        <v>5091900</v>
       </c>
       <c r="K26" s="3">
         <v>3522100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6620600</v>
+        <v>6626100</v>
       </c>
       <c r="E27" s="3">
-        <v>4350500</v>
+        <v>4354100</v>
       </c>
       <c r="F27" s="3">
-        <v>3289200</v>
+        <v>3291900</v>
       </c>
       <c r="G27" s="3">
-        <v>4629100</v>
+        <v>4633000</v>
       </c>
       <c r="H27" s="3">
-        <v>5512600</v>
+        <v>5517200</v>
       </c>
       <c r="I27" s="3">
-        <v>3488600</v>
+        <v>3491500</v>
       </c>
       <c r="J27" s="3">
-        <v>3485400</v>
+        <v>3488300</v>
       </c>
       <c r="K27" s="3">
         <v>2570900</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>303500</v>
+        <v>303800</v>
       </c>
       <c r="F29" s="3">
-        <v>-1874400</v>
+        <v>-1876000</v>
       </c>
       <c r="G29" s="3">
-        <v>-821700</v>
+        <v>-822400</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5955000</v>
+        <v>5959900</v>
       </c>
       <c r="E32" s="3">
-        <v>4792800</v>
+        <v>4796800</v>
       </c>
       <c r="F32" s="3">
-        <v>4535900</v>
+        <v>4539600</v>
       </c>
       <c r="G32" s="3">
-        <v>5716500</v>
+        <v>5721200</v>
       </c>
       <c r="H32" s="3">
-        <v>5600500</v>
+        <v>5605100</v>
       </c>
       <c r="I32" s="3">
-        <v>7752400</v>
+        <v>7758800</v>
       </c>
       <c r="J32" s="3">
-        <v>7664600</v>
+        <v>7671000</v>
       </c>
       <c r="K32" s="3">
         <v>7585900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6620600</v>
+        <v>6626100</v>
       </c>
       <c r="E33" s="3">
-        <v>4654000</v>
+        <v>4657900</v>
       </c>
       <c r="F33" s="3">
-        <v>1414800</v>
+        <v>1415900</v>
       </c>
       <c r="G33" s="3">
-        <v>3807400</v>
+        <v>3810500</v>
       </c>
       <c r="H33" s="3">
-        <v>5512600</v>
+        <v>5517200</v>
       </c>
       <c r="I33" s="3">
-        <v>3488600</v>
+        <v>3491500</v>
       </c>
       <c r="J33" s="3">
-        <v>3485400</v>
+        <v>3488300</v>
       </c>
       <c r="K33" s="3">
         <v>2570900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6620600</v>
+        <v>6626100</v>
       </c>
       <c r="E35" s="3">
-        <v>4654000</v>
+        <v>4657900</v>
       </c>
       <c r="F35" s="3">
-        <v>1414800</v>
+        <v>1415900</v>
       </c>
       <c r="G35" s="3">
-        <v>3807400</v>
+        <v>3810500</v>
       </c>
       <c r="H35" s="3">
-        <v>5512600</v>
+        <v>5517200</v>
       </c>
       <c r="I35" s="3">
-        <v>3488600</v>
+        <v>3491500</v>
       </c>
       <c r="J35" s="3">
-        <v>3485400</v>
+        <v>3488300</v>
       </c>
       <c r="K35" s="3">
         <v>2570900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>108614000</v>
+        <v>108704000</v>
       </c>
       <c r="E41" s="3">
-        <v>94052200</v>
+        <v>94130300</v>
       </c>
       <c r="F41" s="3">
-        <v>93562200</v>
+        <v>93639800</v>
       </c>
       <c r="G41" s="3">
-        <v>67459200</v>
+        <v>67515200</v>
       </c>
       <c r="H41" s="3">
-        <v>77297400</v>
+        <v>77361600</v>
       </c>
       <c r="I41" s="3">
-        <v>82652900</v>
+        <v>82721500</v>
       </c>
       <c r="J41" s="3">
-        <v>87059700</v>
+        <v>87132000</v>
       </c>
       <c r="K41" s="3">
         <v>96110800</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>239170000</v>
+        <v>239368000</v>
       </c>
       <c r="E42" s="3">
-        <v>209120000</v>
+        <v>209293000</v>
       </c>
       <c r="F42" s="3">
-        <v>199068000</v>
+        <v>199233000</v>
       </c>
       <c r="G42" s="3">
-        <v>183379000</v>
+        <v>183531000</v>
       </c>
       <c r="H42" s="3">
-        <v>168896000</v>
+        <v>169037000</v>
       </c>
       <c r="I42" s="3">
-        <v>151085000</v>
+        <v>151210000</v>
       </c>
       <c r="J42" s="3">
-        <v>181659000</v>
+        <v>181810000</v>
       </c>
       <c r="K42" s="3">
         <v>235369000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1986100</v>
+        <v>1987700</v>
       </c>
       <c r="E47" s="3">
-        <v>976800</v>
+        <v>977600</v>
       </c>
       <c r="F47" s="3">
-        <v>1557900</v>
+        <v>1559100</v>
       </c>
       <c r="G47" s="3">
-        <v>1613100</v>
+        <v>1614500</v>
       </c>
       <c r="H47" s="3">
-        <v>1710700</v>
+        <v>1712100</v>
       </c>
       <c r="I47" s="3">
-        <v>1721600</v>
+        <v>1723000</v>
       </c>
       <c r="J47" s="3">
-        <v>829300</v>
+        <v>830000</v>
       </c>
       <c r="K47" s="3">
         <v>930000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9471800</v>
+        <v>9479600</v>
       </c>
       <c r="E48" s="3">
-        <v>7911800</v>
+        <v>7918300</v>
       </c>
       <c r="F48" s="3">
-        <v>8480900</v>
+        <v>8488000</v>
       </c>
       <c r="G48" s="3">
-        <v>10914700</v>
+        <v>10923800</v>
       </c>
       <c r="H48" s="3">
-        <v>7837000</v>
+        <v>7843500</v>
       </c>
       <c r="I48" s="3">
-        <v>7795800</v>
+        <v>7802200</v>
       </c>
       <c r="J48" s="3">
-        <v>9694000</v>
+        <v>9702100</v>
       </c>
       <c r="K48" s="3">
         <v>10520800</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2337300</v>
+        <v>2339300</v>
       </c>
       <c r="E49" s="3">
-        <v>2381800</v>
+        <v>2383700</v>
       </c>
       <c r="F49" s="3">
-        <v>2542200</v>
+        <v>2544300</v>
       </c>
       <c r="G49" s="3">
-        <v>7551800</v>
+        <v>7558100</v>
       </c>
       <c r="H49" s="3">
-        <v>9013200</v>
+        <v>9020700</v>
       </c>
       <c r="I49" s="3">
-        <v>9175800</v>
+        <v>9183400</v>
       </c>
       <c r="J49" s="3">
-        <v>10609000</v>
+        <v>10617800</v>
       </c>
       <c r="K49" s="3">
         <v>10635000</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17095200</v>
+        <v>17109400</v>
       </c>
       <c r="E52" s="3">
-        <v>17321700</v>
+        <v>17336100</v>
       </c>
       <c r="F52" s="3">
-        <v>109835000</v>
+        <v>109926000</v>
       </c>
       <c r="G52" s="3">
-        <v>19944200</v>
+        <v>19960700</v>
       </c>
       <c r="H52" s="3">
-        <v>18773400</v>
+        <v>18788900</v>
       </c>
       <c r="I52" s="3">
-        <v>41822400</v>
+        <v>41857100</v>
       </c>
       <c r="J52" s="3">
-        <v>21675500</v>
+        <v>21693500</v>
       </c>
       <c r="K52" s="3">
         <v>20363300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>771979000</v>
+        <v>772620000</v>
       </c>
       <c r="E54" s="3">
-        <v>718634000</v>
+        <v>719230000</v>
       </c>
       <c r="F54" s="3">
-        <v>795509000</v>
+        <v>796170000</v>
       </c>
       <c r="G54" s="3">
-        <v>753960000</v>
+        <v>754586000</v>
       </c>
       <c r="H54" s="3">
-        <v>733599000</v>
+        <v>734208000</v>
       </c>
       <c r="I54" s="3">
-        <v>748093000</v>
+        <v>748714000</v>
       </c>
       <c r="J54" s="3">
-        <v>793405000</v>
+        <v>794064000</v>
       </c>
       <c r="K54" s="3">
         <v>793347000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6150100</v>
+        <v>6155200</v>
       </c>
       <c r="E57" s="3">
-        <v>6642300</v>
+        <v>6647800</v>
       </c>
       <c r="F57" s="3">
-        <v>5420500</v>
+        <v>5425000</v>
       </c>
       <c r="G57" s="3">
-        <v>4871900</v>
+        <v>4876000</v>
       </c>
       <c r="H57" s="3">
-        <v>6123000</v>
+        <v>6128100</v>
       </c>
       <c r="I57" s="3">
-        <v>6030800</v>
+        <v>6035900</v>
       </c>
       <c r="J57" s="3">
-        <v>7079200</v>
+        <v>7085100</v>
       </c>
       <c r="K57" s="3">
         <v>7380600</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4348300</v>
+        <v>4351900</v>
       </c>
       <c r="E59" s="3">
-        <v>3014900</v>
+        <v>3017400</v>
       </c>
       <c r="F59" s="3">
-        <v>591900</v>
+        <v>592400</v>
       </c>
       <c r="G59" s="3">
-        <v>954000</v>
+        <v>954800</v>
       </c>
       <c r="H59" s="3">
-        <v>1333400</v>
+        <v>1334500</v>
       </c>
       <c r="I59" s="3">
-        <v>1207700</v>
+        <v>1208700</v>
       </c>
       <c r="J59" s="3">
-        <v>1952500</v>
+        <v>1954100</v>
       </c>
       <c r="K59" s="3">
         <v>1848300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61606200</v>
+        <v>61657300</v>
       </c>
       <c r="E61" s="3">
-        <v>66909600</v>
+        <v>66965100</v>
       </c>
       <c r="F61" s="3">
-        <v>74786600</v>
+        <v>74848700</v>
       </c>
       <c r="G61" s="3">
-        <v>78005300</v>
+        <v>78070100</v>
       </c>
       <c r="H61" s="3">
-        <v>69349900</v>
+        <v>69407400</v>
       </c>
       <c r="I61" s="3">
-        <v>69290300</v>
+        <v>69347800</v>
       </c>
       <c r="J61" s="3">
-        <v>82798100</v>
+        <v>82866900</v>
       </c>
       <c r="K61" s="3">
         <v>86734800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6995700</v>
+        <v>7001500</v>
       </c>
       <c r="E62" s="3">
-        <v>8302000</v>
+        <v>8308900</v>
       </c>
       <c r="F62" s="3">
-        <v>8618600</v>
+        <v>8625800</v>
       </c>
       <c r="G62" s="3">
-        <v>9178000</v>
+        <v>9185600</v>
       </c>
       <c r="H62" s="3">
-        <v>9559600</v>
+        <v>9567500</v>
       </c>
       <c r="I62" s="3">
-        <v>10473500</v>
+        <v>10482200</v>
       </c>
       <c r="J62" s="3">
-        <v>13511100</v>
+        <v>13522400</v>
       </c>
       <c r="K62" s="3">
         <v>12981700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>721141000</v>
+        <v>721740000</v>
       </c>
       <c r="E66" s="3">
-        <v>671034000</v>
+        <v>671591000</v>
       </c>
       <c r="F66" s="3">
-        <v>747214000</v>
+        <v>747834000</v>
       </c>
       <c r="G66" s="3">
-        <v>701138000</v>
+        <v>701721000</v>
       </c>
       <c r="H66" s="3">
-        <v>682527000</v>
+        <v>683093000</v>
       </c>
       <c r="I66" s="3">
-        <v>697851000</v>
+        <v>698431000</v>
       </c>
       <c r="J66" s="3">
-        <v>742058000</v>
+        <v>742674000</v>
       </c>
       <c r="K66" s="3">
         <v>743314000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44114200</v>
+        <v>44150800</v>
       </c>
       <c r="E72" s="3">
-        <v>37241000</v>
+        <v>37271900</v>
       </c>
       <c r="F72" s="3">
-        <v>34488500</v>
+        <v>34517100</v>
       </c>
       <c r="G72" s="3">
-        <v>34362700</v>
+        <v>34391200</v>
       </c>
       <c r="H72" s="3">
-        <v>29605700</v>
+        <v>29630300</v>
       </c>
       <c r="I72" s="3">
-        <v>28244100</v>
+        <v>28267500</v>
       </c>
       <c r="J72" s="3">
-        <v>27737800</v>
+        <v>27760800</v>
       </c>
       <c r="K72" s="3">
         <v>26589700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50837800</v>
+        <v>50880000</v>
       </c>
       <c r="E76" s="3">
-        <v>47599600</v>
+        <v>47639100</v>
       </c>
       <c r="F76" s="3">
-        <v>48295600</v>
+        <v>48335700</v>
       </c>
       <c r="G76" s="3">
-        <v>52821700</v>
+        <v>52865500</v>
       </c>
       <c r="H76" s="3">
-        <v>51072000</v>
+        <v>51114300</v>
       </c>
       <c r="I76" s="3">
-        <v>50241500</v>
+        <v>50283200</v>
       </c>
       <c r="J76" s="3">
-        <v>51347300</v>
+        <v>51389900</v>
       </c>
       <c r="K76" s="3">
         <v>50032800</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6620600</v>
+        <v>6626100</v>
       </c>
       <c r="E81" s="3">
-        <v>4654000</v>
+        <v>4657900</v>
       </c>
       <c r="F81" s="3">
-        <v>1414800</v>
+        <v>1415900</v>
       </c>
       <c r="G81" s="3">
-        <v>3807400</v>
+        <v>3810500</v>
       </c>
       <c r="H81" s="3">
-        <v>5512600</v>
+        <v>5517200</v>
       </c>
       <c r="I81" s="3">
-        <v>3488600</v>
+        <v>3491500</v>
       </c>
       <c r="J81" s="3">
-        <v>3485400</v>
+        <v>3488300</v>
       </c>
       <c r="K81" s="3">
         <v>2570900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1439700</v>
+        <v>1440900</v>
       </c>
       <c r="E83" s="3">
-        <v>1337800</v>
+        <v>1338900</v>
       </c>
       <c r="F83" s="3">
-        <v>1396300</v>
+        <v>1397500</v>
       </c>
       <c r="G83" s="3">
-        <v>1502600</v>
+        <v>1503800</v>
       </c>
       <c r="H83" s="3">
-        <v>1309600</v>
+        <v>1310700</v>
       </c>
       <c r="I83" s="3">
-        <v>1503600</v>
+        <v>1504900</v>
       </c>
       <c r="J83" s="3">
-        <v>1545900</v>
+        <v>1547200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25713800</v>
+        <v>25735100</v>
       </c>
       <c r="E89" s="3">
-        <v>-1346500</v>
+        <v>-1347600</v>
       </c>
       <c r="F89" s="3">
-        <v>42658300</v>
+        <v>42693700</v>
       </c>
       <c r="G89" s="3">
-        <v>-11550000</v>
+        <v>-11559600</v>
       </c>
       <c r="H89" s="3">
-        <v>10026800</v>
+        <v>10035200</v>
       </c>
       <c r="I89" s="3">
-        <v>2228900</v>
+        <v>2230800</v>
       </c>
       <c r="J89" s="3">
-        <v>7180000</v>
+        <v>7186000</v>
       </c>
       <c r="K89" s="3">
         <v>-6546900</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1964400</v>
+        <v>-1966000</v>
       </c>
       <c r="E91" s="3">
-        <v>-429300</v>
+        <v>-429700</v>
       </c>
       <c r="F91" s="3">
-        <v>-685200</v>
+        <v>-685700</v>
       </c>
       <c r="G91" s="3">
-        <v>-923700</v>
+        <v>-924400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1022300</v>
+        <v>-1023200</v>
       </c>
       <c r="I91" s="3">
-        <v>-842300</v>
+        <v>-843000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1422300</v>
+        <v>-1423500</v>
       </c>
       <c r="K91" s="3">
         <v>-1501300</v>
@@ -3937,10 +3937,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4239900</v>
+        <v>-4243400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1771400</v>
+        <v>-1772900</v>
       </c>
       <c r="F94" s="3">
         <v>-40100</v>
@@ -3949,13 +3949,13 @@
         <v>105200</v>
       </c>
       <c r="H94" s="3">
-        <v>8148100</v>
+        <v>8154900</v>
       </c>
       <c r="I94" s="3">
-        <v>3146100</v>
+        <v>3148700</v>
       </c>
       <c r="J94" s="3">
-        <v>-607100</v>
+        <v>-607600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2368800</v>
+        <v>-2370700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1003900</v>
+        <v>-1004700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1154600</v>
+        <v>-1155500</v>
       </c>
       <c r="G96" s="3">
-        <v>-2327600</v>
+        <v>-2329500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2284200</v>
+        <v>-2286100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1840800</v>
+        <v>-1842300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1733500</v>
+        <v>-1734900</v>
       </c>
       <c r="K96" s="3">
         <v>-873900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8199000</v>
+        <v>-8205900</v>
       </c>
       <c r="E100" s="3">
-        <v>-4714800</v>
+        <v>-4718700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2243000</v>
+        <v>-2244900</v>
       </c>
       <c r="G100" s="3">
-        <v>-2929200</v>
+        <v>-2931700</v>
       </c>
       <c r="H100" s="3">
-        <v>-5520200</v>
+        <v>-5524800</v>
       </c>
       <c r="I100" s="3">
-        <v>-106200</v>
+        <v>-106300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1206600</v>
+        <v>-1207600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-312200</v>
+        <v>-312500</v>
       </c>
       <c r="E101" s="3">
-        <v>-2020800</v>
+        <v>-2022400</v>
       </c>
       <c r="F101" s="3">
-        <v>-5049700</v>
+        <v>-5053900</v>
       </c>
       <c r="G101" s="3">
-        <v>-687300</v>
+        <v>-687900</v>
       </c>
       <c r="H101" s="3">
-        <v>-2708100</v>
+        <v>-2710300</v>
       </c>
       <c r="I101" s="3">
-        <v>-4624800</v>
+        <v>-4628600</v>
       </c>
       <c r="J101" s="3">
-        <v>-3754200</v>
+        <v>-3757400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>12962600</v>
+        <v>12973300</v>
       </c>
       <c r="E102" s="3">
-        <v>-9853400</v>
+        <v>-9861600</v>
       </c>
       <c r="F102" s="3">
-        <v>35325400</v>
+        <v>35354700</v>
       </c>
       <c r="G102" s="3">
-        <v>-15061400</v>
+        <v>-15073900</v>
       </c>
       <c r="H102" s="3">
-        <v>9946600</v>
+        <v>9954900</v>
       </c>
       <c r="I102" s="3">
-        <v>644000</v>
+        <v>644500</v>
       </c>
       <c r="J102" s="3">
-        <v>1614200</v>
+        <v>1615600</v>
       </c>
       <c r="K102" s="3">
         <v>-3657500</v>
